--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeta1\Desktop\てお\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeta1\Desktop\てお\ソースツリー\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11990" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="157">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -212,126 +212,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引き合う</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Aボタンを押している間引き合う、加速しながら引き合う</t>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カソク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー挟み時</t>
-    <rPh sb="5" eb="6">
-      <t>ハサ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左スティックで挟んでるものごと移動</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハサ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回転</t>
-    <rPh sb="0" eb="2">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>挟んでるものごと回転、左肩ボタンで左回転、右も同様。</t>
-    <rPh sb="0" eb="1">
-      <t>ハサ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ドウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>挟んでるものの回転は２体の中心を中心にして回転、イズミンが作った回転サンプルを参照</t>
-  </si>
-  <si>
-    <t>プレイヤー挟み解除時</t>
-    <rPh sb="5" eb="6">
-      <t>ハサ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイジョ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面大きさ</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -342,61 +222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飛ばし</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１体目は左スティック、２体目はプレイヤー。</t>
-    <rPh sb="1" eb="2">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左スティックを倒してる方向に飛ばす、プレイヤーがいる方向には飛ばせない。</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エネミー(突進)</t>
-    <rPh sb="5" eb="7">
-      <t>トッシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>索敵</t>
     <rPh sb="0" eb="2">
       <t>サクテキ</t>
@@ -411,92 +236,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一定距離にプレイヤーがいるか判定、いたら攻撃状態へ</t>
-    <rPh sb="0" eb="2">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>狙いを定めたプレイヤーに向かって突進、プレイヤーに接触したらプレイヤーを吹き飛ばす。</t>
-    <rPh sb="0" eb="1">
-      <t>ネラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サダ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トッシン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>帰る</t>
-    <rPh sb="0" eb="1">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分の初期位置からある程度離れたら戻る。永遠にプレイヤーを追い続けないようにする。</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>エイエン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オブジェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -1179,6 +918,407 @@
     <t>装甲</t>
     <rPh sb="0" eb="2">
       <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル点滅とタイマーHPマージ[アベ]</t>
+    <rPh sb="4" eb="6">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左スティック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aボタンを押す。押してる時間でプレイヤーの間の距離が変わる</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aボタンを離す。加速しながら合体</t>
+    <rPh sb="5" eb="6">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カソク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　L移動</t>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　L分裂</t>
+    <rPh sb="2" eb="4">
+      <t>ブンレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　L合体</t>
+    <rPh sb="2" eb="4">
+      <t>ガッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　LLはさむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　LLL移動</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　LLL回転</t>
+    <rPh sb="4" eb="6">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aボタンを押しながらRB,LBで回転</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aボタンを押しながら左スティックで移動</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミサイル、爆弾等が挟める</t>
+    <rPh sb="5" eb="7">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　Lプレスエニー点滅</t>
+    <rPh sb="8" eb="10">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常点滅、ボタン押されたら点滅早く</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　L暗転</t>
+    <rPh sb="2" eb="4">
+      <t>アンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンが押されたら暗転開始。暗転幕はスプライトスタジオとかでアニメーションつける</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>アンテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>アンテン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　LUI配置</t>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴ、背景、プレスエニー</t>
+    <rPh sb="7" eb="9">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクトロゴ、フレーム、操作説明</t>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　Lオブジェクト配置</t>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面、背景(3D)、ステージの箱、プレイヤー、</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　Lステージボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挟まれたらそれぞれのステージに飛ぶ。飛ぶとき確認メッセージ</t>
+    <rPh sb="0" eb="1">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　LL確認ボックス</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージボックスが挟まれた時に生成(座標画面中央)、飛ぶか確認(Yes,No)</t>
+    <rPh sb="9" eb="10">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルと同じ</t>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイム、プレイヤーのHP、敵残り数</t>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面(セル方式)、エネミー、プレイヤー</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　Lポーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　LリザルトUI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状かかった時間でランク付け。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　LL選択項目</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のステージ、リトライ、ステージセレクト、タイトル</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームに戻る、リトライ、ステージセレクト、タイトル</t>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　Lゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景、ゲームオーバーロゴ配置</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リトライ、ステージセレクト、タイトル</t>
+  </si>
+  <si>
+    <t>UI：時間、スコア、ランク、背景、リザルトロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI：背景、ゲームオーバーロゴ</t>
+    <rPh sb="3" eb="5">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI：左のやつ</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1268,7 +1408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1628,19 +1768,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1681,19 +1808,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1931,16 +2045,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1995,12 +2138,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2025,54 +2168,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2086,6 +2220,81 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2097,82 +2306,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2490,451 +2651,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="19.58203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="44">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="41">
         <v>42842</v>
       </c>
-      <c r="E1" s="45">
+      <c r="E1" s="42">
         <v>42877</v>
       </c>
-      <c r="F1" s="45">
+      <c r="F1" s="42">
         <v>42898</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="82"/>
+      <c r="G2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="83"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="69"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="4"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="69"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="4"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="4"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="I18" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3"/>
-      <c r="B5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="24" t="s">
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="38" t="s">
+      <c r="I19" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3"/>
-      <c r="B7" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="F8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="38" t="s">
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="4"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="38" t="s">
+      <c r="I20" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="31"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="38" t="s">
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="4"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="4"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="38" t="s">
+      <c r="I22" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="69"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="30"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="31"/>
-      <c r="B12" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="31"/>
-      <c r="B13" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="31"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="4"/>
-      <c r="F14" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="31"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="4"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="31"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="4"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="31"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="4"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="31"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="4"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="31"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="4"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="30"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="31"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="4"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="31"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="4"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="31"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="4"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="31"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="4"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="32"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="6"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F25" s="31"/>
-      <c r="G25" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F26" s="31"/>
-      <c r="G26" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F27" s="31"/>
-      <c r="G27" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F28" s="31"/>
-      <c r="G28" s="24"/>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="24"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F29" s="32"/>
-      <c r="G29" s="25"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B29" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="33"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="33"/>
+    </row>
+    <row r="30" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="69"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="69"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="69"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B35" s="81"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="33"/>
+    </row>
+    <row r="36" spans="2:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -2949,7 +3223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2961,19 +3235,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="51"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3528,115 +3802,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="46" t="s">
-        <v>90</v>
+      <c r="B1" s="43" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="47" t="s">
-        <v>91</v>
+      <c r="B3" s="44" t="s">
+        <v>72</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="28" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>121</v>
-      </c>
       <c r="G5" s="24" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>103</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>122</v>
       </c>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="31" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H7" s="30"/>
     </row>
@@ -3679,7 +3953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -3689,97 +3963,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="46" t="s">
-        <v>123</v>
+      <c r="B1" s="43" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="58"/>
-      <c r="C3" s="77" t="s">
-        <v>124</v>
+      <c r="B3" s="52"/>
+      <c r="C3" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" s="48"/>
+        <v>111</v>
+      </c>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="75" t="s">
-        <v>101</v>
+      <c r="B4" s="68" t="s">
+        <v>82</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="76" t="s">
-        <v>102</v>
+      <c r="B5" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="76" t="s">
-        <v>103</v>
+      <c r="B6" s="69" t="s">
+        <v>84</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="76" t="s">
-        <v>104</v>
+      <c r="B7" s="69" t="s">
+        <v>85</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3794,268 +4068,284 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B1" s="46" t="s">
-        <v>95</v>
+      <c r="B1" s="43" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59">
+      <c r="B2" s="52"/>
+      <c r="C2" s="53">
         <v>42843</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="53">
         <v>42844</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="53">
         <v>42845</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="16"/>
+      <c r="F2" s="53">
+        <v>42846</v>
+      </c>
+      <c r="G2" s="53">
+        <v>42847</v>
+      </c>
+      <c r="H2" s="53">
+        <v>42848</v>
+      </c>
+      <c r="I2" s="53">
+        <v>42849</v>
+      </c>
+      <c r="J2" s="53">
+        <v>42850</v>
+      </c>
+      <c r="K2" s="53">
+        <v>42851</v>
+      </c>
+      <c r="L2" s="53">
+        <v>42852</v>
+      </c>
     </row>
     <row r="3" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
+      <c r="B3" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="57"/>
     </row>
     <row r="4" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="68"/>
+      <c r="B4" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="68"/>
+      <c r="B5" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
     </row>
     <row r="6" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="68"/>
+      <c r="B6" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
+      <c r="B7" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
     </row>
     <row r="8" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="55"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="68"/>
+      <c r="B8" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
     </row>
     <row r="9" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="55"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="68"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
     </row>
     <row r="10" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="55"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="68"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="61"/>
     </row>
     <row r="11" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="55"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
     </row>
     <row r="12" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="55"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
     </row>
     <row r="13" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="55"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
     </row>
     <row r="14" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="55"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="61"/>
     </row>
     <row r="15" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="55"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
     </row>
     <row r="16" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="55"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="68"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
     </row>
     <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="55"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="68"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="55"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="68"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
     </row>
     <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="56"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="74"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1319,6 +1319,42 @@
     <t>UI：左のやつ</t>
     <rPh sb="3" eb="4">
       <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー練り[D]</t>
+    <rPh sb="5" eb="6">
+      <t>ネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー練り[D]</t>
+    <rPh sb="4" eb="5">
+      <t>ネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーモデリング[D]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM再生[ユック]</t>
+    <rPh sb="3" eb="5">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト[アベ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー回転[イズミ]</t>
+    <rPh sb="5" eb="7">
+      <t>カイテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1395,7 +1431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1407,8 +1443,13 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2074,16 +2115,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2273,9 +2330,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2295,6 +2349,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2306,40 +2390,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2653,7 +2714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -2672,11 +2733,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -2688,7 +2749,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="82"/>
+      <c r="A2" s="78"/>
       <c r="G2" s="34" t="s">
         <v>32</v>
       </c>
@@ -2696,9 +2757,9 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="83"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="70" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="69" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="38" t="s">
@@ -2721,10 +2782,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="40"/>
       <c r="E4" s="2"/>
       <c r="G4" s="31" t="s">
@@ -2739,10 +2800,10 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="73" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="36"/>
@@ -2759,10 +2820,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="73" t="s">
         <v>115</v>
       </c>
       <c r="D6" s="36"/>
@@ -2777,10 +2838,10 @@
       <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="73" t="s">
         <v>116</v>
       </c>
       <c r="D7" s="36"/>
@@ -2791,10 +2852,10 @@
       <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="73" t="s">
         <v>125</v>
       </c>
       <c r="D8" s="36"/>
@@ -2811,10 +2872,10 @@
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="73" t="s">
         <v>124</v>
       </c>
       <c r="D9" s="36"/>
@@ -2829,10 +2890,10 @@
       <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="73" t="s">
         <v>123</v>
       </c>
       <c r="D10" s="36"/>
@@ -2847,8 +2908,8 @@
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="69"/>
-      <c r="C11" s="77"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="36"/>
       <c r="E11" s="4"/>
       <c r="G11" s="31"/>
@@ -2861,10 +2922,10 @@
       <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="36"/>
       <c r="E12" s="4"/>
       <c r="G12" s="31"/>
@@ -2879,10 +2940,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="73" t="s">
         <v>133</v>
       </c>
       <c r="D13" s="36"/>
@@ -2893,10 +2954,10 @@
       <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="73" t="s">
         <v>128</v>
       </c>
       <c r="D14" s="36"/>
@@ -2913,10 +2974,10 @@
       <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="73" t="s">
         <v>130</v>
       </c>
       <c r="D15" s="36"/>
@@ -2929,8 +2990,8 @@
       <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="69"/>
-      <c r="C16" s="77"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="36"/>
       <c r="E16" s="4"/>
       <c r="G16" s="31"/>
@@ -2943,10 +3004,10 @@
       <c r="J16" s="30"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="36"/>
       <c r="E17" s="4"/>
       <c r="G17" s="31"/>
@@ -2959,10 +3020,10 @@
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="73" t="s">
         <v>134</v>
       </c>
       <c r="D18" s="36"/>
@@ -2977,10 +3038,10 @@
       <c r="J18" s="30"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="74" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="36"/>
@@ -2995,10 +3056,10 @@
       <c r="J19" s="30"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="74" t="s">
         <v>138</v>
       </c>
       <c r="D20" s="36"/>
@@ -3015,10 +3076,10 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="74" t="s">
         <v>140</v>
       </c>
       <c r="D21" s="36"/>
@@ -3029,10 +3090,10 @@
       <c r="J21" s="30"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="74" t="s">
         <v>141</v>
       </c>
       <c r="D22" s="36"/>
@@ -3047,8 +3108,8 @@
       <c r="J22" s="30"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="69"/>
-      <c r="C23" s="78"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="36"/>
       <c r="E23" s="4"/>
       <c r="G23" s="31"/>
@@ -3059,10 +3120,10 @@
       <c r="J23" s="30"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="24"/>
       <c r="E24" s="30"/>
       <c r="G24" s="31"/>
@@ -3075,10 +3136,10 @@
       <c r="J24" s="30"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="74" t="s">
         <v>143</v>
       </c>
       <c r="D25" s="24"/>
@@ -3093,10 +3154,10 @@
       <c r="J25" s="30"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="74" t="s">
         <v>144</v>
       </c>
       <c r="D26" s="24"/>
@@ -3111,10 +3172,10 @@
       <c r="J26" s="30"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="74" t="s">
         <v>150</v>
       </c>
       <c r="D27" s="24"/>
@@ -3129,10 +3190,10 @@
       <c r="J27" s="30"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="74" t="s">
         <v>147</v>
       </c>
       <c r="D28" s="24" t="s">
@@ -3145,10 +3206,10 @@
       <c r="J28" s="30"/>
     </row>
     <row r="29" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="74" t="s">
         <v>149</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -3161,10 +3222,10 @@
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="74" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -3173,10 +3234,10 @@
       <c r="E30" s="30"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="74" t="s">
         <v>153</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -3185,26 +3246,26 @@
       <c r="E31" s="30"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="69"/>
-      <c r="C32" s="78"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="24"/>
       <c r="E32" s="30"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="69"/>
-      <c r="C33" s="78"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="24"/>
       <c r="E33" s="30"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="69"/>
-      <c r="C34" s="78"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="24"/>
       <c r="E34" s="30"/>
     </row>
     <row r="35" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B35" s="81"/>
-      <c r="C35" s="79"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="25"/>
       <c r="E35" s="33"/>
     </row>
@@ -3235,19 +3296,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="80"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="73"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3970,7 +4031,7 @@
     <row r="2" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="52"/>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="69" t="s">
         <v>105</v>
       </c>
       <c r="D3" s="27" t="s">
@@ -3994,7 +4055,7 @@
       <c r="J3" s="45"/>
     </row>
     <row r="4" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="67" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="7"/>
@@ -4007,7 +4068,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="8"/>
@@ -4020,7 +4081,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="8"/>
@@ -4033,7 +4094,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="68" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="8"/>
@@ -4067,8 +4128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4121,7 +4182,7 @@
       <c r="C3" s="54"/>
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
@@ -4136,7 +4197,7 @@
       <c r="C4" s="58"/>
       <c r="D4" s="59"/>
       <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
+      <c r="F4" s="83"/>
       <c r="G4" s="60"/>
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
@@ -4151,7 +4212,7 @@
       <c r="C5" s="58"/>
       <c r="D5" s="59"/>
       <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="60"/>
@@ -4164,7 +4225,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="60"/>
       <c r="F6" s="60"/>
       <c r="G6" s="60"/>
@@ -4179,7 +4240,7 @@
         <v>81</v>
       </c>
       <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="60"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
@@ -4193,9 +4254,9 @@
       <c r="B8" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="60"/>
-      <c r="E8" s="74"/>
+      <c r="E8" s="83"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
       <c r="H8" s="60"/>
@@ -4205,11 +4266,13 @@
       <c r="L8" s="61"/>
     </row>
     <row r="9" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="49"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
+      <c r="B9" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="60"/>
       <c r="H9" s="60"/>
       <c r="I9" s="60"/>
@@ -4218,11 +4281,13 @@
       <c r="L9" s="61"/>
     </row>
     <row r="10" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="49"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="B10" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
       <c r="I10" s="60"/>
@@ -4231,11 +4296,13 @@
       <c r="L10" s="61"/>
     </row>
     <row r="11" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="49"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="63"/>
       <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
@@ -4244,11 +4311,13 @@
       <c r="L11" s="61"/>
     </row>
     <row r="12" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="49"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="63"/>
       <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
       <c r="I12" s="60"/>
@@ -4257,11 +4326,13 @@
       <c r="L12" s="61"/>
     </row>
     <row r="13" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="49"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="63"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="60"/>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
@@ -4270,11 +4341,13 @@
       <c r="L13" s="61"/>
     </row>
     <row r="14" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="49"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="63"/>
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="60"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
@@ -4284,7 +4357,7 @@
     </row>
     <row r="15" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
-      <c r="C15" s="64"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
       <c r="F15" s="60"/>
@@ -4297,7 +4370,7 @@
     </row>
     <row r="16" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="49"/>
-      <c r="C16" s="64"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60"/>
       <c r="F16" s="60"/>
@@ -4310,7 +4383,7 @@
     </row>
     <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="49"/>
-      <c r="C17" s="64"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60"/>
       <c r="F17" s="60"/>
@@ -4323,7 +4396,7 @@
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="49"/>
-      <c r="C18" s="64"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="60"/>
       <c r="E18" s="60"/>
       <c r="F18" s="60"/>
@@ -4336,16 +4409,16 @@
     </row>
     <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="50"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="165">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1355,6 +1355,23 @@
     <t>プレイヤー回転[イズミ]</t>
     <rPh sb="5" eb="7">
       <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ仕様変更(Rigidbody)[イズミ]</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルカメラ変更[アベ]</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2381,6 +2398,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2389,12 +2412,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2733,11 +2750,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -3296,19 +3313,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="82"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="82"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4129,7 +4146,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4197,7 +4214,7 @@
       <c r="C4" s="58"/>
       <c r="D4" s="59"/>
       <c r="E4" s="59"/>
-      <c r="F4" s="83"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="60"/>
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
@@ -4212,7 +4229,7 @@
       <c r="C5" s="58"/>
       <c r="D5" s="59"/>
       <c r="E5" s="59"/>
-      <c r="F5" s="83"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="60"/>
@@ -4225,7 +4242,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="62"/>
-      <c r="D6" s="83"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="60"/>
       <c r="F6" s="60"/>
       <c r="G6" s="60"/>
@@ -4240,7 +4257,7 @@
         <v>81</v>
       </c>
       <c r="C7" s="58"/>
-      <c r="D7" s="83"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="60"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
@@ -4256,7 +4273,7 @@
       </c>
       <c r="C8" s="63"/>
       <c r="D8" s="60"/>
-      <c r="E8" s="83"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
       <c r="H8" s="60"/>
@@ -4287,7 +4304,7 @@
       <c r="C10" s="58"/>
       <c r="D10" s="59"/>
       <c r="E10" s="59"/>
-      <c r="F10" s="83"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
       <c r="I10" s="60"/>
@@ -4301,7 +4318,7 @@
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="60"/>
-      <c r="E11" s="84"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="59"/>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -4316,7 +4333,7 @@
       </c>
       <c r="C12" s="63"/>
       <c r="D12" s="60"/>
-      <c r="E12" s="84"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="59"/>
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
@@ -4332,7 +4349,7 @@
       <c r="C13" s="63"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
-      <c r="F13" s="83"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="60"/>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
@@ -4347,7 +4364,7 @@
       <c r="C14" s="63"/>
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
-      <c r="F14" s="83"/>
+      <c r="F14" s="80"/>
       <c r="G14" s="60"/>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
@@ -4356,11 +4373,13 @@
       <c r="L14" s="61"/>
     </row>
     <row r="15" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="49"/>
+      <c r="B15" s="49" t="s">
+        <v>163</v>
+      </c>
       <c r="C15" s="63"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="60"/>
       <c r="H15" s="60"/>
       <c r="I15" s="60"/>
@@ -4369,11 +4388,13 @@
       <c r="L15" s="61"/>
     </row>
     <row r="16" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="49"/>
+      <c r="B16" s="49" t="s">
+        <v>164</v>
+      </c>
       <c r="C16" s="63"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="60"/>
       <c r="H16" s="60"/>
       <c r="I16" s="60"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeta1\Desktop\てお\ソースツリー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takayosi\Documents\A_Team2017Zenki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11990" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="206">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -874,33 +874,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>索敵時間</t>
-    <rPh sb="0" eb="2">
-      <t>サクテキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃間隔</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <rPh sb="0" eb="2">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大きさ</t>
     <rPh sb="0" eb="1">
       <t>オオ</t>
@@ -915,13 +888,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>装甲</t>
-    <rPh sb="0" eb="2">
-      <t>ソウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル点滅とタイマーHPマージ[アベ]</t>
     <rPh sb="4" eb="6">
       <t>テンメツ</t>
@@ -1373,6 +1339,189 @@
     <rPh sb="7" eb="9">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１～３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５～９</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１～３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２～３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４～６</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８～１４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５～１０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３～４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突撃回数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１～３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テレポート子機</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３～６</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミサイル子機</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子機発射間隔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４～７</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆発範囲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２～４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クールタイム(S)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>索敵距離(m)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度(m/s)</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1m=プレイヤーの直径</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１～２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４～８</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5～１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１～３(大きさに比例）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３～５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８～１２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３～６</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>索敵範囲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発射数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４発</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３機</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発射間隔(S)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生存時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子機が落ちたら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>∞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２０～３０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３～５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テレポート子機</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2157,7 +2306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2294,15 +2443,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
@@ -2411,6 +2551,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2750,11 +2917,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -2766,7 +2933,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="78"/>
+      <c r="A2" s="75"/>
       <c r="G2" s="34" t="s">
         <v>32</v>
       </c>
@@ -2774,9 +2941,9 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="79"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="69" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="66" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="38" t="s">
@@ -2799,10 +2966,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="72"/>
+      <c r="B4" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="69"/>
       <c r="D4" s="40"/>
       <c r="E4" s="2"/>
       <c r="G4" s="31" t="s">
@@ -2817,11 +2984,11 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>114</v>
+      <c r="B5" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>110</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="4"/>
@@ -2837,11 +3004,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>115</v>
+      <c r="B6" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>111</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="4"/>
@@ -2855,11 +3022,11 @@
       <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>116</v>
+      <c r="B7" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>112</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="4"/>
@@ -2869,11 +3036,11 @@
       <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>125</v>
+      <c r="B8" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>121</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="4"/>
@@ -2889,11 +3056,11 @@
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>124</v>
+      <c r="B9" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>120</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="4"/>
@@ -2907,11 +3074,11 @@
       <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>123</v>
+      <c r="B10" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>119</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="4"/>
@@ -2925,8 +3092,8 @@
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="68"/>
-      <c r="C11" s="73"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="36"/>
       <c r="E11" s="4"/>
       <c r="G11" s="31"/>
@@ -2939,10 +3106,10 @@
       <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="73"/>
+      <c r="B12" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="70"/>
       <c r="D12" s="36"/>
       <c r="E12" s="4"/>
       <c r="G12" s="31"/>
@@ -2957,11 +3124,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>133</v>
+      <c r="B13" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>129</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="4"/>
@@ -2971,11 +3138,11 @@
       <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="73" t="s">
-        <v>128</v>
+      <c r="B14" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>124</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="4"/>
@@ -2991,11 +3158,11 @@
       <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>130</v>
+      <c r="B15" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>126</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="4"/>
@@ -3007,8 +3174,8 @@
       <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="68"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="36"/>
       <c r="E16" s="4"/>
       <c r="G16" s="31"/>
@@ -3021,10 +3188,10 @@
       <c r="J16" s="30"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="73"/>
+      <c r="B17" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="70"/>
       <c r="D17" s="36"/>
       <c r="E17" s="4"/>
       <c r="G17" s="31"/>
@@ -3037,11 +3204,11 @@
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>134</v>
+      <c r="B18" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>130</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="4"/>
@@ -3055,11 +3222,11 @@
       <c r="J18" s="30"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>136</v>
+      <c r="B19" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>132</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="4"/>
@@ -3073,11 +3240,11 @@
       <c r="J19" s="30"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>138</v>
+      <c r="B20" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>134</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="4"/>
@@ -3093,11 +3260,11 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>140</v>
+      <c r="B21" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>136</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="4"/>
@@ -3107,11 +3274,11 @@
       <c r="J21" s="30"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>141</v>
+      <c r="B22" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>137</v>
       </c>
       <c r="D22" s="36"/>
       <c r="E22" s="4"/>
@@ -3125,8 +3292,8 @@
       <c r="J22" s="30"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="68"/>
-      <c r="C23" s="74"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="36"/>
       <c r="E23" s="4"/>
       <c r="G23" s="31"/>
@@ -3137,10 +3304,10 @@
       <c r="J23" s="30"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="74"/>
+      <c r="B24" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="71"/>
       <c r="D24" s="24"/>
       <c r="E24" s="30"/>
       <c r="G24" s="31"/>
@@ -3153,11 +3320,11 @@
       <c r="J24" s="30"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="74" t="s">
-        <v>143</v>
+      <c r="B25" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>139</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="30"/>
@@ -3171,11 +3338,11 @@
       <c r="J25" s="30"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>144</v>
+      <c r="B26" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>140</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="30"/>
@@ -3189,11 +3356,11 @@
       <c r="J26" s="30"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>150</v>
+      <c r="B27" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>146</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="30"/>
@@ -3207,14 +3374,14 @@
       <c r="J27" s="30"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="74" t="s">
-        <v>147</v>
+      <c r="B28" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>143</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E28" s="30"/>
       <c r="G28" s="31"/>
@@ -3223,14 +3390,14 @@
       <c r="J28" s="30"/>
     </row>
     <row r="29" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B29" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>149</v>
+      <c r="B29" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>145</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E29" s="30"/>
       <c r="G29" s="32"/>
@@ -3239,50 +3406,50 @@
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>156</v>
-      </c>
       <c r="E31" s="30"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="68"/>
-      <c r="C32" s="74"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="24"/>
       <c r="E32" s="30"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="68"/>
-      <c r="C33" s="74"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="24"/>
       <c r="E33" s="30"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="68"/>
-      <c r="C34" s="74"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="24"/>
       <c r="E34" s="30"/>
     </row>
     <row r="35" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B35" s="77"/>
-      <c r="C35" s="75"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="25"/>
       <c r="E35" s="33"/>
     </row>
@@ -3313,19 +3480,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="82"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="84"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3865,8 +4032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4002,7 +4169,9 @@
       <c r="H8" s="30"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="31"/>
+      <c r="B9" s="31" t="s">
+        <v>176</v>
+      </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -4011,7 +4180,9 @@
       <c r="H9" s="30"/>
     </row>
     <row r="10" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="32"/>
+      <c r="B10" s="32" t="s">
+        <v>205</v>
+      </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -4029,115 +4200,304 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J9"/>
+  <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:12" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="43" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="2:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="52"/>
-      <c r="C3" s="69" t="s">
+      <c r="D1" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="87"/>
+    </row>
+    <row r="2" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="68"/>
+      <c r="C3" s="66" t="s">
         <v>105</v>
       </c>
       <c r="D3" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>110</v>
-      </c>
       <c r="I3" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="45"/>
-    </row>
-    <row r="4" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="L3" s="45"/>
+    </row>
+    <row r="4" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="68" t="s">
+      <c r="C4" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="68" t="s">
+      <c r="C5" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="68" t="s">
+      <c r="C6" s="88">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="50"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="C7" s="89">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="68"/>
+      <c r="C10" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="45"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26">
+        <v>2</v>
+      </c>
+      <c r="F11" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="26">
+        <v>10</v>
+      </c>
+      <c r="I11" s="90"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="24">
+        <v>2</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" s="83"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="72">
+        <v>3</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4145,8 +4505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4160,286 +4520,286 @@
       </c>
     </row>
     <row r="2" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="52"/>
-      <c r="C2" s="53">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50">
         <v>42843</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="50">
         <v>42844</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="50">
         <v>42845</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="50">
         <v>42846</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="50">
         <v>42847</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="50">
         <v>42848</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="50">
         <v>42849</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="50">
         <v>42850</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="50">
         <v>42851</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="50">
         <v>42852</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="57"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="58"/>
     </row>
     <row r="5" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="61"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
     </row>
     <row r="6" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="58"/>
     </row>
     <row r="8" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
+      <c r="B8" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+    </row>
+    <row r="10" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="58"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="58"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="61"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="49" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="61"/>
-    </row>
-    <row r="11" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="49" t="s">
+      <c r="C14" s="60"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="61"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="49" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="61"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
-    </row>
-    <row r="16" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="61"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
     </row>
     <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="49"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="49"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
     </row>
     <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="50"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="63"/>
     </row>
     <row r="20" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takayosi\Documents\A_Team2017Zenki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeta1\Desktop\てお\ソースツリー\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="223">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1522,6 +1522,131 @@
   </si>
   <si>
     <t>テレポート子機</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進行中</t>
+    <rPh sb="0" eb="3">
+      <t>シンコウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中断</t>
+    <rPh sb="0" eb="2">
+      <t>チュウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーモデリング[D]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自爆エネミー[ムック]</t>
+    <rPh sb="0" eb="2">
+      <t>ジバク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーバグ修正[イズミ]</t>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーパラメータ決定[all]</t>
+    <rPh sb="9" eb="11">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業表更新、予定表追加[アベ]</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英語名</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突進エネミー</t>
+    <rPh sb="0" eb="2">
+      <t>トッシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉撃つエネミー</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾おいてテレポートエネミー</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自爆エネミー</t>
+    <rPh sb="0" eb="2">
+      <t>ジバク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TackleEnemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShotEnemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TeleportEnemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BombEnemy</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1529,7 +1654,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1596,8 +1721,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Castellar"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1614,8 +1754,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2133,7 +2278,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="medium">
@@ -2151,7 +2296,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="thick">
@@ -2169,55 +2314,10 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2294,8 +2394,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2305,8 +2481,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2463,85 +2642,136 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2553,35 +2783,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="どちらでもない" xfId="3" builtinId="28"/>
     <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="2" builtinId="26"/>
@@ -2917,11 +3160,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -2933,7 +3176,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="75"/>
+      <c r="A2" s="70"/>
       <c r="G2" s="34" t="s">
         <v>32</v>
       </c>
@@ -2941,9 +3184,9 @@
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="76"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="66" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="38" t="s">
@@ -2966,10 +3209,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="69"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="40"/>
       <c r="E4" s="2"/>
       <c r="G4" s="31" t="s">
@@ -2984,10 +3227,10 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="65" t="s">
         <v>110</v>
       </c>
       <c r="D5" s="36"/>
@@ -3004,10 +3247,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="65" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="36"/>
@@ -3022,10 +3265,10 @@
       <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="65" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="36"/>
@@ -3036,10 +3279,10 @@
       <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="65" t="s">
         <v>121</v>
       </c>
       <c r="D8" s="36"/>
@@ -3056,10 +3299,10 @@
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="65" t="s">
         <v>120</v>
       </c>
       <c r="D9" s="36"/>
@@ -3074,10 +3317,10 @@
       <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="65" t="s">
         <v>119</v>
       </c>
       <c r="D10" s="36"/>
@@ -3092,8 +3335,8 @@
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="65"/>
-      <c r="C11" s="70"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="36"/>
       <c r="E11" s="4"/>
       <c r="G11" s="31"/>
@@ -3106,10 +3349,10 @@
       <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="36"/>
       <c r="E12" s="4"/>
       <c r="G12" s="31"/>
@@ -3124,10 +3367,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="65" t="s">
         <v>129</v>
       </c>
       <c r="D13" s="36"/>
@@ -3138,10 +3381,10 @@
       <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="65" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="36"/>
@@ -3158,10 +3401,10 @@
       <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="65" t="s">
         <v>126</v>
       </c>
       <c r="D15" s="36"/>
@@ -3174,8 +3417,8 @@
       <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="65"/>
-      <c r="C16" s="70"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="36"/>
       <c r="E16" s="4"/>
       <c r="G16" s="31"/>
@@ -3188,10 +3431,10 @@
       <c r="J16" s="30"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="36"/>
       <c r="E17" s="4"/>
       <c r="G17" s="31"/>
@@ -3204,10 +3447,10 @@
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="65" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="36"/>
@@ -3222,10 +3465,10 @@
       <c r="J18" s="30"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="66" t="s">
         <v>132</v>
       </c>
       <c r="D19" s="36"/>
@@ -3240,10 +3483,10 @@
       <c r="J19" s="30"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="66" t="s">
         <v>134</v>
       </c>
       <c r="D20" s="36"/>
@@ -3260,10 +3503,10 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="66" t="s">
         <v>136</v>
       </c>
       <c r="D21" s="36"/>
@@ -3274,10 +3517,10 @@
       <c r="J21" s="30"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="66" t="s">
         <v>137</v>
       </c>
       <c r="D22" s="36"/>
@@ -3292,8 +3535,8 @@
       <c r="J22" s="30"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="65"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="36"/>
       <c r="E23" s="4"/>
       <c r="G23" s="31"/>
@@ -3304,10 +3547,10 @@
       <c r="J23" s="30"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="71"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="24"/>
       <c r="E24" s="30"/>
       <c r="G24" s="31"/>
@@ -3320,10 +3563,10 @@
       <c r="J24" s="30"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="66" t="s">
         <v>139</v>
       </c>
       <c r="D25" s="24"/>
@@ -3338,10 +3581,10 @@
       <c r="J25" s="30"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="66" t="s">
         <v>140</v>
       </c>
       <c r="D26" s="24"/>
@@ -3356,10 +3599,10 @@
       <c r="J26" s="30"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="66" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="24"/>
@@ -3374,10 +3617,10 @@
       <c r="J27" s="30"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="66" t="s">
         <v>143</v>
       </c>
       <c r="D28" s="24" t="s">
@@ -3390,10 +3633,10 @@
       <c r="J28" s="30"/>
     </row>
     <row r="29" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="66" t="s">
         <v>145</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -3406,10 +3649,10 @@
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="66" t="s">
         <v>148</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -3418,10 +3661,10 @@
       <c r="E30" s="30"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="66" t="s">
         <v>149</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -3430,26 +3673,26 @@
       <c r="E31" s="30"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="65"/>
-      <c r="C32" s="71"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="24"/>
       <c r="E32" s="30"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="65"/>
-      <c r="C33" s="71"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="24"/>
       <c r="E33" s="30"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="65"/>
-      <c r="C34" s="71"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="24"/>
       <c r="E34" s="30"/>
     </row>
     <row r="35" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B35" s="74"/>
-      <c r="C35" s="72"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="25"/>
       <c r="E35" s="33"/>
     </row>
@@ -3480,19 +3723,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="96"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="81"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4200,10 +4443,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L14"/>
+  <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4221,15 +4464,15 @@
       <c r="B1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="87"/>
+      <c r="E1" s="99"/>
     </row>
     <row r="2" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="68"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="61" t="s">
         <v>105</v>
       </c>
       <c r="D3" s="27" t="s">
@@ -4259,10 +4502,10 @@
       <c r="L3" s="45"/>
     </row>
     <row r="4" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="74" t="s">
         <v>161</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -4283,19 +4526,19 @@
       <c r="I4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="J4" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="81" t="s">
         <v>172</v>
       </c>
       <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="66" t="s">
         <v>162</v>
       </c>
       <c r="D5" s="24" t="s">
@@ -4304,7 +4547,7 @@
       <c r="E5" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="75" t="s">
         <v>170</v>
       </c>
       <c r="G5" s="24" t="s">
@@ -4313,10 +4556,10 @@
       <c r="H5" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="75" t="s">
         <v>192</v>
       </c>
       <c r="K5" s="24" t="s">
@@ -4325,10 +4568,10 @@
       <c r="L5" s="30"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="79">
         <v>1</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -4337,19 +4580,19 @@
       <c r="E6" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="75" t="s">
         <v>172</v>
       </c>
       <c r="G6" s="24">
         <v>1</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="J6" s="75" t="s">
         <v>200</v>
       </c>
       <c r="K6" s="24" t="s">
@@ -4358,16 +4601,16 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="80">
         <v>1</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F7" s="25" t="s">
@@ -4379,13 +4622,13 @@
       <c r="H7" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="84" t="s">
+      <c r="J7" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="K7" s="84" t="s">
+      <c r="K7" s="76" t="s">
         <v>172</v>
       </c>
       <c r="L7" s="33"/>
@@ -4393,8 +4636,8 @@
     <row r="8" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="68"/>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="61" t="s">
         <v>180</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -4416,10 +4659,10 @@
       <c r="J10" s="45"/>
     </row>
     <row r="11" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="77" t="s">
         <v>172</v>
       </c>
       <c r="D11" s="26">
@@ -4428,29 +4671,29 @@
       <c r="E11" s="26">
         <v>2</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="81" t="s">
         <v>201</v>
       </c>
       <c r="H11" s="26">
         <v>10</v>
       </c>
-      <c r="I11" s="90"/>
+      <c r="I11" s="81"/>
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="75" t="s">
         <v>170</v>
       </c>
       <c r="F12" s="24">
@@ -4462,38 +4705,92 @@
       <c r="H12" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I12" s="83"/>
+      <c r="I12" s="75"/>
       <c r="J12" s="30"/>
     </row>
     <row r="13" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="67">
         <v>3</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="84" t="s">
+      <c r="G13" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="H13" s="84" t="s">
+      <c r="H13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="15" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="49"/>
+      <c r="C15" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="106" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="107"/>
+      <c r="E17" s="108"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="106" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="107"/>
+      <c r="E18" s="108"/>
+    </row>
+    <row r="19" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B19" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="110"/>
+      <c r="E19" s="111"/>
+    </row>
+    <row r="20" spans="2:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4503,10 +4800,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4514,12 +4811,12 @@
     <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="49"/>
       <c r="C2" s="50">
         <v>42843</v>
@@ -4534,274 +4831,511 @@
         <v>42846</v>
       </c>
       <c r="G2" s="50">
-        <v>42847</v>
+        <v>42849</v>
       </c>
       <c r="H2" s="50">
-        <v>42848</v>
+        <v>42850</v>
       </c>
       <c r="I2" s="50">
-        <v>42849</v>
+        <v>42851</v>
       </c>
       <c r="J2" s="50">
-        <v>42850</v>
+        <v>42852</v>
       </c>
       <c r="K2" s="50">
-        <v>42851</v>
+        <v>42853</v>
       </c>
       <c r="L2" s="50">
-        <v>42852</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="48" t="s">
+        <v>42854</v>
+      </c>
+      <c r="N2" s="62"/>
+      <c r="O2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-    </row>
-    <row r="4" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C3" s="90"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="53"/>
+      <c r="N3" s="84"/>
+      <c r="O3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="58"/>
-    </row>
-    <row r="5" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C4" s="91"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="N4" s="83"/>
+      <c r="O4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-    </row>
-    <row r="6" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C5" s="91"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="58"/>
-    </row>
-    <row r="7" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C6" s="92"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56"/>
+    </row>
+    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="58"/>
-    </row>
-    <row r="8" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C7" s="91"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
+    </row>
+    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="58"/>
-    </row>
-    <row r="9" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C8" s="93"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
+    </row>
+    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C9" s="91"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
+    </row>
+    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
-    </row>
-    <row r="11" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C10" s="91"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
+    </row>
+    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C11" s="93"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C12" s="93"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="56"/>
+    </row>
+    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C13" s="93"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C14" s="93"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
+    </row>
+    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
-    </row>
-    <row r="16" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C15" s="93"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
+    </row>
+    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="56"/>
     </row>
     <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="46"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
+      <c r="B17" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="93"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="46"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
+      <c r="B18" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="94"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="88"/>
     </row>
     <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="47"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
+      <c r="B19" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="63"/>
-    </row>
-    <row r="20" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
+    </row>
+    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="49"/>
+      <c r="C20" s="50">
+        <v>42850</v>
+      </c>
+      <c r="D20" s="50">
+        <v>42851</v>
+      </c>
+      <c r="E20" s="50">
+        <v>42852</v>
+      </c>
+      <c r="F20" s="50">
+        <v>42853</v>
+      </c>
+      <c r="G20" s="50">
+        <v>42854</v>
+      </c>
+      <c r="H20" s="50">
+        <v>42855</v>
+      </c>
+      <c r="I20" s="50">
+        <v>42856</v>
+      </c>
+      <c r="J20" s="50">
+        <v>42857</v>
+      </c>
+      <c r="K20" s="50">
+        <v>42858</v>
+      </c>
+      <c r="L20" s="50">
+        <v>42859</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B21" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="93"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B22" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="93"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="56"/>
+    </row>
+    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="46"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="46"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="56"/>
+    </row>
+    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B25" s="46"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="56"/>
+    </row>
+    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="46"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
+    </row>
+    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B27" s="46"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+    </row>
+    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B28" s="46"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+    </row>
+    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B29" s="46"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+    </row>
+    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B30" s="46"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="56"/>
+    </row>
+    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B31" s="46"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="56"/>
+    </row>
+    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B32" s="46"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="56"/>
+    </row>
+    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B33" s="46"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="56"/>
+    </row>
+    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B34" s="47"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="58"/>
+    </row>
+    <row r="35" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="220">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1350,10 +1350,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１～３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>２～３</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1383,14 +1379,6 @@
   </si>
   <si>
     <t>ー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１～３</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2485,7 +2473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2786,6 +2774,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2795,31 +2810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4413,7 +4404,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -4424,7 +4415,7 @@
     </row>
     <row r="10" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -4443,10 +4434,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4465,205 +4456,215 @@
         <v>104</v>
       </c>
       <c r="D1" s="99" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E1" s="99"/>
     </row>
     <row r="2" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="63"/>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>183</v>
-      </c>
       <c r="E3" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>107</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="L3" s="45"/>
+        <v>174</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="4" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>165</v>
-      </c>
       <c r="E4" s="23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="G4" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>189</v>
-      </c>
       <c r="I4" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>170</v>
+        <v>186</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="K4" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="L4" s="29"/>
+        <v>169</v>
+      </c>
+      <c r="L4" s="81" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>166</v>
-      </c>
       <c r="E5" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>187</v>
+        <v>165</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>169</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="75" t="s">
-        <v>170</v>
+        <v>178</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>178</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="L5" s="30"/>
+        <v>169</v>
+      </c>
+      <c r="K5" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="24">
         <v>1</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>164</v>
+      <c r="D6" s="79">
+        <v>1</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="24">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>169</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="K6" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="24" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C7" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="80">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>163</v>
+      <c r="E7" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>169</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="76" t="s">
-        <v>172</v>
+        <v>187</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="J7" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K7" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="L7" s="33"/>
+        <v>169</v>
+      </c>
+      <c r="L7" s="76" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="9" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="63"/>
       <c r="C10" s="61" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>194</v>
-      </c>
       <c r="G10" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="45"/>
     </row>
     <row r="11" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="68" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" s="26">
         <v>1</v>
@@ -4672,10 +4673,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G11" s="81" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H11" s="26">
         <v>10</v>
@@ -4685,50 +4686,50 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C12" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="75" t="s">
-        <v>172</v>
-      </c>
       <c r="E12" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F12" s="24">
         <v>2</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I12" s="75"/>
       <c r="J12" s="30"/>
     </row>
     <row r="13" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="69" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C13" s="67">
         <v>3</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E13" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="76" t="s">
         <v>170</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="H13" s="76" t="s">
-        <v>172</v>
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="33"/>
@@ -4736,53 +4737,76 @@
     <row r="14" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="15" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
-      <c r="C15" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+      <c r="C15" s="109" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
     </row>
     <row r="16" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+    </row>
+    <row r="19" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B19" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C19" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="106" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="106" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
-    </row>
-    <row r="19" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="109" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="111"/>
-    </row>
-    <row r="20" spans="2:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="108"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="70"/>
+    </row>
+    <row r="20" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="70"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H21" s="70"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D1:E1"/>
@@ -4850,7 +4874,7 @@
       </c>
       <c r="N2" s="62"/>
       <c r="O2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4869,7 +4893,7 @@
       <c r="L3" s="53"/>
       <c r="N3" s="84"/>
       <c r="O3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -4888,7 +4912,7 @@
       <c r="L4" s="56"/>
       <c r="N4" s="83"/>
       <c r="O4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5073,7 +5097,7 @@
     </row>
     <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C17" s="93"/>
       <c r="D17" s="55"/>
@@ -5088,7 +5112,7 @@
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C18" s="94"/>
       <c r="D18" s="87"/>
@@ -5103,7 +5127,7 @@
     </row>
     <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="86" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="55"/>
@@ -5151,7 +5175,7 @@
     </row>
     <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C21" s="93"/>
       <c r="D21" s="55"/>
@@ -5166,7 +5190,7 @@
     </row>
     <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C22" s="93"/>
       <c r="D22" s="55"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Enemy" sheetId="3" r:id="rId3"/>
     <sheet name="Enemyパラメータ" sheetId="5" r:id="rId4"/>
     <sheet name="作業ログ" sheetId="4" r:id="rId5"/>
+    <sheet name="作業予定" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="238">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1635,6 +1636,147 @@
   </si>
   <si>
     <t>BombEnemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮CSV作成、形式設定[アベ]</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV読み込み[イズミ]</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV読み込み作成[イズミ]</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業予定</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー体力アクセサー[イズミ]</t>
+    <rPh sb="5" eb="7">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突撃エネミー[]</t>
+    <rPh sb="0" eb="2">
+      <t>トツゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テレポートエネミー[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉撃つエネミー[]</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テレポート子機[]</t>
+    <rPh sb="5" eb="7">
+      <t>コキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉撃つ子機[]</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミサイル[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾[]</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズメニュー[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了予定</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猶予</t>
+    <rPh sb="0" eb="2">
+      <t>ユウヨ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1748,7 +1890,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -2458,6 +2600,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2473,7 +2660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2762,6 +2949,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2810,8 +3000,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="38" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3132,7 +3361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -3151,11 +3380,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -3714,19 +3943,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4266,7 +4495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4436,8 +4665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4455,10 +4684,10 @@
       <c r="B1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="99"/>
+      <c r="E1" s="100"/>
     </row>
     <row r="2" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4490,7 +4719,7 @@
       <c r="K3" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="45" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4525,7 +4754,7 @@
       <c r="K4" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="L4" s="81" t="s">
+      <c r="L4" s="113" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4560,7 +4789,7 @@
       <c r="K5" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="30" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4595,7 +4824,7 @@
       <c r="K6" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="30" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4630,7 +4859,7 @@
       <c r="K7" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="76" t="s">
+      <c r="L7" s="114" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4737,31 +4966,31 @@
     <row r="14" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="15" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
     </row>
     <row r="16" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="101" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="104" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="106"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
@@ -4771,41 +5000,41 @@
       <c r="B18" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="106"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
     </row>
     <row r="19" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="109"/>
       <c r="H19" s="70"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
       <c r="K19" s="70"/>
     </row>
     <row r="20" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
       <c r="K20" s="70"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="70"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4826,8 +5055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5133,7 +5362,7 @@
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="62"/>
+      <c r="G19" s="122"/>
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
       <c r="J19" s="55"/>
@@ -5143,48 +5372,48 @@
     <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="49"/>
       <c r="C20" s="50">
+        <v>42849</v>
+      </c>
+      <c r="D20" s="50">
         <v>42850</v>
       </c>
-      <c r="D20" s="50">
+      <c r="E20" s="50">
         <v>42851</v>
       </c>
-      <c r="E20" s="50">
+      <c r="F20" s="50">
         <v>42852</v>
       </c>
-      <c r="F20" s="50">
+      <c r="G20" s="50">
         <v>42853</v>
       </c>
-      <c r="G20" s="50">
+      <c r="H20" s="50">
         <v>42854</v>
       </c>
-      <c r="H20" s="50">
+      <c r="I20" s="50">
         <v>42855</v>
       </c>
-      <c r="I20" s="50">
+      <c r="J20" s="50">
         <v>42856</v>
       </c>
-      <c r="J20" s="50">
+      <c r="K20" s="50">
         <v>42857</v>
       </c>
-      <c r="K20" s="50">
+      <c r="L20" s="50">
         <v>42858</v>
-      </c>
-      <c r="L20" s="50">
-        <v>42859</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
       <c r="K21" s="55"/>
       <c r="L21" s="56"/>
     </row>
@@ -5192,11 +5421,11 @@
       <c r="B22" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="55"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="62"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="55"/>
       <c r="I22" s="55"/>
       <c r="J22" s="55"/>
@@ -5204,9 +5433,11 @@
       <c r="L22" s="56"/>
     </row>
     <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="46"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="55"/>
+      <c r="B23" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="116"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
       <c r="G23" s="55"/>
@@ -5217,9 +5448,11 @@
       <c r="L23" s="56"/>
     </row>
     <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="46"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="55"/>
+      <c r="B24" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="117"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
@@ -5231,7 +5464,7 @@
     </row>
     <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="46"/>
-      <c r="C25" s="93"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
@@ -5244,7 +5477,7 @@
     </row>
     <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="46"/>
-      <c r="C26" s="93"/>
+      <c r="C26" s="117"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
@@ -5365,4 +5598,541 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B1" s="43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="49"/>
+      <c r="C2" s="118">
+        <v>42849</v>
+      </c>
+      <c r="D2" s="50">
+        <v>42850</v>
+      </c>
+      <c r="E2" s="50">
+        <v>42851</v>
+      </c>
+      <c r="F2" s="50">
+        <v>42852</v>
+      </c>
+      <c r="G2" s="50">
+        <v>42853</v>
+      </c>
+      <c r="H2" s="50">
+        <v>42854</v>
+      </c>
+      <c r="I2" s="50">
+        <v>42855</v>
+      </c>
+      <c r="J2" s="50">
+        <v>42856</v>
+      </c>
+      <c r="K2" s="50">
+        <v>42857</v>
+      </c>
+      <c r="L2" s="119">
+        <v>42858</v>
+      </c>
+      <c r="N2" s="62"/>
+      <c r="O2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="120"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="53"/>
+      <c r="N3" s="84"/>
+      <c r="O3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="N4" s="83"/>
+      <c r="O4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="116"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56"/>
+    </row>
+    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="46"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
+    </row>
+    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="117"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="56"/>
+    </row>
+    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="46"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
+    </row>
+    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="46"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
+    </row>
+    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="46"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="117"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="56"/>
+    </row>
+    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="117"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="56"/>
+    </row>
+    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="117"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="56"/>
+    </row>
+    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="117"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="56"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B17" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="117"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="56"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="117"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="56"/>
+    </row>
+    <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B19" s="86"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+    </row>
+    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="49"/>
+      <c r="C20" s="118">
+        <v>42849</v>
+      </c>
+      <c r="D20" s="50">
+        <v>42850</v>
+      </c>
+      <c r="E20" s="50">
+        <v>42851</v>
+      </c>
+      <c r="F20" s="50">
+        <v>42852</v>
+      </c>
+      <c r="G20" s="50">
+        <v>42853</v>
+      </c>
+      <c r="H20" s="50">
+        <v>42854</v>
+      </c>
+      <c r="I20" s="50">
+        <v>42855</v>
+      </c>
+      <c r="J20" s="50">
+        <v>42856</v>
+      </c>
+      <c r="K20" s="50">
+        <v>42857</v>
+      </c>
+      <c r="L20" s="119">
+        <v>42858</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B21" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="120"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="126"/>
+    </row>
+    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B22" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="117"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="125"/>
+    </row>
+    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="117"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="125"/>
+    </row>
+    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="46"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="56"/>
+    </row>
+    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B25" s="46"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="56"/>
+    </row>
+    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="46"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
+    </row>
+    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B27" s="46"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+    </row>
+    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B28" s="46"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+    </row>
+    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B29" s="46"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+    </row>
+    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B30" s="46"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="56"/>
+    </row>
+    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B31" s="46"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="56"/>
+    </row>
+    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B32" s="46"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="56"/>
+    </row>
+    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B33" s="46"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="56"/>
+    </row>
+    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B34" s="47"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="58"/>
+    </row>
+    <row r="35" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -1890,7 +1890,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -2512,19 +2512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -2532,19 +2519,6 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -2555,36 +2529,12 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2660,7 +2610,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2878,9 +2828,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
@@ -2916,42 +2863,60 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="49" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="38" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3000,46 +2965,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="38" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="40" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="41" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3380,11 +3315,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -3943,19 +3878,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="102"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="99"/>
+      <c r="G1" s="104"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4684,10 +4619,10 @@
       <c r="B1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="100"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4730,7 +4665,7 @@
       <c r="C4" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="73" t="s">
         <v>161</v>
       </c>
       <c r="E4" s="23" t="s">
@@ -4751,10 +4686,10 @@
       <c r="J4" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="L4" s="113" t="s">
+      <c r="L4" s="89" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4774,7 +4709,7 @@
       <c r="F5" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="74" t="s">
         <v>169</v>
       </c>
       <c r="H5" s="24" t="s">
@@ -4783,10 +4718,10 @@
       <c r="I5" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="74" t="s">
         <v>189</v>
       </c>
       <c r="L5" s="30" t="s">
@@ -4800,7 +4735,7 @@
       <c r="C6" s="24">
         <v>1</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="78">
         <v>1</v>
       </c>
       <c r="E6" s="24" t="s">
@@ -4809,19 +4744,19 @@
       <c r="F6" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="K6" s="75" t="s">
+      <c r="K6" s="74" t="s">
         <v>197</v>
       </c>
       <c r="L6" s="30" t="s">
@@ -4835,13 +4770,13 @@
       <c r="C7" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="79">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="75" t="s">
         <v>169</v>
       </c>
       <c r="G7" s="25" t="s">
@@ -4853,13 +4788,13 @@
       <c r="I7" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="K7" s="76" t="s">
+      <c r="K7" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="114" t="s">
+      <c r="L7" s="90" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4892,7 +4827,7 @@
       <c r="B11" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="76" t="s">
         <v>170</v>
       </c>
       <c r="D11" s="26">
@@ -4901,29 +4836,29 @@
       <c r="E11" s="26">
         <v>2</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="80" t="s">
         <v>198</v>
       </c>
       <c r="H11" s="26">
         <v>10</v>
       </c>
-      <c r="I11" s="81"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="74" t="s">
         <v>169</v>
       </c>
       <c r="F12" s="24">
@@ -4935,7 +4870,7 @@
       <c r="H12" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="I12" s="75"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="30"/>
     </row>
     <row r="13" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -4948,16 +4883,16 @@
       <c r="D13" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="76" t="s">
+      <c r="G13" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="75" t="s">
         <v>170</v>
       </c>
       <c r="I13" s="25"/>
@@ -4966,31 +4901,31 @@
     <row r="14" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="15" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="112"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
     </row>
     <row r="16" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
@@ -5000,41 +4935,41 @@
       <c r="B18" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="109" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="111"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
     </row>
     <row r="19" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
       <c r="H19" s="70"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
       <c r="K19" s="70"/>
     </row>
     <row r="20" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
       <c r="K20" s="70"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="70"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5056,7 +4991,7 @@
   <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5107,20 +5042,20 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="90"/>
+      <c r="C3" s="118"/>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="82"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
       <c r="L3" s="53"/>
-      <c r="N3" s="84"/>
+      <c r="N3" s="83"/>
       <c r="O3" t="s">
         <v>204</v>
       </c>
@@ -5129,7 +5064,7 @@
       <c r="B4" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="91"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="54"/>
       <c r="E4" s="54"/>
       <c r="F4" s="72"/>
@@ -5139,7 +5074,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="55"/>
       <c r="L4" s="56"/>
-      <c r="N4" s="83"/>
+      <c r="N4" s="82"/>
       <c r="O4" t="s">
         <v>205</v>
       </c>
@@ -5148,7 +5083,7 @@
       <c r="B5" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
       <c r="F5" s="72"/>
@@ -5163,7 +5098,7 @@
       <c r="B6" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="119"/>
       <c r="D6" s="72"/>
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
@@ -5178,7 +5113,7 @@
       <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="72"/>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
@@ -5208,13 +5143,13 @@
       <c r="B9" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
       <c r="F9" s="54"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="72"/>
       <c r="J9" s="55"/>
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
@@ -5223,7 +5158,7 @@
       <c r="B10" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
       <c r="F10" s="72"/>
@@ -5240,11 +5175,11 @@
       </c>
       <c r="C11" s="93"/>
       <c r="D11" s="55"/>
-      <c r="E11" s="73"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
       <c r="L11" s="56"/>
@@ -5255,7 +5190,7 @@
       </c>
       <c r="C12" s="93"/>
       <c r="D12" s="55"/>
-      <c r="E12" s="73"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="54"/>
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
@@ -5343,31 +5278,31 @@
       <c r="B18" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="54"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="88"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
     </row>
     <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
     </row>
     <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="49"/>
@@ -5406,7 +5341,7 @@
       <c r="B21" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="115"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="52"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
@@ -5421,7 +5356,7 @@
       <c r="B22" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="C22" s="116"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="72"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
@@ -5436,7 +5371,7 @@
       <c r="B23" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="116"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="72"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
@@ -5451,9 +5386,9 @@
       <c r="B24" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="117"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
@@ -5464,7 +5399,7 @@
     </row>
     <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="46"/>
-      <c r="C25" s="117"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
@@ -5477,7 +5412,7 @@
     </row>
     <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="46"/>
-      <c r="C26" s="117"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
@@ -5490,7 +5425,7 @@
     </row>
     <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" s="46"/>
-      <c r="C27" s="93"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
@@ -5503,7 +5438,7 @@
     </row>
     <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="46"/>
-      <c r="C28" s="93"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
@@ -5516,7 +5451,7 @@
     </row>
     <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="46"/>
-      <c r="C29" s="93"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
@@ -5529,7 +5464,7 @@
     </row>
     <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="46"/>
-      <c r="C30" s="93"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
@@ -5542,7 +5477,7 @@
     </row>
     <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="46"/>
-      <c r="C31" s="93"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
@@ -5555,7 +5490,7 @@
     </row>
     <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="46"/>
-      <c r="C32" s="93"/>
+      <c r="C32" s="86"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
@@ -5568,7 +5503,7 @@
     </row>
     <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B33" s="46"/>
-      <c r="C33" s="93"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
@@ -5581,7 +5516,7 @@
     </row>
     <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="47"/>
-      <c r="C34" s="95"/>
+      <c r="C34" s="87"/>
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>
@@ -5620,7 +5555,7 @@
     </row>
     <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="49"/>
-      <c r="C2" s="118">
+      <c r="C2" s="94">
         <v>42849</v>
       </c>
       <c r="D2" s="50">
@@ -5647,7 +5582,7 @@
       <c r="K2" s="50">
         <v>42857</v>
       </c>
-      <c r="L2" s="119">
+      <c r="L2" s="95">
         <v>42858</v>
       </c>
       <c r="N2" s="62"/>
@@ -5656,12 +5591,12 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="120"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="62"/>
-      <c r="E3" s="123"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
@@ -5669,7 +5604,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
       <c r="L3" s="53"/>
-      <c r="N3" s="84"/>
+      <c r="N3" s="83"/>
       <c r="O3" t="s">
         <v>236</v>
       </c>
@@ -5678,7 +5613,7 @@
       <c r="B4" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="117"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="55"/>
       <c r="E4" s="72"/>
       <c r="F4" s="55"/>
@@ -5688,7 +5623,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="55"/>
       <c r="L4" s="56"/>
-      <c r="N4" s="83"/>
+      <c r="N4" s="82"/>
       <c r="O4" t="s">
         <v>237</v>
       </c>
@@ -5697,7 +5632,7 @@
       <c r="B5" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="116"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="54"/>
       <c r="E5" s="72"/>
       <c r="F5" s="55"/>
@@ -5712,7 +5647,7 @@
       <c r="B6" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
       <c r="F6" s="72"/>
@@ -5725,7 +5660,7 @@
     </row>
     <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="46"/>
-      <c r="C7" s="117"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
@@ -5740,20 +5675,20 @@
       <c r="B8" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="117"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
       <c r="G8" s="72"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
       <c r="L8" s="56"/>
     </row>
     <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="46"/>
-      <c r="C9" s="117"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
@@ -5766,7 +5701,7 @@
     </row>
     <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="46"/>
-      <c r="C10" s="117"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
@@ -5779,7 +5714,7 @@
     </row>
     <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="46"/>
-      <c r="C11" s="117"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
@@ -5794,110 +5729,110 @@
       <c r="B12" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="117"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
       <c r="G12" s="72"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
       <c r="L12" s="56"/>
     </row>
     <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="117"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="72"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
       <c r="L13" s="56"/>
     </row>
     <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="117"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
       <c r="G14" s="72"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
       <c r="L14" s="56"/>
     </row>
     <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="117"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
       <c r="G15" s="72"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
       <c r="L15" s="56"/>
     </row>
     <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="C16" s="117"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
       <c r="G16" s="72"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
       <c r="L16" s="56"/>
     </row>
     <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="117"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="72"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
       <c r="L17" s="56"/>
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="117"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
       <c r="G18" s="72"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
       <c r="L18" s="56"/>
     </row>
     <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="86"/>
-      <c r="C19" s="121"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
@@ -5910,7 +5845,7 @@
     </row>
     <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="49"/>
-      <c r="C20" s="118">
+      <c r="C20" s="94">
         <v>42849</v>
       </c>
       <c r="D20" s="50">
@@ -5937,7 +5872,7 @@
       <c r="K20" s="50">
         <v>42857</v>
       </c>
-      <c r="L20" s="119">
+      <c r="L20" s="95">
         <v>42858</v>
       </c>
     </row>
@@ -5945,50 +5880,50 @@
       <c r="B21" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="120"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="52"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="126"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="101"/>
     </row>
     <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="117"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
       <c r="G22" s="72"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="125"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="100"/>
     </row>
     <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="C23" s="117"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
       <c r="G23" s="72"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="125"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="100"/>
     </row>
     <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="46"/>
-      <c r="C24" s="117"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
@@ -6001,7 +5936,7 @@
     </row>
     <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="46"/>
-      <c r="C25" s="117"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
@@ -6014,7 +5949,7 @@
     </row>
     <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="46"/>
-      <c r="C26" s="117"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
@@ -6027,7 +5962,7 @@
     </row>
     <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" s="46"/>
-      <c r="C27" s="117"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
@@ -6040,7 +5975,7 @@
     </row>
     <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="46"/>
-      <c r="C28" s="117"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
@@ -6053,7 +5988,7 @@
     </row>
     <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="46"/>
-      <c r="C29" s="117"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
@@ -6066,7 +6001,7 @@
     </row>
     <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="46"/>
-      <c r="C30" s="117"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
@@ -6079,7 +6014,7 @@
     </row>
     <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="46"/>
-      <c r="C31" s="117"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
@@ -6092,7 +6027,7 @@
     </row>
     <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="46"/>
-      <c r="C32" s="117"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
@@ -6105,7 +6040,7 @@
     </row>
     <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B33" s="46"/>
-      <c r="C33" s="117"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
@@ -6118,7 +6053,7 @@
     </row>
     <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="47"/>
-      <c r="C34" s="121"/>
+      <c r="C34" s="97"/>
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="239">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1776,6 +1776,16 @@
     <t>猶予</t>
     <rPh sb="0" eb="2">
       <t>ユウヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉撃つエネミー＋ミサイル[イズミ]</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1890,7 +1900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2595,6 +2605,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2610,7 +2633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2917,6 +2940,18 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="41" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2965,16 +3000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="41" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3315,11 +3341,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -3878,19 +3904,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="106"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="104"/>
+      <c r="G1" s="108"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4619,10 +4645,10 @@
       <c r="B1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="105"/>
+      <c r="E1" s="109"/>
     </row>
     <row r="2" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4901,31 +4927,31 @@
     <row r="14" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="15" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
     </row>
     <row r="16" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="115"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
@@ -4935,11 +4961,11 @@
       <c r="B18" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="111"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="115"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
       <c r="J18" s="88"/>
@@ -4949,11 +4975,11 @@
       <c r="B19" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="116" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
       <c r="H19" s="70"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
@@ -4991,7 +5017,7 @@
   <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5045,7 +5071,7 @@
       <c r="B3" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="118"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
@@ -5098,7 +5124,7 @@
       <c r="B6" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="119"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="72"/>
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
@@ -5147,7 +5173,7 @@
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
       <c r="F9" s="54"/>
-      <c r="G9" s="120"/>
+      <c r="G9" s="104"/>
       <c r="H9" s="54"/>
       <c r="I9" s="72"/>
       <c r="J9" s="55"/>
@@ -5297,7 +5323,7 @@
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="121"/>
+      <c r="G19" s="105"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
@@ -5398,11 +5424,13 @@
       <c r="L24" s="56"/>
     </row>
     <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="46"/>
+      <c r="B25" s="46" t="s">
+        <v>238</v>
+      </c>
       <c r="C25" s="93"/>
       <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="55"/>
       <c r="H25" s="55"/>
       <c r="I25" s="55"/>
@@ -5414,8 +5442,8 @@
       <c r="B26" s="46"/>
       <c r="C26" s="93"/>
       <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
       <c r="G26" s="55"/>
       <c r="H26" s="55"/>
       <c r="I26" s="55"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="241">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1786,6 +1786,23 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はさむ判定[アベ]</t>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM,SE収集リスト化[ユック]</t>
+    <rPh sb="6" eb="8">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2952,6 +2969,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="41" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2999,9 +3019,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3341,11 +3358,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -3904,19 +3921,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="108"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4645,10 +4662,10 @@
       <c r="B1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="109"/>
+      <c r="E1" s="110"/>
     </row>
     <row r="2" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4927,31 +4944,31 @@
     <row r="14" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="15" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
     </row>
     <row r="16" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="113" t="s">
+      <c r="C17" s="114" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
@@ -4961,11 +4978,11 @@
       <c r="B18" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
       <c r="J18" s="88"/>
@@ -4975,11 +4992,11 @@
       <c r="B19" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="119"/>
       <c r="H19" s="70"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
@@ -5017,7 +5034,7 @@
   <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5206,8 +5223,8 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="56"/>
     </row>
     <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5218,9 +5235,9 @@
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="99"/>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
       <c r="L12" s="56"/>
@@ -5280,7 +5297,6 @@
       <c r="F16" s="72"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
       <c r="J16" s="55"/>
       <c r="K16" s="55"/>
       <c r="L16" s="56"/>
@@ -5294,10 +5310,10 @@
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="56"/>
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5309,10 +5325,10 @@
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
       <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
       <c r="L18" s="56"/>
     </row>
     <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5431,37 +5447,41 @@
       <c r="D25" s="55"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="56"/>
     </row>
     <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="46"/>
+      <c r="B26" s="46" t="s">
+        <v>239</v>
+      </c>
       <c r="C26" s="93"/>
       <c r="D26" s="55"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
       <c r="G26" s="55"/>
       <c r="H26" s="55"/>
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
+      <c r="K26" s="72"/>
       <c r="L26" s="56"/>
     </row>
     <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="46"/>
+      <c r="B27" s="46" t="s">
+        <v>240</v>
+      </c>
       <c r="C27" s="86"/>
       <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="56"/>
     </row>
     <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeta1\Desktop\てお\ソースツリー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeta1\Desktop\てお\ソースツリーo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="244">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1623,10 +1623,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TackleEnemy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ShotEnemy</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1804,6 +1800,37 @@
     <rPh sb="11" eb="12">
       <t>カ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音追加[イズミ]</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アタリ判定作成[アベ]</t>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突撃エネミー[アベ]</t>
+    <rPh sb="0" eb="2">
+      <t>トツゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TackleEnemy</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1917,7 +1944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2635,6 +2662,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2650,7 +2757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3019,6 +3126,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="47" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4641,10 +4775,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L21"/>
+  <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4658,7 +4792,7 @@
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:11" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="43" t="s">
         <v>104</v>
       </c>
@@ -4667,8 +4801,8 @@
       </c>
       <c r="E1" s="110"/>
     </row>
-    <row r="2" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="63"/>
       <c r="C3" s="27" t="s">
         <v>106</v>
@@ -4689,19 +4823,16 @@
         <v>107</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="K3" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="K3" s="45" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="59" t="s">
         <v>82</v>
       </c>
@@ -4724,19 +4855,16 @@
         <v>186</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="J4" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="J4" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="L4" s="89" t="s">
+      <c r="K4" s="89" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="60" t="s">
         <v>83</v>
       </c>
@@ -4758,20 +4886,17 @@
       <c r="H5" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>178</v>
+      <c r="I5" s="74" t="s">
+        <v>169</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="30" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="60" t="s">
         <v>84</v>
       </c>
@@ -4797,16 +4922,13 @@
         <v>169</v>
       </c>
       <c r="J6" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="K6" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="K6" s="30" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="69" t="s">
         <v>85</v>
       </c>
@@ -4828,22 +4950,19 @@
       <c r="H7" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="I7" s="25" t="s">
-        <v>187</v>
+      <c r="I7" s="75" t="s">
+        <v>169</v>
       </c>
       <c r="J7" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="K7" s="75" t="s">
+      <c r="K7" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="90" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="8" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="63"/>
       <c r="C10" s="61" t="s">
         <v>177</v>
@@ -4866,7 +4985,7 @@
       <c r="I10" s="27"/>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="68" t="s">
         <v>173</v>
       </c>
@@ -4891,7 +5010,7 @@
       <c r="I11" s="80"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="60" t="s">
         <v>171</v>
       </c>
@@ -4916,7 +5035,7 @@
       <c r="I12" s="74"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="69" t="s">
         <v>176</v>
       </c>
@@ -4941,8 +5060,8 @@
       <c r="I13" s="25"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="15" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
       <c r="C15" s="120" t="s">
         <v>211</v>
@@ -4950,12 +5069,12 @@
       <c r="D15" s="121"/>
       <c r="E15" s="122"/>
     </row>
-    <row r="16" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
         <v>212</v>
       </c>
       <c r="C16" s="111" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="D16" s="112"/>
       <c r="E16" s="113"/>
@@ -4965,7 +5084,7 @@
         <v>213</v>
       </c>
       <c r="C17" s="114" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D17" s="115"/>
       <c r="E17" s="116"/>
@@ -4979,7 +5098,7 @@
         <v>214</v>
       </c>
       <c r="C18" s="114" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D18" s="115"/>
       <c r="E18" s="116"/>
@@ -4993,7 +5112,7 @@
         <v>215</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" s="118"/>
       <c r="E19" s="119"/>
@@ -5031,10 +5150,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O35"/>
+  <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5225,7 +5344,7 @@
       <c r="I11" s="54"/>
       <c r="J11" s="54"/>
       <c r="K11" s="54"/>
-      <c r="L11" s="56"/>
+      <c r="L11" s="62"/>
     </row>
     <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="46" t="s">
@@ -5314,7 +5433,7 @@
       <c r="I17" s="54"/>
       <c r="J17" s="54"/>
       <c r="K17" s="54"/>
-      <c r="L17" s="56"/>
+      <c r="L17" s="123"/>
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
@@ -5329,7 +5448,7 @@
       <c r="I18" s="54"/>
       <c r="J18" s="54"/>
       <c r="K18" s="54"/>
-      <c r="L18" s="56"/>
+      <c r="L18" s="123"/>
     </row>
     <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="84" t="s">
@@ -5411,7 +5530,7 @@
     </row>
     <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" s="92"/>
       <c r="D23" s="72"/>
@@ -5426,7 +5545,7 @@
     </row>
     <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C24" s="93"/>
       <c r="D24" s="54"/>
@@ -5441,7 +5560,7 @@
     </row>
     <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="93"/>
       <c r="D25" s="55"/>
@@ -5452,11 +5571,11 @@
       <c r="I25" s="54"/>
       <c r="J25" s="54"/>
       <c r="K25" s="54"/>
-      <c r="L25" s="56"/>
+      <c r="L25" s="62"/>
     </row>
     <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C26" s="93"/>
       <c r="D26" s="55"/>
@@ -5471,7 +5590,7 @@
     </row>
     <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" s="46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="55"/>
@@ -5482,7 +5601,7 @@
       <c r="I27" s="54"/>
       <c r="J27" s="54"/>
       <c r="K27" s="54"/>
-      <c r="L27" s="56"/>
+      <c r="L27" s="62"/>
     </row>
     <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="46"/>
@@ -5575,7 +5694,217 @@
       <c r="K34" s="57"/>
       <c r="L34" s="58"/>
     </row>
-    <row r="35" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B35" s="49"/>
+      <c r="C35" s="128">
+        <v>42859</v>
+      </c>
+      <c r="D35" s="128">
+        <v>42860</v>
+      </c>
+      <c r="E35" s="128">
+        <v>42861</v>
+      </c>
+      <c r="F35" s="128">
+        <v>42862</v>
+      </c>
+      <c r="G35" s="128">
+        <v>42863</v>
+      </c>
+      <c r="H35" s="128">
+        <v>42864</v>
+      </c>
+      <c r="I35" s="128">
+        <v>42865</v>
+      </c>
+      <c r="J35" s="128">
+        <v>42866</v>
+      </c>
+      <c r="K35" s="128">
+        <v>42867</v>
+      </c>
+      <c r="L35" s="128">
+        <v>42868</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B36" s="126" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="130"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="127"/>
+    </row>
+    <row r="37" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B37" s="124" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="129"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="56"/>
+    </row>
+    <row r="38" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B38" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="129"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="56"/>
+    </row>
+    <row r="39" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B39" s="124" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="86"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="56"/>
+    </row>
+    <row r="40" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B40" s="124"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="56"/>
+    </row>
+    <row r="41" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B41" s="124"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="56"/>
+    </row>
+    <row r="42" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B42" s="124"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="56"/>
+    </row>
+    <row r="43" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B43" s="124"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="56"/>
+    </row>
+    <row r="44" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B44" s="124"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="56"/>
+    </row>
+    <row r="45" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B45" s="124"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="56"/>
+    </row>
+    <row r="46" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B46" s="124"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="56"/>
+    </row>
+    <row r="47" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B47" s="124"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="56"/>
+    </row>
+    <row r="48" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B48" s="125"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="58"/>
+    </row>
+    <row r="49" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5588,7 +5917,7 @@
   <dimension ref="B1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5598,7 +5927,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5640,7 +5969,7 @@
     </row>
     <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="62"/>
@@ -5654,12 +5983,12 @@
       <c r="L3" s="53"/>
       <c r="N3" s="83"/>
       <c r="O3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="93"/>
       <c r="D4" s="55"/>
@@ -5673,7 +6002,7 @@
       <c r="L4" s="56"/>
       <c r="N4" s="82"/>
       <c r="O4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5721,7 +6050,7 @@
     </row>
     <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="93"/>
       <c r="D8" s="55"/>
@@ -5775,7 +6104,7 @@
     </row>
     <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C12" s="93"/>
       <c r="D12" s="55"/>
@@ -5790,7 +6119,7 @@
     </row>
     <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" s="93"/>
       <c r="D13" s="55"/>
@@ -5805,7 +6134,7 @@
     </row>
     <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" s="93"/>
       <c r="D14" s="55"/>
@@ -5820,7 +6149,7 @@
     </row>
     <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C15" s="93"/>
       <c r="D15" s="55"/>
@@ -5835,7 +6164,7 @@
     </row>
     <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C16" s="93"/>
       <c r="D16" s="55"/>
@@ -5850,7 +6179,7 @@
     </row>
     <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C17" s="93"/>
       <c r="D17" s="55"/>
@@ -5865,7 +6194,7 @@
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C18" s="93"/>
       <c r="D18" s="55"/>
@@ -5926,7 +6255,7 @@
     </row>
     <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="96"/>
       <c r="D21" s="52"/>
@@ -5941,7 +6270,7 @@
     </row>
     <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="93"/>
       <c r="D22" s="55"/>
@@ -5956,7 +6285,7 @@
     </row>
     <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="93"/>
       <c r="D23" s="55"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="247">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -648,22 +648,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２秒くらい溜めてからプレイヤーに向かって突撃</t>
-    <rPh sb="1" eb="2">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トツゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーに向かってミサイルを打つ機械を投げる。本体もミサイル打つ</t>
     <rPh sb="6" eb="7">
       <t>ム</t>
@@ -1831,6 +1815,73 @@
   </si>
   <si>
     <t>TackleEnemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーAボタン押してる間移動[イズミ]</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーモデル読み込み[イズミ]</t>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉撃つエネミー挟んだ後の挙動[イズミ]</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２秒くらい溜めてからプレイヤーに向かって突撃。突撃中に接触するとダメージを受ける</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トツゲキ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>トツゲキチュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3079,6 +3130,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="47" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3126,33 +3204,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="47" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3492,11 +3543,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -3542,7 +3593,7 @@
     </row>
     <row r="4" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="40"/>
@@ -3560,10 +3611,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="4"/>
@@ -3580,10 +3631,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="4"/>
@@ -3598,10 +3649,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="4"/>
@@ -3612,10 +3663,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="4"/>
@@ -3632,10 +3683,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="4"/>
@@ -3650,10 +3701,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>118</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>119</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="4"/>
@@ -3682,7 +3733,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="36"/>
@@ -3700,10 +3751,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="65" t="s">
         <v>128</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>129</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="4"/>
@@ -3714,10 +3765,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="65" t="s">
         <v>123</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>124</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="4"/>
@@ -3734,10 +3785,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>126</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="4"/>
@@ -3764,7 +3815,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="36"/>
@@ -3780,10 +3831,10 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="4"/>
@@ -3798,10 +3849,10 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="66" t="s">
         <v>131</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>132</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="4"/>
@@ -3816,10 +3867,10 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="66" t="s">
         <v>133</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>134</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="4"/>
@@ -3836,10 +3887,10 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="66" t="s">
         <v>135</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>136</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="4"/>
@@ -3850,10 +3901,10 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="36"/>
       <c r="E22" s="4"/>
@@ -3880,7 +3931,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="24"/>
@@ -3896,10 +3947,10 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="30"/>
@@ -3914,10 +3965,10 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="30"/>
@@ -3932,10 +3983,10 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="30"/>
@@ -3950,13 +4001,13 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="66" t="s">
-        <v>143</v>
-      </c>
       <c r="D28" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28" s="30"/>
       <c r="G28" s="31"/>
@@ -3966,13 +4017,13 @@
     </row>
     <row r="29" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="66" t="s">
-        <v>145</v>
-      </c>
       <c r="D29" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" s="30"/>
       <c r="G29" s="32"/>
@@ -3982,25 +4033,25 @@
     </row>
     <row r="30" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="66" t="s">
-        <v>148</v>
-      </c>
       <c r="D30" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30" s="30"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E31" s="30"/>
     </row>
@@ -4055,19 +4106,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="109"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4607,8 +4658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4658,16 +4709,16 @@
         <v>86</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="29"/>
     </row>
@@ -4679,16 +4730,16 @@
         <v>87</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="30"/>
     </row>
@@ -4697,19 +4748,19 @@
         <v>84</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>101</v>
-      </c>
       <c r="E6" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H6" s="30"/>
     </row>
@@ -4721,16 +4772,16 @@
         <v>88</v>
       </c>
       <c r="D7" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>92</v>
-      </c>
       <c r="F7" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="30"/>
     </row>
@@ -4745,7 +4796,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -4756,7 +4807,7 @@
     </row>
     <row r="10" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -4794,42 +4845,42 @@
   <sheetData>
     <row r="1" spans="2:11" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="110" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="110"/>
+        <v>103</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="119"/>
     </row>
     <row r="2" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="63"/>
       <c r="C3" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>107</v>
-      </c>
       <c r="I3" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -4837,31 +4888,31 @@
         <v>82</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J4" s="80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K4" s="89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -4869,31 +4920,31 @@
         <v>83</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I5" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -4907,25 +4958,25 @@
         <v>1</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G6" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="74" t="s">
-        <v>170</v>
-      </c>
       <c r="I6" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J6" s="74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -4933,31 +4984,31 @@
         <v>85</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="79">
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K7" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4965,32 +5016,32 @@
     <row r="10" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="63"/>
       <c r="C10" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>196</v>
-      </c>
       <c r="H10" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="45"/>
     </row>
     <row r="11" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="26">
         <v>1</v>
@@ -4999,10 +5050,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11" s="80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H11" s="26">
         <v>10</v>
@@ -5012,50 +5063,50 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="74" t="s">
-        <v>170</v>
-      </c>
       <c r="E12" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="24">
         <v>2</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I12" s="74"/>
       <c r="J12" s="30"/>
     </row>
     <row r="13" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="67">
         <v>3</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="75" t="s">
         <v>169</v>
-      </c>
-      <c r="F13" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="H13" s="75" t="s">
-        <v>170</v>
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="33"/>
@@ -5063,31 +5114,31 @@
     <row r="14" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
-      <c r="C15" s="120" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="129" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
     </row>
     <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="111" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
+        <v>211</v>
+      </c>
+      <c r="C16" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="121"/>
+      <c r="E16" s="122"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" s="114" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
+        <v>212</v>
+      </c>
+      <c r="C17" s="123" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
@@ -5095,13 +5146,13 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="114" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
+        <v>213</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="124"/>
+      <c r="E18" s="125"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
       <c r="J18" s="88"/>
@@ -5109,13 +5160,13 @@
     </row>
     <row r="19" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="117" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
+        <v>214</v>
+      </c>
+      <c r="C19" s="126" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
       <c r="H19" s="70"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
@@ -5152,8 +5203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5200,7 +5251,7 @@
       </c>
       <c r="N2" s="62"/>
       <c r="O2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5219,7 +5270,7 @@
       <c r="L3" s="53"/>
       <c r="N3" s="83"/>
       <c r="O3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5238,7 +5289,7 @@
       <c r="L4" s="56"/>
       <c r="N4" s="82"/>
       <c r="O4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5288,7 +5339,7 @@
     </row>
     <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="93"/>
       <c r="D8" s="55"/>
@@ -5303,7 +5354,7 @@
     </row>
     <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="92"/>
       <c r="D9" s="54"/>
@@ -5318,7 +5369,7 @@
     </row>
     <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="92"/>
       <c r="D10" s="54"/>
@@ -5333,7 +5384,7 @@
     </row>
     <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="93"/>
       <c r="D11" s="55"/>
@@ -5348,7 +5399,7 @@
     </row>
     <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="93"/>
       <c r="D12" s="55"/>
@@ -5363,7 +5414,7 @@
     </row>
     <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="93"/>
       <c r="D13" s="55"/>
@@ -5378,7 +5429,7 @@
     </row>
     <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="93"/>
       <c r="D14" s="55"/>
@@ -5393,7 +5444,7 @@
     </row>
     <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="93"/>
       <c r="D15" s="55"/>
@@ -5408,7 +5459,7 @@
     </row>
     <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="93"/>
       <c r="D16" s="55"/>
@@ -5422,7 +5473,7 @@
     </row>
     <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17" s="93"/>
       <c r="D17" s="55"/>
@@ -5433,11 +5484,11 @@
       <c r="I17" s="54"/>
       <c r="J17" s="54"/>
       <c r="K17" s="54"/>
-      <c r="L17" s="123"/>
+      <c r="L17" s="107"/>
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="93"/>
       <c r="D18" s="55"/>
@@ -5448,11 +5499,11 @@
       <c r="I18" s="54"/>
       <c r="J18" s="54"/>
       <c r="K18" s="54"/>
-      <c r="L18" s="123"/>
+      <c r="L18" s="107"/>
     </row>
     <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="57"/>
@@ -5500,7 +5551,7 @@
     </row>
     <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="91"/>
       <c r="D21" s="52"/>
@@ -5515,7 +5566,7 @@
     </row>
     <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" s="92"/>
       <c r="D22" s="72"/>
@@ -5530,7 +5581,7 @@
     </row>
     <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="92"/>
       <c r="D23" s="72"/>
@@ -5545,7 +5596,7 @@
     </row>
     <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C24" s="93"/>
       <c r="D24" s="54"/>
@@ -5560,7 +5611,7 @@
     </row>
     <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="93"/>
       <c r="D25" s="55"/>
@@ -5575,7 +5626,7 @@
     </row>
     <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="93"/>
       <c r="D26" s="55"/>
@@ -5590,7 +5641,7 @@
     </row>
     <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="55"/>
@@ -5696,42 +5747,42 @@
     </row>
     <row r="35" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="49"/>
-      <c r="C35" s="128">
+      <c r="C35" s="112">
         <v>42859</v>
       </c>
-      <c r="D35" s="128">
+      <c r="D35" s="112">
         <v>42860</v>
       </c>
-      <c r="E35" s="128">
+      <c r="E35" s="112">
         <v>42861</v>
       </c>
-      <c r="F35" s="128">
+      <c r="F35" s="112">
         <v>42862</v>
       </c>
-      <c r="G35" s="128">
+      <c r="G35" s="112">
         <v>42863</v>
       </c>
-      <c r="H35" s="128">
+      <c r="H35" s="112">
         <v>42864</v>
       </c>
-      <c r="I35" s="128">
+      <c r="I35" s="112">
         <v>42865</v>
       </c>
-      <c r="J35" s="128">
+      <c r="J35" s="112">
         <v>42866</v>
       </c>
-      <c r="K35" s="128">
+      <c r="K35" s="112">
         <v>42867</v>
       </c>
-      <c r="L35" s="128">
+      <c r="L35" s="112">
         <v>42868</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B36" s="126" t="s">
-        <v>240</v>
-      </c>
-      <c r="C36" s="130"/>
+      <c r="B36" s="110" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="114"/>
       <c r="D36" s="106"/>
       <c r="E36" s="106"/>
       <c r="F36" s="106"/>
@@ -5740,13 +5791,13 @@
       <c r="I36" s="106"/>
       <c r="J36" s="106"/>
       <c r="K36" s="106"/>
-      <c r="L36" s="127"/>
+      <c r="L36" s="111"/>
     </row>
     <row r="37" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B37" s="124" t="s">
-        <v>241</v>
-      </c>
-      <c r="C37" s="129"/>
+      <c r="B37" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="113"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
@@ -5759,9 +5810,9 @@
     </row>
     <row r="38" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="C38" s="129"/>
+        <v>236</v>
+      </c>
+      <c r="C38" s="113"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
@@ -5773,12 +5824,12 @@
       <c r="L38" s="56"/>
     </row>
     <row r="39" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B39" s="124" t="s">
-        <v>242</v>
+      <c r="B39" s="108" t="s">
+        <v>241</v>
       </c>
       <c r="C39" s="86"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="55"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="72"/>
       <c r="F39" s="55"/>
       <c r="G39" s="55"/>
       <c r="H39" s="55"/>
@@ -5788,7 +5839,9 @@
       <c r="L39" s="56"/>
     </row>
     <row r="40" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B40" s="124"/>
+      <c r="B40" s="108" t="s">
+        <v>243</v>
+      </c>
       <c r="C40" s="86"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -5801,10 +5854,12 @@
       <c r="L40" s="56"/>
     </row>
     <row r="41" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B41" s="124"/>
+      <c r="B41" s="108" t="s">
+        <v>244</v>
+      </c>
       <c r="C41" s="86"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="55"/>
       <c r="G41" s="55"/>
       <c r="H41" s="55"/>
@@ -5814,10 +5869,12 @@
       <c r="L41" s="56"/>
     </row>
     <row r="42" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B42" s="124"/>
+      <c r="B42" s="108" t="s">
+        <v>245</v>
+      </c>
       <c r="C42" s="86"/>
       <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
+      <c r="E42" s="62"/>
       <c r="F42" s="55"/>
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
@@ -5827,7 +5884,7 @@
       <c r="L42" s="56"/>
     </row>
     <row r="43" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B43" s="124"/>
+      <c r="B43" s="108"/>
       <c r="C43" s="86"/>
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
@@ -5840,7 +5897,7 @@
       <c r="L43" s="56"/>
     </row>
     <row r="44" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B44" s="124"/>
+      <c r="B44" s="108"/>
       <c r="C44" s="86"/>
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
@@ -5853,7 +5910,7 @@
       <c r="L44" s="56"/>
     </row>
     <row r="45" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B45" s="124"/>
+      <c r="B45" s="108"/>
       <c r="C45" s="86"/>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
@@ -5866,7 +5923,7 @@
       <c r="L45" s="56"/>
     </row>
     <row r="46" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B46" s="124"/>
+      <c r="B46" s="108"/>
       <c r="C46" s="86"/>
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
@@ -5879,7 +5936,7 @@
       <c r="L46" s="56"/>
     </row>
     <row r="47" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B47" s="124"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="86"/>
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
@@ -5892,7 +5949,7 @@
       <c r="L47" s="56"/>
     </row>
     <row r="48" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B48" s="125"/>
+      <c r="B48" s="109"/>
       <c r="C48" s="87"/>
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
@@ -5927,7 +5984,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5964,12 +6021,12 @@
       </c>
       <c r="N2" s="62"/>
       <c r="O2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="62"/>
@@ -5983,12 +6040,12 @@
       <c r="L3" s="53"/>
       <c r="N3" s="83"/>
       <c r="O3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C4" s="93"/>
       <c r="D4" s="55"/>
@@ -6002,12 +6059,12 @@
       <c r="L4" s="56"/>
       <c r="N4" s="82"/>
       <c r="O4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="92"/>
       <c r="D5" s="54"/>
@@ -6022,7 +6079,7 @@
     </row>
     <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="92"/>
       <c r="D6" s="54"/>
@@ -6050,7 +6107,7 @@
     </row>
     <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="93"/>
       <c r="D8" s="55"/>
@@ -6104,7 +6161,7 @@
     </row>
     <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" s="93"/>
       <c r="D12" s="55"/>
@@ -6119,7 +6176,7 @@
     </row>
     <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" s="93"/>
       <c r="D13" s="55"/>
@@ -6134,7 +6191,7 @@
     </row>
     <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="93"/>
       <c r="D14" s="55"/>
@@ -6149,7 +6206,7 @@
     </row>
     <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="93"/>
       <c r="D15" s="55"/>
@@ -6164,7 +6221,7 @@
     </row>
     <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" s="93"/>
       <c r="D16" s="55"/>
@@ -6179,7 +6236,7 @@
     </row>
     <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C17" s="93"/>
       <c r="D17" s="55"/>
@@ -6194,7 +6251,7 @@
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C18" s="93"/>
       <c r="D18" s="55"/>
@@ -6255,7 +6312,7 @@
     </row>
     <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" s="96"/>
       <c r="D21" s="52"/>
@@ -6270,7 +6327,7 @@
     </row>
     <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="93"/>
       <c r="D22" s="55"/>
@@ -6285,7 +6342,7 @@
     </row>
     <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" s="93"/>
       <c r="D23" s="55"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="251">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1446,10 +1446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>３～６</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>索敵範囲</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1777,16 +1773,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BGM,SE収集リスト化[ユック]</t>
-    <rPh sb="6" eb="8">
-      <t>シュウシュウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>音追加[イズミ]</t>
     <rPh sb="0" eb="1">
       <t>オト</t>
@@ -1881,6 +1867,57 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー修正[イズミ]</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM,SE収集＋リスト化[ユック]</t>
+    <rPh sb="6" eb="8">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自爆エネミー作成[ムック]</t>
+    <rPh sb="0" eb="2">
+      <t>ジバク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テレポートエネミー作成[アベ]</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾作成[アベ]</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーバグ修正[イズミ]</t>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1995,7 +2032,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -2761,30 +2798,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="thick">
         <color indexed="64"/>
       </top>
@@ -2808,7 +2821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3142,19 +3155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="47" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="1" applyFont="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3204,6 +3205,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3543,11 +3547,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -4106,19 +4110,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="112"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="118"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4658,7 +4662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4709,7 +4713,7 @@
         <v>86</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>91</v>
@@ -4807,7 +4811,7 @@
     </row>
     <row r="10" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -4828,8 +4832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4847,10 +4851,10 @@
       <c r="B1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="119"/>
+      <c r="E1" s="115"/>
     </row>
     <row r="2" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4880,7 +4884,7 @@
         <v>173</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -4944,7 +4948,7 @@
         <v>188</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -4973,10 +4977,10 @@
         <v>168</v>
       </c>
       <c r="J6" s="74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5022,16 +5026,16 @@
         <v>187</v>
       </c>
       <c r="E10" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>195</v>
-      </c>
       <c r="H10" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="45"/>
@@ -5053,7 +5057,7 @@
         <v>168</v>
       </c>
       <c r="G11" s="80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H11" s="26">
         <v>10</v>
@@ -5078,10 +5082,10 @@
         <v>2</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I12" s="74"/>
       <c r="J12" s="30"/>
@@ -5093,8 +5097,8 @@
       <c r="C13" s="67">
         <v>3</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>189</v>
+      <c r="D13" s="25">
+        <v>3</v>
       </c>
       <c r="E13" s="75" t="s">
         <v>168</v>
@@ -5102,8 +5106,8 @@
       <c r="F13" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="75" t="s">
-        <v>186</v>
+      <c r="G13" s="75">
+        <v>3</v>
       </c>
       <c r="H13" s="75" t="s">
         <v>169</v>
@@ -5114,31 +5118,31 @@
     <row r="14" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
-      <c r="C15" s="129" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
+      <c r="C15" s="125" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
     </row>
     <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" s="120" t="s">
-        <v>242</v>
-      </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122"/>
+        <v>210</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="123" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
+        <v>211</v>
+      </c>
+      <c r="C17" s="119" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
@@ -5146,13 +5150,13 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="123" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="125"/>
+        <v>212</v>
+      </c>
+      <c r="C18" s="119" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
       <c r="J18" s="88"/>
@@ -5160,13 +5164,13 @@
     </row>
     <row r="19" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="126" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
+        <v>213</v>
+      </c>
+      <c r="C19" s="122" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
       <c r="H19" s="70"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
@@ -5203,8 +5207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5251,7 +5255,7 @@
       </c>
       <c r="N2" s="62"/>
       <c r="O2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5270,7 +5274,7 @@
       <c r="L3" s="53"/>
       <c r="N3" s="83"/>
       <c r="O3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5289,7 +5293,7 @@
       <c r="L4" s="56"/>
       <c r="N4" s="82"/>
       <c r="O4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5473,7 +5477,7 @@
     </row>
     <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C17" s="93"/>
       <c r="D17" s="55"/>
@@ -5488,7 +5492,7 @@
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" s="93"/>
       <c r="D18" s="55"/>
@@ -5503,7 +5507,7 @@
     </row>
     <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="57"/>
@@ -5551,7 +5555,7 @@
     </row>
     <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="91"/>
       <c r="D21" s="52"/>
@@ -5566,7 +5570,7 @@
     </row>
     <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="92"/>
       <c r="D22" s="72"/>
@@ -5581,7 +5585,7 @@
     </row>
     <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="92"/>
       <c r="D23" s="72"/>
@@ -5596,7 +5600,7 @@
     </row>
     <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" s="93"/>
       <c r="D24" s="54"/>
@@ -5611,7 +5615,7 @@
     </row>
     <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C25" s="93"/>
       <c r="D25" s="55"/>
@@ -5626,7 +5630,7 @@
     </row>
     <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" s="93"/>
       <c r="D26" s="55"/>
@@ -5641,7 +5645,7 @@
     </row>
     <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" s="46" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="55"/>
@@ -5747,57 +5751,57 @@
     </row>
     <row r="35" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="49"/>
-      <c r="C35" s="112">
+      <c r="C35" s="111">
         <v>42859</v>
       </c>
-      <c r="D35" s="112">
+      <c r="D35" s="111">
         <v>42860</v>
       </c>
-      <c r="E35" s="112">
+      <c r="E35" s="111">
         <v>42861</v>
       </c>
-      <c r="F35" s="112">
+      <c r="F35" s="111">
         <v>42862</v>
       </c>
-      <c r="G35" s="112">
+      <c r="G35" s="111">
         <v>42863</v>
       </c>
-      <c r="H35" s="112">
+      <c r="H35" s="111">
         <v>42864</v>
       </c>
-      <c r="I35" s="112">
+      <c r="I35" s="111">
         <v>42865</v>
       </c>
-      <c r="J35" s="112">
+      <c r="J35" s="111">
         <v>42866</v>
       </c>
-      <c r="K35" s="112">
+      <c r="K35" s="111">
         <v>42867</v>
       </c>
-      <c r="L35" s="112">
+      <c r="L35" s="111">
         <v>42868</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B36" s="110" t="s">
-        <v>239</v>
-      </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="111"/>
+        <v>237</v>
+      </c>
+      <c r="C36" s="91"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="53"/>
     </row>
     <row r="37" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="C37" s="113"/>
+        <v>238</v>
+      </c>
+      <c r="C37" s="128"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
@@ -5810,9 +5814,9 @@
     </row>
     <row r="38" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="C38" s="113"/>
+        <v>235</v>
+      </c>
+      <c r="C38" s="128"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
@@ -5825,10 +5829,10 @@
     </row>
     <row r="39" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="108" t="s">
-        <v>241</v>
-      </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="115"/>
+        <v>239</v>
+      </c>
+      <c r="C39" s="93"/>
+      <c r="D39" s="104"/>
       <c r="E39" s="72"/>
       <c r="F39" s="55"/>
       <c r="G39" s="55"/>
@@ -5840,12 +5844,12 @@
     </row>
     <row r="40" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B40" s="108" t="s">
-        <v>243</v>
-      </c>
-      <c r="C40" s="86"/>
+        <v>241</v>
+      </c>
+      <c r="C40" s="93"/>
       <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="72"/>
       <c r="G40" s="55"/>
       <c r="H40" s="55"/>
       <c r="I40" s="55"/>
@@ -5855,10 +5859,10 @@
     </row>
     <row r="41" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="C41" s="86"/>
-      <c r="D41" s="62"/>
+        <v>242</v>
+      </c>
+      <c r="C41" s="93"/>
+      <c r="D41" s="54"/>
       <c r="E41" s="72"/>
       <c r="F41" s="55"/>
       <c r="G41" s="55"/>
@@ -5870,12 +5874,12 @@
     </row>
     <row r="42" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="C42" s="86"/>
+        <v>243</v>
+      </c>
+      <c r="C42" s="93"/>
       <c r="D42" s="55"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="55"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
       <c r="I42" s="55"/>
@@ -5884,11 +5888,13 @@
       <c r="L42" s="56"/>
     </row>
     <row r="43" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B43" s="108"/>
-      <c r="C43" s="86"/>
+      <c r="B43" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" s="93"/>
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
+      <c r="F43" s="72"/>
       <c r="G43" s="55"/>
       <c r="H43" s="55"/>
       <c r="I43" s="55"/>
@@ -5897,60 +5903,68 @@
       <c r="L43" s="56"/>
     </row>
     <row r="44" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B44" s="108"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
+      <c r="B44" s="108" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="92"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="72"/>
       <c r="I44" s="55"/>
       <c r="J44" s="55"/>
       <c r="K44" s="55"/>
       <c r="L44" s="56"/>
     </row>
     <row r="45" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B45" s="108"/>
-      <c r="C45" s="86"/>
+      <c r="B45" s="108" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" s="93"/>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="72"/>
       <c r="I45" s="55"/>
       <c r="J45" s="55"/>
       <c r="K45" s="55"/>
       <c r="L45" s="56"/>
     </row>
     <row r="46" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B46" s="108"/>
-      <c r="C46" s="86"/>
+      <c r="B46" s="108" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" s="93"/>
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
       <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="72"/>
       <c r="I46" s="55"/>
       <c r="J46" s="55"/>
       <c r="K46" s="55"/>
       <c r="L46" s="56"/>
     </row>
     <row r="47" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B47" s="108"/>
-      <c r="C47" s="86"/>
+      <c r="B47" s="108" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="93"/>
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
       <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
       <c r="K47" s="55"/>
       <c r="L47" s="56"/>
     </row>
     <row r="48" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B48" s="109"/>
-      <c r="C48" s="87"/>
+      <c r="C48" s="97"/>
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
       <c r="F48" s="57"/>
@@ -5984,7 +5998,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -6021,12 +6035,12 @@
       </c>
       <c r="N2" s="62"/>
       <c r="O2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="62"/>
@@ -6040,12 +6054,12 @@
       <c r="L3" s="53"/>
       <c r="N3" s="83"/>
       <c r="O3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="93"/>
       <c r="D4" s="55"/>
@@ -6059,7 +6073,7 @@
       <c r="L4" s="56"/>
       <c r="N4" s="82"/>
       <c r="O4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -6079,7 +6093,7 @@
     </row>
     <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="92"/>
       <c r="D6" s="54"/>
@@ -6107,7 +6121,7 @@
     </row>
     <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C8" s="93"/>
       <c r="D8" s="55"/>
@@ -6161,7 +6175,7 @@
     </row>
     <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" s="93"/>
       <c r="D12" s="55"/>
@@ -6176,7 +6190,7 @@
     </row>
     <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" s="93"/>
       <c r="D13" s="55"/>
@@ -6191,7 +6205,7 @@
     </row>
     <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" s="93"/>
       <c r="D14" s="55"/>
@@ -6206,7 +6220,7 @@
     </row>
     <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="93"/>
       <c r="D15" s="55"/>
@@ -6221,7 +6235,7 @@
     </row>
     <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="93"/>
       <c r="D16" s="55"/>
@@ -6236,7 +6250,7 @@
     </row>
     <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" s="93"/>
       <c r="D17" s="55"/>
@@ -6251,7 +6265,7 @@
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C18" s="93"/>
       <c r="D18" s="55"/>
@@ -6312,7 +6326,7 @@
     </row>
     <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" s="96"/>
       <c r="D21" s="52"/>
@@ -6327,7 +6341,7 @@
     </row>
     <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="93"/>
       <c r="D22" s="55"/>
@@ -6342,7 +6356,7 @@
     </row>
     <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="93"/>
       <c r="D23" s="55"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="252">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1918,6 +1918,16 @@
     <t>プレイヤーバグ修正[イズミ]</t>
     <rPh sb="7" eb="9">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テレポートエネミー子機作成[アベ]</t>
+    <rPh sb="9" eb="11">
+      <t>コキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3158,6 +3168,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3205,9 +3218,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3547,11 +3557,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -4110,19 +4120,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="113"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="114"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4851,10 +4861,10 @@
       <c r="B1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="115"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5118,31 +5128,31 @@
     <row r="14" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="126" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
     </row>
     <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="122"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
@@ -5152,11 +5162,11 @@
       <c r="B18" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
       <c r="J18" s="88"/>
@@ -5166,11 +5176,11 @@
       <c r="B19" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="123" t="s">
         <v>216</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
       <c r="H19" s="70"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
@@ -5208,7 +5218,7 @@
   <dimension ref="B1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5801,7 +5811,7 @@
       <c r="B37" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="128"/>
+      <c r="C37" s="112"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
@@ -5816,7 +5826,7 @@
       <c r="B38" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="128"/>
+      <c r="C38" s="112"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
@@ -5926,10 +5936,10 @@
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
       <c r="G45" s="54"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="72"/>
       <c r="L45" s="56"/>
     </row>
     <row r="46" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5941,10 +5951,10 @@
       <c r="E46" s="55"/>
       <c r="F46" s="55"/>
       <c r="G46" s="54"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="72"/>
       <c r="L46" s="56"/>
     </row>
     <row r="47" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5963,7 +5973,9 @@
       <c r="L47" s="56"/>
     </row>
     <row r="48" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B48" s="109"/>
+      <c r="B48" s="109" t="s">
+        <v>251</v>
+      </c>
       <c r="C48" s="97"/>
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
@@ -5972,7 +5984,7 @@
       <c r="H48" s="57"/>
       <c r="I48" s="57"/>
       <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
+      <c r="K48" s="62"/>
       <c r="L48" s="58"/>
     </row>
     <row r="49" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="252">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1486,10 +1486,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>３～５</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テレポート子機</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1928,6 +1924,13 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー数カウント[ムック]</t>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2042,7 +2045,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -2816,6 +2819,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2831,7 +2886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3218,6 +3273,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="59" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4723,7 +4793,7 @@
         <v>86</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>91</v>
@@ -4821,7 +4891,7 @@
     </row>
     <row r="10" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -4843,7 +4913,7 @@
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5094,8 +5164,8 @@
       <c r="G12" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>199</v>
+      <c r="H12" s="24">
+        <v>5</v>
       </c>
       <c r="I12" s="74"/>
       <c r="J12" s="30"/>
@@ -5129,27 +5199,27 @@
     <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
       <c r="C15" s="126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" s="127"/>
       <c r="E15" s="128"/>
     </row>
     <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D16" s="118"/>
       <c r="E16" s="119"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" s="121"/>
       <c r="E17" s="122"/>
@@ -5160,10 +5230,10 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D18" s="121"/>
       <c r="E18" s="122"/>
@@ -5174,10 +5244,10 @@
     </row>
     <row r="19" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19" s="123" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D19" s="124"/>
       <c r="E19" s="125"/>
@@ -5215,10 +5285,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O49"/>
+  <dimension ref="B1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5265,7 +5335,7 @@
       </c>
       <c r="N2" s="62"/>
       <c r="O2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5284,7 +5354,7 @@
       <c r="L3" s="53"/>
       <c r="N3" s="83"/>
       <c r="O3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5303,7 +5373,7 @@
       <c r="L4" s="56"/>
       <c r="N4" s="82"/>
       <c r="O4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -5487,7 +5557,7 @@
     </row>
     <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="93"/>
       <c r="D17" s="55"/>
@@ -5502,7 +5572,7 @@
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="93"/>
       <c r="D18" s="55"/>
@@ -5517,7 +5587,7 @@
     </row>
     <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="57"/>
@@ -5565,7 +5635,7 @@
     </row>
     <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="91"/>
       <c r="D21" s="52"/>
@@ -5580,7 +5650,7 @@
     </row>
     <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" s="92"/>
       <c r="D22" s="72"/>
@@ -5595,7 +5665,7 @@
     </row>
     <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23" s="92"/>
       <c r="D23" s="72"/>
@@ -5610,7 +5680,7 @@
     </row>
     <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="93"/>
       <c r="D24" s="54"/>
@@ -5625,7 +5695,7 @@
     </row>
     <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C25" s="93"/>
       <c r="D25" s="55"/>
@@ -5640,7 +5710,7 @@
     </row>
     <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C26" s="93"/>
       <c r="D26" s="55"/>
@@ -5655,7 +5725,7 @@
     </row>
     <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" s="46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="55"/>
@@ -5794,7 +5864,7 @@
     </row>
     <row r="36" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B36" s="110" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C36" s="91"/>
       <c r="D36" s="52"/>
@@ -5809,7 +5879,7 @@
     </row>
     <row r="37" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C37" s="112"/>
       <c r="D37" s="55"/>
@@ -5824,7 +5894,7 @@
     </row>
     <row r="38" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C38" s="112"/>
       <c r="D38" s="55"/>
@@ -5839,7 +5909,7 @@
     </row>
     <row r="39" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C39" s="93"/>
       <c r="D39" s="104"/>
@@ -5854,7 +5924,7 @@
     </row>
     <row r="40" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B40" s="108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C40" s="93"/>
       <c r="D40" s="55"/>
@@ -5869,7 +5939,7 @@
     </row>
     <row r="41" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" s="93"/>
       <c r="D41" s="54"/>
@@ -5884,7 +5954,7 @@
     </row>
     <row r="42" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="55"/>
@@ -5899,7 +5969,7 @@
     </row>
     <row r="43" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C43" s="93"/>
       <c r="D43" s="55"/>
@@ -5914,7 +5984,7 @@
     </row>
     <row r="44" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B44" s="108" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C44" s="92"/>
       <c r="D44" s="54"/>
@@ -5929,7 +5999,7 @@
     </row>
     <row r="45" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C45" s="93"/>
       <c r="D45" s="55"/>
@@ -5944,7 +6014,7 @@
     </row>
     <row r="46" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B46" s="108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C46" s="93"/>
       <c r="D46" s="55"/>
@@ -5959,7 +6029,7 @@
     </row>
     <row r="47" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B47" s="108" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="93"/>
       <c r="D47" s="55"/>
@@ -5969,25 +6039,244 @@
       <c r="H47" s="54"/>
       <c r="I47" s="54"/>
       <c r="J47" s="54"/>
-      <c r="K47" s="55"/>
+      <c r="K47" s="72"/>
       <c r="L47" s="56"/>
     </row>
     <row r="48" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B48" s="109" t="s">
+      <c r="B48" s="129" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="130"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="132"/>
+      <c r="L48" s="133"/>
+    </row>
+    <row r="49" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B49" s="49"/>
+      <c r="C49" s="111">
+        <v>42867</v>
+      </c>
+      <c r="D49" s="111">
+        <v>42868</v>
+      </c>
+      <c r="E49" s="111">
+        <v>42869</v>
+      </c>
+      <c r="F49" s="111">
+        <v>42870</v>
+      </c>
+      <c r="G49" s="111">
+        <v>42871</v>
+      </c>
+      <c r="H49" s="111">
+        <v>42872</v>
+      </c>
+      <c r="I49" s="111">
+        <v>42873</v>
+      </c>
+      <c r="J49" s="111">
+        <v>42874</v>
+      </c>
+      <c r="K49" s="111">
+        <v>42875</v>
+      </c>
+      <c r="L49" s="111">
+        <v>42876</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B50" s="110" t="s">
         <v>251</v>
       </c>
-      <c r="C48" s="97"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="58"/>
-    </row>
-    <row r="49" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="53"/>
+    </row>
+    <row r="51" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B51" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="62"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="56"/>
+    </row>
+    <row r="52" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B52" s="108"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="56"/>
+    </row>
+    <row r="53" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B53" s="108"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="56"/>
+    </row>
+    <row r="54" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B54" s="108"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="56"/>
+    </row>
+    <row r="55" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B55" s="108"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="56"/>
+    </row>
+    <row r="56" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B56" s="108"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="56"/>
+    </row>
+    <row r="57" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B57" s="108"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="56"/>
+    </row>
+    <row r="58" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B58" s="108"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="56"/>
+    </row>
+    <row r="59" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B59" s="108"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="56"/>
+    </row>
+    <row r="60" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B60" s="108"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="56"/>
+    </row>
+    <row r="61" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B61" s="108"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="56"/>
+    </row>
+    <row r="62" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B62" s="108"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="56"/>
+    </row>
+    <row r="63" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B63" s="109"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="58"/>
+    </row>
+    <row r="64" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6010,7 +6299,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -6047,12 +6336,12 @@
       </c>
       <c r="N2" s="62"/>
       <c r="O2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="62"/>
@@ -6066,12 +6355,12 @@
       <c r="L3" s="53"/>
       <c r="N3" s="83"/>
       <c r="O3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="93"/>
       <c r="D4" s="55"/>
@@ -6085,7 +6374,7 @@
       <c r="L4" s="56"/>
       <c r="N4" s="82"/>
       <c r="O4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -6105,7 +6394,7 @@
     </row>
     <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="92"/>
       <c r="D6" s="54"/>
@@ -6133,7 +6422,7 @@
     </row>
     <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" s="93"/>
       <c r="D8" s="55"/>
@@ -6187,7 +6476,7 @@
     </row>
     <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="93"/>
       <c r="D12" s="55"/>
@@ -6202,7 +6491,7 @@
     </row>
     <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="93"/>
       <c r="D13" s="55"/>
@@ -6217,7 +6506,7 @@
     </row>
     <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C14" s="93"/>
       <c r="D14" s="55"/>
@@ -6232,7 +6521,7 @@
     </row>
     <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" s="93"/>
       <c r="D15" s="55"/>
@@ -6247,7 +6536,7 @@
     </row>
     <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" s="93"/>
       <c r="D16" s="55"/>
@@ -6262,7 +6551,7 @@
     </row>
     <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" s="93"/>
       <c r="D17" s="55"/>
@@ -6277,7 +6566,7 @@
     </row>
     <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" s="93"/>
       <c r="D18" s="55"/>
@@ -6338,7 +6627,7 @@
     </row>
     <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C21" s="96"/>
       <c r="D21" s="52"/>
@@ -6353,7 +6642,7 @@
     </row>
     <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C22" s="93"/>
       <c r="D22" s="55"/>
@@ -6368,7 +6657,7 @@
     </row>
     <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="93"/>
       <c r="D23" s="55"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeta1\Desktop\てお\ソースツリーo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takayosi\Documents\A_Team2017Zenki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="3795" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="257">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1932,6 +1932,26 @@
     <rPh sb="4" eb="5">
       <t>カズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーアニメいつの間にかできてた[D]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面床の作成[イズミ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーモデル作成[イズミ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー回転修正[イズミ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーアニメーション適用[イズミ]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2045,7 +2065,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -2871,6 +2891,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2886,7 +2977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3226,6 +3317,21 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="59" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3274,19 +3380,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="59" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3612,26 +3718,26 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="19.58203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.4375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.8125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.8125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.4375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -3642,7 +3748,7 @@
         <v>42898</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A2" s="70"/>
       <c r="G2" s="34" t="s">
         <v>32</v>
@@ -3650,7 +3756,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A3" s="71"/>
       <c r="B3" s="63"/>
       <c r="C3" s="61" t="s">
@@ -3675,7 +3781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B4" s="68" t="s">
         <v>108</v>
       </c>
@@ -3693,7 +3799,7 @@
       </c>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B5" s="60" t="s">
         <v>112</v>
       </c>
@@ -3713,7 +3819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B6" s="60" t="s">
         <v>113</v>
       </c>
@@ -3731,7 +3837,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B7" s="60" t="s">
         <v>114</v>
       </c>
@@ -3745,7 +3851,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B8" s="60" t="s">
         <v>115</v>
       </c>
@@ -3765,7 +3871,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B9" s="60" t="s">
         <v>116</v>
       </c>
@@ -3783,7 +3889,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B10" s="60" t="s">
         <v>117</v>
       </c>
@@ -3801,7 +3907,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B11" s="60"/>
       <c r="C11" s="65"/>
       <c r="D11" s="36"/>
@@ -3815,7 +3921,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B12" s="60" t="s">
         <v>121</v>
       </c>
@@ -3833,7 +3939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B13" s="60" t="s">
         <v>127</v>
       </c>
@@ -3847,7 +3953,7 @@
       <c r="I13" s="36"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B14" s="60" t="s">
         <v>122</v>
       </c>
@@ -3867,7 +3973,7 @@
       </c>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B15" s="60" t="s">
         <v>124</v>
       </c>
@@ -3883,7 +3989,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B16" s="60"/>
       <c r="C16" s="65"/>
       <c r="D16" s="36"/>
@@ -3897,7 +4003,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B17" s="60" t="s">
         <v>126</v>
       </c>
@@ -3913,7 +4019,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B18" s="60" t="s">
         <v>127</v>
       </c>
@@ -3931,7 +4037,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B19" s="60" t="s">
         <v>130</v>
       </c>
@@ -3949,7 +4055,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B20" s="60" t="s">
         <v>132</v>
       </c>
@@ -3969,7 +4075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B21" s="60" t="s">
         <v>134</v>
       </c>
@@ -3983,7 +4089,7 @@
       <c r="I21" s="36"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B22" s="60" t="s">
         <v>124</v>
       </c>
@@ -4001,7 +4107,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B23" s="60"/>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
@@ -4013,7 +4119,7 @@
       </c>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B24" s="60" t="s">
         <v>137</v>
       </c>
@@ -4029,7 +4135,7 @@
       </c>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B25" s="60" t="s">
         <v>127</v>
       </c>
@@ -4047,7 +4153,7 @@
       </c>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B26" s="60" t="s">
         <v>130</v>
       </c>
@@ -4065,7 +4171,7 @@
       </c>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B27" s="60" t="s">
         <v>140</v>
       </c>
@@ -4083,7 +4189,7 @@
       </c>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B28" s="60" t="s">
         <v>141</v>
       </c>
@@ -4099,7 +4205,7 @@
       <c r="I28" s="24"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B29" s="60" t="s">
         <v>143</v>
       </c>
@@ -4115,7 +4221,7 @@
       <c r="I29" s="25"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B30" s="60" t="s">
         <v>146</v>
       </c>
@@ -4127,7 +4233,7 @@
       </c>
       <c r="E30" s="30"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B31" s="60" t="s">
         <v>143</v>
       </c>
@@ -4139,31 +4245,31 @@
       </c>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B32" s="60"/>
       <c r="C32" s="66"/>
       <c r="D32" s="24"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B33" s="60"/>
       <c r="C33" s="66"/>
       <c r="D33" s="24"/>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B34" s="60"/>
       <c r="C34" s="66"/>
       <c r="D34" s="24"/>
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B35" s="69"/>
       <c r="C35" s="67"/>
       <c r="D35" s="25"/>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="2:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" spans="2:5" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -4182,30 +4288,30 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:13" ht="22.9" x14ac:dyDescent="0.7">
+      <c r="A1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
+      <c r="B1" s="118"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="115"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G1" s="120"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="3" spans="1:13" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -4224,7 +4330,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4243,7 +4349,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -4260,7 +4366,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -4277,7 +4383,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -4292,7 +4398,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -4307,7 +4413,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -4322,7 +4428,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -4337,7 +4443,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="12"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -4352,7 +4458,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -4371,7 +4477,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -4388,7 +4494,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
@@ -4405,7 +4511,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
@@ -4422,7 +4528,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
         <v>7</v>
@@ -4439,7 +4545,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
         <v>14</v>
@@ -4456,7 +4562,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4"/>
@@ -4471,7 +4577,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A19" s="10"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
@@ -4486,7 +4592,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="10"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -4501,7 +4607,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -4520,7 +4626,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A22" s="10"/>
       <c r="B22" s="8" t="s">
         <v>17</v>
@@ -4537,7 +4643,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A23" s="10"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
@@ -4554,7 +4660,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4"/>
@@ -4569,7 +4675,7 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A25" s="10"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -4584,7 +4690,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A26" s="10" t="s">
         <v>19</v>
       </c>
@@ -4603,36 +4709,36 @@
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A27" s="10"/>
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A28" s="10"/>
       <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A29" s="10"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A30" s="10"/>
       <c r="B30" s="8"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A32" s="10" t="s">
         <v>26</v>
       </c>
@@ -4641,93 +4747,93 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A33" s="10"/>
       <c r="B33" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A34" s="10"/>
       <c r="B34" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A35" s="10"/>
       <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A36" s="10"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A37" s="10"/>
       <c r="B37" s="8"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A38" s="10"/>
       <c r="B38" s="8"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A39" s="10"/>
       <c r="B39" s="8"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A40" s="10"/>
       <c r="B40" s="8"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A41" s="10"/>
       <c r="B41" s="8"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A42" s="10"/>
       <c r="B42" s="8"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A43" s="10"/>
       <c r="B43" s="8"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A44" s="10"/>
       <c r="B44" s="8"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A45" s="10"/>
       <c r="B45" s="8"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A46" s="10"/>
       <c r="B46" s="8"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A47" s="10"/>
       <c r="B47" s="8"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A48" s="12"/>
       <c r="B48" s="9"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
@@ -4746,23 +4852,23 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="108.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:8" ht="22.9" x14ac:dyDescent="0.7">
       <c r="B1" s="43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="2:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="3" spans="2:8" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B3" s="44" t="s">
         <v>72</v>
       </c>
@@ -4785,7 +4891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B4" s="28" t="s">
         <v>82</v>
       </c>
@@ -4806,7 +4912,7 @@
       </c>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B5" s="31" t="s">
         <v>83</v>
       </c>
@@ -4827,7 +4933,7 @@
       </c>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B6" s="31" t="s">
         <v>84</v>
       </c>
@@ -4848,7 +4954,7 @@
       </c>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B7" s="31" t="s">
         <v>85</v>
       </c>
@@ -4869,7 +4975,7 @@
       </c>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B8" s="31"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -4878,7 +4984,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B9" s="31" t="s">
         <v>172</v>
       </c>
@@ -4889,7 +4995,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="32" t="s">
         <v>199</v>
       </c>
@@ -4900,7 +5006,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="2:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4916,28 +5022,28 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:11" ht="22.9" x14ac:dyDescent="0.7">
       <c r="B1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="121" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="116"/>
-    </row>
-    <row r="2" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E1" s="121"/>
+    </row>
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="3" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B3" s="63"/>
       <c r="C3" s="27" t="s">
         <v>105</v>
@@ -4967,7 +5073,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B4" s="59" t="s">
         <v>82</v>
       </c>
@@ -4999,7 +5105,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B5" s="60" t="s">
         <v>83</v>
       </c>
@@ -5031,7 +5137,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B6" s="60" t="s">
         <v>84</v>
       </c>
@@ -5063,7 +5169,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B7" s="69" t="s">
         <v>85</v>
       </c>
@@ -5095,9 +5201,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="10" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="63"/>
       <c r="C10" s="61" t="s">
         <v>176</v>
@@ -5120,7 +5226,7 @@
       <c r="I10" s="27"/>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B11" s="68" t="s">
         <v>172</v>
       </c>
@@ -5145,7 +5251,7 @@
       <c r="I11" s="80"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B12" s="60" t="s">
         <v>170</v>
       </c>
@@ -5170,7 +5276,7 @@
       <c r="I12" s="74"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="69" t="s">
         <v>175</v>
       </c>
@@ -5195,74 +5301,74 @@
       <c r="I13" s="25"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="15" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B15" s="49"/>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="131" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-    </row>
-    <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+    </row>
+    <row r="16" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B16" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="122" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B17" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
       <c r="K17" s="70"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B18" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="125" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
       <c r="J18" s="88"/>
       <c r="K18" s="88"/>
     </row>
-    <row r="19" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B19" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="125"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="130"/>
       <c r="H19" s="70"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
       <c r="K19" s="70"/>
     </row>
-    <row r="20" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="H20" s="88"/>
       <c r="I20" s="88"/>
       <c r="J20" s="88"/>
       <c r="K20" s="70"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.7">
       <c r="H21" s="70"/>
       <c r="I21" s="88"/>
       <c r="J21" s="88"/>
@@ -5287,21 +5393,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B1" s="43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B2" s="49"/>
       <c r="C2" s="50">
         <v>42843</v>
@@ -5338,7 +5444,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B3" s="85" t="s">
         <v>77</v>
       </c>
@@ -5357,7 +5463,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B4" s="46" t="s">
         <v>78</v>
       </c>
@@ -5376,7 +5482,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="46" t="s">
         <v>79</v>
       </c>
@@ -5391,7 +5497,7 @@
       <c r="K5" s="55"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B6" s="46" t="s">
         <v>80</v>
       </c>
@@ -5406,7 +5512,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
@@ -5421,7 +5527,7 @@
       <c r="K7" s="55"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B8" s="46" t="s">
         <v>107</v>
       </c>
@@ -5436,7 +5542,7 @@
       <c r="K8" s="55"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B9" s="46" t="s">
         <v>152</v>
       </c>
@@ -5451,7 +5557,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="46" t="s">
         <v>153</v>
       </c>
@@ -5466,7 +5572,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B11" s="46" t="s">
         <v>154</v>
       </c>
@@ -5481,7 +5587,7 @@
       <c r="K11" s="54"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B12" s="46" t="s">
         <v>155</v>
       </c>
@@ -5496,7 +5602,7 @@
       <c r="K12" s="55"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="46" t="s">
         <v>156</v>
       </c>
@@ -5511,14 +5617,14 @@
       <c r="K13" s="55"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B14" s="46" t="s">
         <v>157</v>
       </c>
       <c r="C14" s="93"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
-      <c r="F14" s="72"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
@@ -5526,7 +5632,7 @@
       <c r="K14" s="55"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B15" s="46" t="s">
         <v>158</v>
       </c>
@@ -5541,7 +5647,7 @@
       <c r="K15" s="55"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B16" s="46" t="s">
         <v>159</v>
       </c>
@@ -5555,7 +5661,7 @@
       <c r="K16" s="55"/>
       <c r="L16" s="56"/>
     </row>
-    <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B17" s="46" t="s">
         <v>203</v>
       </c>
@@ -5570,7 +5676,7 @@
       <c r="K17" s="54"/>
       <c r="L17" s="107"/>
     </row>
-    <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B18" s="46" t="s">
         <v>204</v>
       </c>
@@ -5585,7 +5691,7 @@
       <c r="K18" s="54"/>
       <c r="L18" s="107"/>
     </row>
-    <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B19" s="84" t="s">
         <v>205</v>
       </c>
@@ -5600,7 +5706,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B20" s="49"/>
       <c r="C20" s="50">
         <v>42849</v>
@@ -5633,7 +5739,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B21" s="48" t="s">
         <v>206</v>
       </c>
@@ -5648,7 +5754,7 @@
       <c r="K21" s="55"/>
       <c r="L21" s="56"/>
     </row>
-    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B22" s="46" t="s">
         <v>207</v>
       </c>
@@ -5663,7 +5769,7 @@
       <c r="K22" s="55"/>
       <c r="L22" s="56"/>
     </row>
-    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B23" s="46" t="s">
         <v>216</v>
       </c>
@@ -5678,7 +5784,7 @@
       <c r="K23" s="55"/>
       <c r="L23" s="56"/>
     </row>
-    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B24" s="46" t="s">
         <v>217</v>
       </c>
@@ -5693,7 +5799,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B25" s="46" t="s">
         <v>234</v>
       </c>
@@ -5708,7 +5814,7 @@
       <c r="K25" s="54"/>
       <c r="L25" s="62"/>
     </row>
-    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B26" s="46" t="s">
         <v>235</v>
       </c>
@@ -5723,7 +5829,7 @@
       <c r="K26" s="72"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B27" s="46" t="s">
         <v>245</v>
       </c>
@@ -5738,7 +5844,7 @@
       <c r="K27" s="54"/>
       <c r="L27" s="62"/>
     </row>
-    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="46"/>
       <c r="C28" s="86"/>
       <c r="D28" s="55"/>
@@ -5751,7 +5857,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B29" s="46"/>
       <c r="C29" s="86"/>
       <c r="D29" s="55"/>
@@ -5764,7 +5870,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B30" s="46"/>
       <c r="C30" s="86"/>
       <c r="D30" s="55"/>
@@ -5777,7 +5883,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B31" s="46"/>
       <c r="C31" s="86"/>
       <c r="D31" s="55"/>
@@ -5790,7 +5896,7 @@
       <c r="K31" s="55"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B32" s="46"/>
       <c r="C32" s="86"/>
       <c r="D32" s="55"/>
@@ -5803,7 +5909,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="56"/>
     </row>
-    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B33" s="46"/>
       <c r="C33" s="86"/>
       <c r="D33" s="55"/>
@@ -5816,7 +5922,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B34" s="47"/>
       <c r="C34" s="87"/>
       <c r="D34" s="57"/>
@@ -5829,7 +5935,7 @@
       <c r="K34" s="57"/>
       <c r="L34" s="58"/>
     </row>
-    <row r="35" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B35" s="49"/>
       <c r="C35" s="111">
         <v>42859</v>
@@ -5862,7 +5968,7 @@
         <v>42868</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B36" s="110" t="s">
         <v>236</v>
       </c>
@@ -5877,7 +5983,7 @@
       <c r="K36" s="52"/>
       <c r="L36" s="53"/>
     </row>
-    <row r="37" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B37" s="108" t="s">
         <v>237</v>
       </c>
@@ -5892,7 +5998,7 @@
       <c r="K37" s="55"/>
       <c r="L37" s="56"/>
     </row>
-    <row r="38" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B38" s="46" t="s">
         <v>234</v>
       </c>
@@ -5907,7 +6013,7 @@
       <c r="K38" s="55"/>
       <c r="L38" s="56"/>
     </row>
-    <row r="39" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B39" s="108" t="s">
         <v>238</v>
       </c>
@@ -5922,7 +6028,7 @@
       <c r="K39" s="55"/>
       <c r="L39" s="56"/>
     </row>
-    <row r="40" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B40" s="108" t="s">
         <v>240</v>
       </c>
@@ -5937,7 +6043,7 @@
       <c r="K40" s="55"/>
       <c r="L40" s="56"/>
     </row>
-    <row r="41" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B41" s="108" t="s">
         <v>241</v>
       </c>
@@ -5952,7 +6058,7 @@
       <c r="K41" s="55"/>
       <c r="L41" s="56"/>
     </row>
-    <row r="42" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B42" s="108" t="s">
         <v>242</v>
       </c>
@@ -5967,7 +6073,7 @@
       <c r="K42" s="55"/>
       <c r="L42" s="56"/>
     </row>
-    <row r="43" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B43" s="108" t="s">
         <v>244</v>
       </c>
@@ -5982,7 +6088,7 @@
       <c r="K43" s="55"/>
       <c r="L43" s="56"/>
     </row>
-    <row r="44" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B44" s="108" t="s">
         <v>246</v>
       </c>
@@ -5997,7 +6103,7 @@
       <c r="K44" s="55"/>
       <c r="L44" s="56"/>
     </row>
-    <row r="45" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B45" s="108" t="s">
         <v>247</v>
       </c>
@@ -6012,7 +6118,7 @@
       <c r="K45" s="72"/>
       <c r="L45" s="56"/>
     </row>
-    <row r="46" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B46" s="108" t="s">
         <v>248</v>
       </c>
@@ -6027,7 +6133,7 @@
       <c r="K46" s="72"/>
       <c r="L46" s="56"/>
     </row>
-    <row r="47" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B47" s="108" t="s">
         <v>249</v>
       </c>
@@ -6042,22 +6148,22 @@
       <c r="K47" s="72"/>
       <c r="L47" s="56"/>
     </row>
-    <row r="48" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B48" s="129" t="s">
+    <row r="48" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B48" s="113" t="s">
         <v>250</v>
       </c>
-      <c r="C48" s="130"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="131"/>
-      <c r="K48" s="132"/>
-      <c r="L48" s="133"/>
-    </row>
-    <row r="49" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C48" s="114"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="115"/>
+      <c r="J48" s="115"/>
+      <c r="K48" s="116"/>
+      <c r="L48" s="117"/>
+    </row>
+    <row r="49" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B49" s="49"/>
       <c r="C49" s="111">
         <v>42867</v>
@@ -6090,11 +6196,11 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B50" s="110" t="s">
         <v>251</v>
       </c>
-      <c r="C50" s="62"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="52"/>
       <c r="E50" s="52"/>
       <c r="F50" s="52"/>
@@ -6105,11 +6211,11 @@
       <c r="K50" s="52"/>
       <c r="L50" s="53"/>
     </row>
-    <row r="51" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B51" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="C51" s="62"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
       <c r="F51" s="55"/>
@@ -6120,9 +6226,11 @@
       <c r="K51" s="55"/>
       <c r="L51" s="56"/>
     </row>
-    <row r="52" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B52" s="108"/>
-      <c r="C52" s="93"/>
+    <row r="52" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B52" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="92"/>
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
       <c r="F52" s="55"/>
@@ -6133,11 +6241,13 @@
       <c r="K52" s="55"/>
       <c r="L52" s="56"/>
     </row>
-    <row r="53" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B53" s="108"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
+    <row r="53" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B53" s="108" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="92"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="72"/>
       <c r="F53" s="55"/>
       <c r="G53" s="55"/>
       <c r="H53" s="55"/>
@@ -6146,11 +6256,13 @@
       <c r="K53" s="55"/>
       <c r="L53" s="56"/>
     </row>
-    <row r="54" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B54" s="108"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
+    <row r="54" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B54" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="92"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="72"/>
       <c r="F54" s="55"/>
       <c r="G54" s="55"/>
       <c r="H54" s="55"/>
@@ -6159,11 +6271,13 @@
       <c r="K54" s="55"/>
       <c r="L54" s="56"/>
     </row>
-    <row r="55" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B55" s="108"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
+    <row r="55" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B55" s="108" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" s="92"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="72"/>
       <c r="F55" s="55"/>
       <c r="G55" s="55"/>
       <c r="H55" s="55"/>
@@ -6172,11 +6286,13 @@
       <c r="K55" s="55"/>
       <c r="L55" s="56"/>
     </row>
-    <row r="56" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B56" s="108"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
+    <row r="56" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B56" s="108" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="92"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="72"/>
       <c r="F56" s="55"/>
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
@@ -6185,7 +6301,7 @@
       <c r="K56" s="55"/>
       <c r="L56" s="56"/>
     </row>
-    <row r="57" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B57" s="108"/>
       <c r="C57" s="93"/>
       <c r="D57" s="55"/>
@@ -6198,7 +6314,7 @@
       <c r="K57" s="55"/>
       <c r="L57" s="56"/>
     </row>
-    <row r="58" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B58" s="108"/>
       <c r="C58" s="93"/>
       <c r="D58" s="55"/>
@@ -6211,7 +6327,7 @@
       <c r="K58" s="55"/>
       <c r="L58" s="56"/>
     </row>
-    <row r="59" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B59" s="108"/>
       <c r="C59" s="93"/>
       <c r="D59" s="55"/>
@@ -6224,33 +6340,33 @@
       <c r="K59" s="55"/>
       <c r="L59" s="56"/>
     </row>
-    <row r="60" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B60" s="108"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="56"/>
-    </row>
-    <row r="61" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C60" s="136"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="137"/>
+      <c r="L60" s="138"/>
+    </row>
+    <row r="61" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B61" s="108"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="56"/>
-    </row>
-    <row r="62" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C61" s="134"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="106"/>
+      <c r="L61" s="135"/>
+    </row>
+    <row r="62" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B62" s="108"/>
       <c r="C62" s="93"/>
       <c r="D62" s="55"/>
@@ -6263,7 +6379,7 @@
       <c r="K62" s="55"/>
       <c r="L62" s="56"/>
     </row>
-    <row r="63" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B63" s="109"/>
       <c r="C63" s="97"/>
       <c r="D63" s="57"/>
@@ -6276,7 +6392,7 @@
       <c r="K63" s="57"/>
       <c r="L63" s="58"/>
     </row>
-    <row r="64" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6288,21 +6404,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B2" s="49"/>
       <c r="C2" s="94">
         <v>42849</v>
@@ -6339,7 +6455,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B3" s="85" t="s">
         <v>218</v>
       </c>
@@ -6358,7 +6474,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B4" s="46" t="s">
         <v>220</v>
       </c>
@@ -6377,7 +6493,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="46" t="s">
         <v>155</v>
       </c>
@@ -6392,7 +6508,7 @@
       <c r="K5" s="55"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B6" s="46" t="s">
         <v>204</v>
       </c>
@@ -6407,7 +6523,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B7" s="46"/>
       <c r="C7" s="93"/>
       <c r="D7" s="55"/>
@@ -6420,7 +6536,7 @@
       <c r="K7" s="55"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B8" s="46" t="s">
         <v>231</v>
       </c>
@@ -6435,7 +6551,7 @@
       <c r="K8" s="99"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B9" s="46"/>
       <c r="C9" s="93"/>
       <c r="D9" s="55"/>
@@ -6448,7 +6564,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="46"/>
       <c r="C10" s="93"/>
       <c r="D10" s="55"/>
@@ -6461,7 +6577,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B11" s="46"/>
       <c r="C11" s="93"/>
       <c r="D11" s="55"/>
@@ -6474,7 +6590,7 @@
       <c r="K11" s="55"/>
       <c r="L11" s="56"/>
     </row>
-    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B12" s="46" t="s">
         <v>221</v>
       </c>
@@ -6489,7 +6605,7 @@
       <c r="K12" s="99"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="46" t="s">
         <v>222</v>
       </c>
@@ -6504,7 +6620,7 @@
       <c r="K13" s="99"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B14" s="46" t="s">
         <v>223</v>
       </c>
@@ -6519,7 +6635,7 @@
       <c r="K14" s="99"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B15" s="46" t="s">
         <v>224</v>
       </c>
@@ -6534,7 +6650,7 @@
       <c r="K15" s="99"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B16" s="46" t="s">
         <v>225</v>
       </c>
@@ -6549,7 +6665,7 @@
       <c r="K16" s="99"/>
       <c r="L16" s="56"/>
     </row>
-    <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B17" s="46" t="s">
         <v>226</v>
       </c>
@@ -6564,7 +6680,7 @@
       <c r="K17" s="99"/>
       <c r="L17" s="56"/>
     </row>
-    <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B18" s="46" t="s">
         <v>227</v>
       </c>
@@ -6579,7 +6695,7 @@
       <c r="K18" s="99"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B19" s="84"/>
       <c r="C19" s="97"/>
       <c r="D19" s="57"/>
@@ -6592,7 +6708,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B20" s="49"/>
       <c r="C20" s="94">
         <v>42849</v>
@@ -6625,7 +6741,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B21" s="48" t="s">
         <v>228</v>
       </c>
@@ -6640,7 +6756,7 @@
       <c r="K21" s="81"/>
       <c r="L21" s="101"/>
     </row>
-    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B22" s="46" t="s">
         <v>229</v>
       </c>
@@ -6655,7 +6771,7 @@
       <c r="K22" s="99"/>
       <c r="L22" s="100"/>
     </row>
-    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B23" s="46" t="s">
         <v>230</v>
       </c>
@@ -6670,7 +6786,7 @@
       <c r="K23" s="99"/>
       <c r="L23" s="100"/>
     </row>
-    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B24" s="46"/>
       <c r="C24" s="93"/>
       <c r="D24" s="55"/>
@@ -6683,7 +6799,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B25" s="46"/>
       <c r="C25" s="93"/>
       <c r="D25" s="55"/>
@@ -6696,7 +6812,7 @@
       <c r="K25" s="55"/>
       <c r="L25" s="56"/>
     </row>
-    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B26" s="46"/>
       <c r="C26" s="93"/>
       <c r="D26" s="55"/>
@@ -6709,7 +6825,7 @@
       <c r="K26" s="55"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B27" s="46"/>
       <c r="C27" s="93"/>
       <c r="D27" s="55"/>
@@ -6722,7 +6838,7 @@
       <c r="K27" s="55"/>
       <c r="L27" s="56"/>
     </row>
-    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="46"/>
       <c r="C28" s="93"/>
       <c r="D28" s="55"/>
@@ -6735,7 +6851,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B29" s="46"/>
       <c r="C29" s="93"/>
       <c r="D29" s="55"/>
@@ -6748,7 +6864,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B30" s="46"/>
       <c r="C30" s="93"/>
       <c r="D30" s="55"/>
@@ -6761,7 +6877,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B31" s="46"/>
       <c r="C31" s="93"/>
       <c r="D31" s="55"/>
@@ -6774,7 +6890,7 @@
       <c r="K31" s="55"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B32" s="46"/>
       <c r="C32" s="93"/>
       <c r="D32" s="55"/>
@@ -6787,7 +6903,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="56"/>
     </row>
-    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B33" s="46"/>
       <c r="C33" s="93"/>
       <c r="D33" s="55"/>
@@ -6800,7 +6916,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B34" s="47"/>
       <c r="C34" s="97"/>
       <c r="D34" s="57"/>
@@ -6813,7 +6929,7 @@
       <c r="K34" s="57"/>
       <c r="L34" s="58"/>
     </row>
-    <row r="35" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takayosi\Documents\A_Team2017Zenki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeta1\Desktop\てお\ソースツリーo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="3795" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="3800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="259">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1952,6 +1952,23 @@
   </si>
   <si>
     <t>プレイヤーアニメーション適用[イズミ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの大きさ設定[アベ]</t>
+    <rPh sb="5" eb="6">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑の対応(エネミー)[アベ]</t>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3332,6 +3349,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3379,21 +3411,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3718,26 +3735,26 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="19.5625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.4375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.58203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.8125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.4375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.8125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.4375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -3748,7 +3765,7 @@
         <v>42898</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="70"/>
       <c r="G2" s="34" t="s">
         <v>32</v>
@@ -3756,7 +3773,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:10" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="71"/>
       <c r="B3" s="63"/>
       <c r="C3" s="61" t="s">
@@ -3781,7 +3798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="68" t="s">
         <v>108</v>
       </c>
@@ -3799,7 +3816,7 @@
       </c>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="60" t="s">
         <v>112</v>
       </c>
@@ -3819,7 +3836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="60" t="s">
         <v>113</v>
       </c>
@@ -3837,7 +3854,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="60" t="s">
         <v>114</v>
       </c>
@@ -3851,7 +3868,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="60" t="s">
         <v>115</v>
       </c>
@@ -3871,7 +3888,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="60" t="s">
         <v>116</v>
       </c>
@@ -3889,7 +3906,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="60" t="s">
         <v>117</v>
       </c>
@@ -3907,7 +3924,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="60"/>
       <c r="C11" s="65"/>
       <c r="D11" s="36"/>
@@ -3921,7 +3938,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="60" t="s">
         <v>121</v>
       </c>
@@ -3939,7 +3956,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="60" t="s">
         <v>127</v>
       </c>
@@ -3953,7 +3970,7 @@
       <c r="I13" s="36"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="60" t="s">
         <v>122</v>
       </c>
@@ -3973,7 +3990,7 @@
       </c>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="60" t="s">
         <v>124</v>
       </c>
@@ -3989,7 +4006,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="60"/>
       <c r="C16" s="65"/>
       <c r="D16" s="36"/>
@@ -4003,7 +4020,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>126</v>
       </c>
@@ -4019,7 +4036,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="60" t="s">
         <v>127</v>
       </c>
@@ -4037,7 +4054,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="60" t="s">
         <v>130</v>
       </c>
@@ -4055,7 +4072,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="60" t="s">
         <v>132</v>
       </c>
@@ -4075,7 +4092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="60" t="s">
         <v>134</v>
       </c>
@@ -4089,7 +4106,7 @@
       <c r="I21" s="36"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="60" t="s">
         <v>124</v>
       </c>
@@ -4107,7 +4124,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="60"/>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
@@ -4119,7 +4136,7 @@
       </c>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="60" t="s">
         <v>137</v>
       </c>
@@ -4135,7 +4152,7 @@
       </c>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="60" t="s">
         <v>127</v>
       </c>
@@ -4153,7 +4170,7 @@
       </c>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="60" t="s">
         <v>130</v>
       </c>
@@ -4171,7 +4188,7 @@
       </c>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="60" t="s">
         <v>140</v>
       </c>
@@ -4189,7 +4206,7 @@
       </c>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="60" t="s">
         <v>141</v>
       </c>
@@ -4205,7 +4222,7 @@
       <c r="I28" s="24"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="60" t="s">
         <v>143</v>
       </c>
@@ -4221,7 +4238,7 @@
       <c r="I29" s="25"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="60" t="s">
         <v>146</v>
       </c>
@@ -4233,7 +4250,7 @@
       </c>
       <c r="E30" s="30"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="60" t="s">
         <v>143</v>
       </c>
@@ -4245,31 +4262,31 @@
       </c>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="60"/>
       <c r="C32" s="66"/>
       <c r="D32" s="24"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="60"/>
       <c r="C33" s="66"/>
       <c r="D33" s="24"/>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="60"/>
       <c r="C34" s="66"/>
       <c r="D34" s="24"/>
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="69"/>
       <c r="C35" s="67"/>
       <c r="D35" s="25"/>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="2:5" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="36" spans="2:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -4288,30 +4305,30 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="5" max="5" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.9" x14ac:dyDescent="0.7">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="118"/>
+      <c r="B1" s="123"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="120"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="3" spans="1:13" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G1" s="125"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -4330,7 +4347,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4349,7 +4366,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -4366,7 +4383,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -4383,7 +4400,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -4398,7 +4415,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -4413,7 +4430,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -4428,7 +4445,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -4443,7 +4460,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="12"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -4458,7 +4475,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -4477,7 +4494,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -4494,7 +4511,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
@@ -4511,7 +4528,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
@@ -4528,7 +4545,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
         <v>7</v>
@@ -4545,7 +4562,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
         <v>14</v>
@@ -4562,7 +4579,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4"/>
@@ -4577,7 +4594,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
@@ -4592,7 +4609,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="10"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -4607,7 +4624,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -4626,7 +4643,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10"/>
       <c r="B22" s="8" t="s">
         <v>17</v>
@@ -4643,7 +4660,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
@@ -4660,7 +4677,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4"/>
@@ -4675,7 +4692,7 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -4690,7 +4707,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>19</v>
       </c>
@@ -4709,36 +4726,36 @@
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10"/>
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10"/>
       <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10"/>
       <c r="B30" s="8"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
         <v>26</v>
       </c>
@@ -4747,93 +4764,93 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10"/>
       <c r="B33" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10"/>
       <c r="B34" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10"/>
       <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10"/>
       <c r="B37" s="8"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10"/>
       <c r="B38" s="8"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10"/>
       <c r="B39" s="8"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10"/>
       <c r="B40" s="8"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10"/>
       <c r="B41" s="8"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10"/>
       <c r="B42" s="8"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10"/>
       <c r="B43" s="8"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10"/>
       <c r="B44" s="8"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10"/>
       <c r="B45" s="8"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10"/>
       <c r="B46" s="8"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10"/>
       <c r="B47" s="8"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="12"/>
       <c r="B48" s="9"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="49" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
@@ -4852,23 +4869,23 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="108.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:8" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="3" spans="2:8" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="2:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="44" t="s">
         <v>72</v>
       </c>
@@ -4891,7 +4908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="28" t="s">
         <v>82</v>
       </c>
@@ -4912,7 +4929,7 @@
       </c>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="31" t="s">
         <v>83</v>
       </c>
@@ -4933,7 +4950,7 @@
       </c>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="31" t="s">
         <v>84</v>
       </c>
@@ -4954,7 +4971,7 @@
       </c>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="31" t="s">
         <v>85</v>
       </c>
@@ -4975,7 +4992,7 @@
       </c>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="31"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -4984,7 +5001,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="31" t="s">
         <v>172</v>
       </c>
@@ -4995,7 +5012,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="32" t="s">
         <v>199</v>
       </c>
@@ -5006,7 +5023,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="11" spans="2:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5022,28 +5039,28 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.0625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:11" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="121"/>
-    </row>
-    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="3" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="E1" s="126"/>
+    </row>
+    <row r="2" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="63"/>
       <c r="C3" s="27" t="s">
         <v>105</v>
@@ -5073,7 +5090,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="59" t="s">
         <v>82</v>
       </c>
@@ -5105,7 +5122,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="60" t="s">
         <v>83</v>
       </c>
@@ -5137,7 +5154,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="60" t="s">
         <v>84</v>
       </c>
@@ -5169,7 +5186,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="69" t="s">
         <v>85</v>
       </c>
@@ -5201,9 +5218,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
-    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="10" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="63"/>
       <c r="C10" s="61" t="s">
         <v>176</v>
@@ -5226,7 +5243,7 @@
       <c r="I10" s="27"/>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="68" t="s">
         <v>172</v>
       </c>
@@ -5251,7 +5268,7 @@
       <c r="I11" s="80"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="60" t="s">
         <v>170</v>
       </c>
@@ -5276,7 +5293,7 @@
       <c r="I12" s="74"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="69" t="s">
         <v>175</v>
       </c>
@@ -5301,74 +5318,74 @@
       <c r="I13" s="25"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="15" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-    </row>
-    <row r="16" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
+    </row>
+    <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="127" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.7">
+      <c r="D16" s="128"/>
+      <c r="E16" s="129"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
       <c r="K17" s="70"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="130" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="127"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
       <c r="J18" s="88"/>
       <c r="K18" s="88"/>
     </row>
-    <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="133" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="135"/>
       <c r="H19" s="70"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
       <c r="K19" s="70"/>
     </row>
-    <row r="20" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H20" s="88"/>
       <c r="I20" s="88"/>
       <c r="J20" s="88"/>
       <c r="K20" s="70"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="70"/>
       <c r="I21" s="88"/>
       <c r="J21" s="88"/>
@@ -5393,21 +5410,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="36.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="49"/>
       <c r="C2" s="50">
         <v>42843</v>
@@ -5444,7 +5461,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="85" t="s">
         <v>77</v>
       </c>
@@ -5463,7 +5480,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="46" t="s">
         <v>78</v>
       </c>
@@ -5482,7 +5499,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="46" t="s">
         <v>79</v>
       </c>
@@ -5497,7 +5514,7 @@
       <c r="K5" s="55"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="46" t="s">
         <v>80</v>
       </c>
@@ -5512,7 +5529,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
@@ -5527,7 +5544,7 @@
       <c r="K7" s="55"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="46" t="s">
         <v>107</v>
       </c>
@@ -5542,7 +5559,7 @@
       <c r="K8" s="55"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="46" t="s">
         <v>152</v>
       </c>
@@ -5557,7 +5574,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="46" t="s">
         <v>153</v>
       </c>
@@ -5572,7 +5589,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="46" t="s">
         <v>154</v>
       </c>
@@ -5587,7 +5604,7 @@
       <c r="K11" s="54"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="46" t="s">
         <v>155</v>
       </c>
@@ -5602,7 +5619,7 @@
       <c r="K12" s="55"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="46" t="s">
         <v>156</v>
       </c>
@@ -5617,7 +5634,7 @@
       <c r="K13" s="55"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="46" t="s">
         <v>157</v>
       </c>
@@ -5632,7 +5649,7 @@
       <c r="K14" s="55"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="46" t="s">
         <v>158</v>
       </c>
@@ -5647,7 +5664,7 @@
       <c r="K15" s="55"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="46" t="s">
         <v>159</v>
       </c>
@@ -5661,7 +5678,7 @@
       <c r="K16" s="55"/>
       <c r="L16" s="56"/>
     </row>
-    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
         <v>203</v>
       </c>
@@ -5676,7 +5693,7 @@
       <c r="K17" s="54"/>
       <c r="L17" s="107"/>
     </row>
-    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
         <v>204</v>
       </c>
@@ -5691,7 +5708,7 @@
       <c r="K18" s="54"/>
       <c r="L18" s="107"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="84" t="s">
         <v>205</v>
       </c>
@@ -5706,7 +5723,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="49"/>
       <c r="C20" s="50">
         <v>42849</v>
@@ -5739,7 +5756,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
         <v>206</v>
       </c>
@@ -5754,7 +5771,7 @@
       <c r="K21" s="55"/>
       <c r="L21" s="56"/>
     </row>
-    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
         <v>207</v>
       </c>
@@ -5769,7 +5786,7 @@
       <c r="K22" s="55"/>
       <c r="L22" s="56"/>
     </row>
-    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
         <v>216</v>
       </c>
@@ -5784,7 +5801,7 @@
       <c r="K23" s="55"/>
       <c r="L23" s="56"/>
     </row>
-    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="46" t="s">
         <v>217</v>
       </c>
@@ -5799,7 +5816,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="46" t="s">
         <v>234</v>
       </c>
@@ -5814,7 +5831,7 @@
       <c r="K25" s="54"/>
       <c r="L25" s="62"/>
     </row>
-    <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="46" t="s">
         <v>235</v>
       </c>
@@ -5829,7 +5846,7 @@
       <c r="K26" s="72"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" s="46" t="s">
         <v>245</v>
       </c>
@@ -5844,7 +5861,7 @@
       <c r="K27" s="54"/>
       <c r="L27" s="62"/>
     </row>
-    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="46"/>
       <c r="C28" s="86"/>
       <c r="D28" s="55"/>
@@ -5857,7 +5874,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="46"/>
       <c r="C29" s="86"/>
       <c r="D29" s="55"/>
@@ -5870,7 +5887,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="46"/>
       <c r="C30" s="86"/>
       <c r="D30" s="55"/>
@@ -5883,7 +5900,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="46"/>
       <c r="C31" s="86"/>
       <c r="D31" s="55"/>
@@ -5896,7 +5913,7 @@
       <c r="K31" s="55"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="46"/>
       <c r="C32" s="86"/>
       <c r="D32" s="55"/>
@@ -5909,7 +5926,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="56"/>
     </row>
-    <row r="33" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B33" s="46"/>
       <c r="C33" s="86"/>
       <c r="D33" s="55"/>
@@ -5922,7 +5939,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="34" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="47"/>
       <c r="C34" s="87"/>
       <c r="D34" s="57"/>
@@ -5935,7 +5952,7 @@
       <c r="K34" s="57"/>
       <c r="L34" s="58"/>
     </row>
-    <row r="35" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="49"/>
       <c r="C35" s="111">
         <v>42859</v>
@@ -5968,7 +5985,7 @@
         <v>42868</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B36" s="110" t="s">
         <v>236</v>
       </c>
@@ -5983,7 +6000,7 @@
       <c r="K36" s="52"/>
       <c r="L36" s="53"/>
     </row>
-    <row r="37" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="108" t="s">
         <v>237</v>
       </c>
@@ -5998,7 +6015,7 @@
       <c r="K37" s="55"/>
       <c r="L37" s="56"/>
     </row>
-    <row r="38" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="46" t="s">
         <v>234</v>
       </c>
@@ -6013,7 +6030,7 @@
       <c r="K38" s="55"/>
       <c r="L38" s="56"/>
     </row>
-    <row r="39" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="108" t="s">
         <v>238</v>
       </c>
@@ -6028,7 +6045,7 @@
       <c r="K39" s="55"/>
       <c r="L39" s="56"/>
     </row>
-    <row r="40" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="40" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B40" s="108" t="s">
         <v>240</v>
       </c>
@@ -6043,7 +6060,7 @@
       <c r="K40" s="55"/>
       <c r="L40" s="56"/>
     </row>
-    <row r="41" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="108" t="s">
         <v>241</v>
       </c>
@@ -6058,7 +6075,7 @@
       <c r="K41" s="55"/>
       <c r="L41" s="56"/>
     </row>
-    <row r="42" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="108" t="s">
         <v>242</v>
       </c>
@@ -6073,7 +6090,7 @@
       <c r="K42" s="55"/>
       <c r="L42" s="56"/>
     </row>
-    <row r="43" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="108" t="s">
         <v>244</v>
       </c>
@@ -6088,7 +6105,7 @@
       <c r="K43" s="55"/>
       <c r="L43" s="56"/>
     </row>
-    <row r="44" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B44" s="108" t="s">
         <v>246</v>
       </c>
@@ -6103,7 +6120,7 @@
       <c r="K44" s="55"/>
       <c r="L44" s="56"/>
     </row>
-    <row r="45" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="108" t="s">
         <v>247</v>
       </c>
@@ -6118,7 +6135,7 @@
       <c r="K45" s="72"/>
       <c r="L45" s="56"/>
     </row>
-    <row r="46" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B46" s="108" t="s">
         <v>248</v>
       </c>
@@ -6133,7 +6150,7 @@
       <c r="K46" s="72"/>
       <c r="L46" s="56"/>
     </row>
-    <row r="47" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B47" s="108" t="s">
         <v>249</v>
       </c>
@@ -6148,7 +6165,7 @@
       <c r="K47" s="72"/>
       <c r="L47" s="56"/>
     </row>
-    <row r="48" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B48" s="113" t="s">
         <v>250</v>
       </c>
@@ -6163,7 +6180,7 @@
       <c r="K48" s="116"/>
       <c r="L48" s="117"/>
     </row>
-    <row r="49" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B49" s="49"/>
       <c r="C49" s="111">
         <v>42867</v>
@@ -6196,14 +6213,14 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B50" s="110" t="s">
         <v>251</v>
       </c>
       <c r="C50" s="102"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
       <c r="G50" s="52"/>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
@@ -6211,14 +6228,14 @@
       <c r="K50" s="52"/>
       <c r="L50" s="53"/>
     </row>
-    <row r="51" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B51" s="46" t="s">
         <v>245</v>
       </c>
       <c r="C51" s="92"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
       <c r="G51" s="55"/>
       <c r="H51" s="55"/>
       <c r="I51" s="55"/>
@@ -6226,14 +6243,14 @@
       <c r="K51" s="55"/>
       <c r="L51" s="56"/>
     </row>
-    <row r="52" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="52" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B52" s="108" t="s">
         <v>255</v>
       </c>
       <c r="C52" s="92"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
       <c r="G52" s="55"/>
       <c r="H52" s="55"/>
       <c r="I52" s="55"/>
@@ -6241,7 +6258,7 @@
       <c r="K52" s="55"/>
       <c r="L52" s="56"/>
     </row>
-    <row r="53" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B53" s="108" t="s">
         <v>256</v>
       </c>
@@ -6256,7 +6273,7 @@
       <c r="K53" s="55"/>
       <c r="L53" s="56"/>
     </row>
-    <row r="54" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B54" s="108" t="s">
         <v>253</v>
       </c>
@@ -6271,7 +6288,7 @@
       <c r="K54" s="55"/>
       <c r="L54" s="56"/>
     </row>
-    <row r="55" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B55" s="108" t="s">
         <v>254</v>
       </c>
@@ -6286,7 +6303,7 @@
       <c r="K55" s="55"/>
       <c r="L55" s="56"/>
     </row>
-    <row r="56" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B56" s="108" t="s">
         <v>252</v>
       </c>
@@ -6301,12 +6318,14 @@
       <c r="K56" s="55"/>
       <c r="L56" s="56"/>
     </row>
-    <row r="57" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B57" s="108"/>
+    <row r="57" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B57" s="108" t="s">
+        <v>257</v>
+      </c>
       <c r="C57" s="93"/>
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
+      <c r="F57" s="62"/>
       <c r="G57" s="55"/>
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
@@ -6314,12 +6333,14 @@
       <c r="K57" s="55"/>
       <c r="L57" s="56"/>
     </row>
-    <row r="58" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B58" s="108"/>
+    <row r="58" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B58" s="108" t="s">
+        <v>258</v>
+      </c>
       <c r="C58" s="93"/>
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
+      <c r="F58" s="62"/>
       <c r="G58" s="55"/>
       <c r="H58" s="55"/>
       <c r="I58" s="55"/>
@@ -6327,7 +6348,7 @@
       <c r="K58" s="55"/>
       <c r="L58" s="56"/>
     </row>
-    <row r="59" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B59" s="108"/>
       <c r="C59" s="93"/>
       <c r="D59" s="55"/>
@@ -6340,22 +6361,22 @@
       <c r="K59" s="55"/>
       <c r="L59" s="56"/>
     </row>
-    <row r="60" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="60" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B60" s="108"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="137"/>
-      <c r="K60" s="137"/>
-      <c r="L60" s="138"/>
-    </row>
-    <row r="61" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C60" s="120"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="121"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="121"/>
+      <c r="K60" s="121"/>
+      <c r="L60" s="122"/>
+    </row>
+    <row r="61" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B61" s="108"/>
-      <c r="C61" s="134"/>
+      <c r="C61" s="118"/>
       <c r="D61" s="106"/>
       <c r="E61" s="106"/>
       <c r="F61" s="106"/>
@@ -6364,9 +6385,9 @@
       <c r="I61" s="106"/>
       <c r="J61" s="106"/>
       <c r="K61" s="106"/>
-      <c r="L61" s="135"/>
-    </row>
-    <row r="62" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="L61" s="119"/>
+    </row>
+    <row r="62" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B62" s="108"/>
       <c r="C62" s="93"/>
       <c r="D62" s="55"/>
@@ -6379,7 +6400,7 @@
       <c r="K62" s="55"/>
       <c r="L62" s="56"/>
     </row>
-    <row r="63" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="63" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B63" s="109"/>
       <c r="C63" s="97"/>
       <c r="D63" s="57"/>
@@ -6392,7 +6413,7 @@
       <c r="K63" s="57"/>
       <c r="L63" s="58"/>
     </row>
-    <row r="64" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="64" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6408,17 +6429,17 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="36.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="49"/>
       <c r="C2" s="94">
         <v>42849</v>
@@ -6455,7 +6476,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="85" t="s">
         <v>218</v>
       </c>
@@ -6474,7 +6495,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="46" t="s">
         <v>220</v>
       </c>
@@ -6493,7 +6514,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="46" t="s">
         <v>155</v>
       </c>
@@ -6508,7 +6529,7 @@
       <c r="K5" s="55"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="46" t="s">
         <v>204</v>
       </c>
@@ -6523,7 +6544,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="46"/>
       <c r="C7" s="93"/>
       <c r="D7" s="55"/>
@@ -6536,7 +6557,7 @@
       <c r="K7" s="55"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="46" t="s">
         <v>231</v>
       </c>
@@ -6551,7 +6572,7 @@
       <c r="K8" s="99"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="46"/>
       <c r="C9" s="93"/>
       <c r="D9" s="55"/>
@@ -6564,7 +6585,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="46"/>
       <c r="C10" s="93"/>
       <c r="D10" s="55"/>
@@ -6577,7 +6598,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="46"/>
       <c r="C11" s="93"/>
       <c r="D11" s="55"/>
@@ -6590,7 +6611,7 @@
       <c r="K11" s="55"/>
       <c r="L11" s="56"/>
     </row>
-    <row r="12" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="46" t="s">
         <v>221</v>
       </c>
@@ -6605,7 +6626,7 @@
       <c r="K12" s="99"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="46" t="s">
         <v>222</v>
       </c>
@@ -6620,7 +6641,7 @@
       <c r="K13" s="99"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="46" t="s">
         <v>223</v>
       </c>
@@ -6635,7 +6656,7 @@
       <c r="K14" s="99"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="46" t="s">
         <v>224</v>
       </c>
@@ -6650,7 +6671,7 @@
       <c r="K15" s="99"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="46" t="s">
         <v>225</v>
       </c>
@@ -6665,7 +6686,7 @@
       <c r="K16" s="99"/>
       <c r="L16" s="56"/>
     </row>
-    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
         <v>226</v>
       </c>
@@ -6680,7 +6701,7 @@
       <c r="K17" s="99"/>
       <c r="L17" s="56"/>
     </row>
-    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
         <v>227</v>
       </c>
@@ -6695,7 +6716,7 @@
       <c r="K18" s="99"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="84"/>
       <c r="C19" s="97"/>
       <c r="D19" s="57"/>
@@ -6708,7 +6729,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="49"/>
       <c r="C20" s="94">
         <v>42849</v>
@@ -6741,7 +6762,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
         <v>228</v>
       </c>
@@ -6756,7 +6777,7 @@
       <c r="K21" s="81"/>
       <c r="L21" s="101"/>
     </row>
-    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
         <v>229</v>
       </c>
@@ -6771,7 +6792,7 @@
       <c r="K22" s="99"/>
       <c r="L22" s="100"/>
     </row>
-    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
         <v>230</v>
       </c>
@@ -6786,7 +6807,7 @@
       <c r="K23" s="99"/>
       <c r="L23" s="100"/>
     </row>
-    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="46"/>
       <c r="C24" s="93"/>
       <c r="D24" s="55"/>
@@ -6799,7 +6820,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="46"/>
       <c r="C25" s="93"/>
       <c r="D25" s="55"/>
@@ -6812,7 +6833,7 @@
       <c r="K25" s="55"/>
       <c r="L25" s="56"/>
     </row>
-    <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="46"/>
       <c r="C26" s="93"/>
       <c r="D26" s="55"/>
@@ -6825,7 +6846,7 @@
       <c r="K26" s="55"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" s="46"/>
       <c r="C27" s="93"/>
       <c r="D27" s="55"/>
@@ -6838,7 +6859,7 @@
       <c r="K27" s="55"/>
       <c r="L27" s="56"/>
     </row>
-    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="46"/>
       <c r="C28" s="93"/>
       <c r="D28" s="55"/>
@@ -6851,7 +6872,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="46"/>
       <c r="C29" s="93"/>
       <c r="D29" s="55"/>
@@ -6864,7 +6885,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="46"/>
       <c r="C30" s="93"/>
       <c r="D30" s="55"/>
@@ -6877,7 +6898,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="46"/>
       <c r="C31" s="93"/>
       <c r="D31" s="55"/>
@@ -6890,7 +6911,7 @@
       <c r="K31" s="55"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="46"/>
       <c r="C32" s="93"/>
       <c r="D32" s="55"/>
@@ -6903,7 +6924,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="56"/>
     </row>
-    <row r="33" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B33" s="46"/>
       <c r="C33" s="93"/>
       <c r="D33" s="55"/>
@@ -6916,7 +6937,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="34" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="47"/>
       <c r="C34" s="97"/>
       <c r="D34" s="57"/>
@@ -6929,7 +6950,7 @@
       <c r="K34" s="57"/>
       <c r="L34" s="58"/>
     </row>
-    <row r="35" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="35" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="262">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1968,6 +1968,33 @@
     <t>↑の対応(エネミー)[アベ]</t>
     <rPh sb="2" eb="4">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラちょっと遠くへ[アベ]</t>
+    <rPh sb="7" eb="8">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉撃つエネミー作成[アベ]</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミサイル作成[アベ]</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2082,7 +2109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -2908,77 +2935,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2994,7 +2950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3347,21 +3303,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3750,11 +3691,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -4313,19 +4254,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="123"/>
+      <c r="B1" s="118"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="125"/>
+      <c r="G1" s="120"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5054,10 +4995,10 @@
       <c r="B1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="121" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="126"/>
+      <c r="E1" s="121"/>
     </row>
     <row r="2" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5321,31 +5262,31 @@
     <row r="14" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="131" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="138"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
     </row>
     <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="122" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="128"/>
-      <c r="E16" s="129"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
@@ -5355,11 +5296,11 @@
       <c r="B18" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="125" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
       <c r="J18" s="88"/>
@@ -5369,11 +5310,11 @@
       <c r="B19" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="135"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="130"/>
       <c r="H19" s="70"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
@@ -5410,8 +5351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6221,8 +6162,8 @@
       <c r="D50" s="51"/>
       <c r="E50" s="51"/>
       <c r="F50" s="51"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52"/>
       <c r="K50" s="52"/>
@@ -6236,8 +6177,8 @@
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
       <c r="I51" s="55"/>
       <c r="J51" s="55"/>
       <c r="K51" s="55"/>
@@ -6251,8 +6192,8 @@
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
       <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
       <c r="I52" s="55"/>
       <c r="J52" s="55"/>
       <c r="K52" s="55"/>
@@ -6325,7 +6266,7 @@
       <c r="C57" s="93"/>
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
-      <c r="F57" s="62"/>
+      <c r="F57" s="72"/>
       <c r="G57" s="55"/>
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
@@ -6340,7 +6281,7 @@
       <c r="C58" s="93"/>
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
-      <c r="F58" s="62"/>
+      <c r="F58" s="72"/>
       <c r="G58" s="55"/>
       <c r="H58" s="55"/>
       <c r="I58" s="55"/>
@@ -6349,11 +6290,13 @@
       <c r="L58" s="56"/>
     </row>
     <row r="59" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B59" s="108"/>
+      <c r="B59" s="108" t="s">
+        <v>259</v>
+      </c>
       <c r="C59" s="93"/>
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
+      <c r="F59" s="72"/>
       <c r="G59" s="55"/>
       <c r="H59" s="55"/>
       <c r="I59" s="55"/>
@@ -6362,30 +6305,34 @@
       <c r="L59" s="56"/>
     </row>
     <row r="60" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="108"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="121"/>
-      <c r="E60" s="121"/>
-      <c r="F60" s="121"/>
-      <c r="G60" s="121"/>
-      <c r="H60" s="121"/>
-      <c r="I60" s="121"/>
-      <c r="J60" s="121"/>
-      <c r="K60" s="121"/>
-      <c r="L60" s="122"/>
+      <c r="B60" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" s="93"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="56"/>
     </row>
     <row r="61" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B61" s="108"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="106"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="106"/>
-      <c r="K61" s="106"/>
-      <c r="L61" s="119"/>
+      <c r="B61" s="108" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" s="93"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="56"/>
     </row>
     <row r="62" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B62" s="108"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeta1\Desktop\てお\ソースツリーo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takayosi\Documents\A_Team2017Zenki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="3800" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="3803" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -1422,10 +1422,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>４～８</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0.5～１</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1996,6 +1992,10 @@
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2~4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3676,21 +3676,21 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="19.58203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.4375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.8125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.8125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.4375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>42898</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A2" s="70"/>
       <c r="G2" s="34" t="s">
         <v>32</v>
@@ -3714,7 +3714,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A3" s="71"/>
       <c r="B3" s="63"/>
       <c r="C3" s="61" t="s">
@@ -3739,7 +3739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B4" s="68" t="s">
         <v>108</v>
       </c>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B5" s="60" t="s">
         <v>112</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B6" s="60" t="s">
         <v>113</v>
       </c>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B7" s="60" t="s">
         <v>114</v>
       </c>
@@ -3809,7 +3809,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B8" s="60" t="s">
         <v>115</v>
       </c>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B9" s="60" t="s">
         <v>116</v>
       </c>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B10" s="60" t="s">
         <v>117</v>
       </c>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B11" s="60"/>
       <c r="C11" s="65"/>
       <c r="D11" s="36"/>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B12" s="60" t="s">
         <v>121</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B13" s="60" t="s">
         <v>127</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="I13" s="36"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B14" s="60" t="s">
         <v>122</v>
       </c>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B15" s="60" t="s">
         <v>124</v>
       </c>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B16" s="60"/>
       <c r="C16" s="65"/>
       <c r="D16" s="36"/>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B17" s="60" t="s">
         <v>126</v>
       </c>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B18" s="60" t="s">
         <v>127</v>
       </c>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B19" s="60" t="s">
         <v>130</v>
       </c>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B20" s="60" t="s">
         <v>132</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B21" s="60" t="s">
         <v>134</v>
       </c>
@@ -4047,7 +4047,7 @@
       <c r="I21" s="36"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B22" s="60" t="s">
         <v>124</v>
       </c>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B23" s="60"/>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B24" s="60" t="s">
         <v>137</v>
       </c>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B25" s="60" t="s">
         <v>127</v>
       </c>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B26" s="60" t="s">
         <v>130</v>
       </c>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B27" s="60" t="s">
         <v>140</v>
       </c>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B28" s="60" t="s">
         <v>141</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="I28" s="24"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B29" s="60" t="s">
         <v>143</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="I29" s="25"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B30" s="60" t="s">
         <v>146</v>
       </c>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="E30" s="30"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B31" s="60" t="s">
         <v>143</v>
       </c>
@@ -4203,31 +4203,31 @@
       </c>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B32" s="60"/>
       <c r="C32" s="66"/>
       <c r="D32" s="24"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B33" s="60"/>
       <c r="C33" s="66"/>
       <c r="D33" s="24"/>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B34" s="60"/>
       <c r="C34" s="66"/>
       <c r="D34" s="24"/>
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B35" s="69"/>
       <c r="C35" s="67"/>
       <c r="D35" s="25"/>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="2:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" spans="2:5" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -4246,14 +4246,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="22.9" x14ac:dyDescent="0.7">
       <c r="A1" s="118" t="s">
         <v>1</v>
       </c>
@@ -4268,8 +4268,8 @@
       </c>
       <c r="G1" s="120"/>
     </row>
-    <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="3" spans="1:13" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -4288,7 +4288,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4307,7 +4307,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -4324,7 +4324,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -4341,7 +4341,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -4356,7 +4356,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -4371,7 +4371,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -4386,7 +4386,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -4401,7 +4401,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="12"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -4416,7 +4416,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -4435,7 +4435,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -4452,7 +4452,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
@@ -4469,7 +4469,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
@@ -4486,7 +4486,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
         <v>7</v>
@@ -4503,7 +4503,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
         <v>14</v>
@@ -4520,7 +4520,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4"/>
@@ -4535,7 +4535,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A19" s="10"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
@@ -4550,7 +4550,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="10"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -4565,7 +4565,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -4584,7 +4584,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A22" s="10"/>
       <c r="B22" s="8" t="s">
         <v>17</v>
@@ -4601,7 +4601,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A23" s="10"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
@@ -4618,7 +4618,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4"/>
@@ -4633,7 +4633,7 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A25" s="10"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -4648,7 +4648,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A26" s="10" t="s">
         <v>19</v>
       </c>
@@ -4667,36 +4667,36 @@
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A27" s="10"/>
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A28" s="10"/>
       <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A29" s="10"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A30" s="10"/>
       <c r="B30" s="8"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A32" s="10" t="s">
         <v>26</v>
       </c>
@@ -4705,93 +4705,93 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A33" s="10"/>
       <c r="B33" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A34" s="10"/>
       <c r="B34" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A35" s="10"/>
       <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A36" s="10"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A37" s="10"/>
       <c r="B37" s="8"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A38" s="10"/>
       <c r="B38" s="8"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A39" s="10"/>
       <c r="B39" s="8"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A40" s="10"/>
       <c r="B40" s="8"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A41" s="10"/>
       <c r="B41" s="8"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A42" s="10"/>
       <c r="B42" s="8"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A43" s="10"/>
       <c r="B43" s="8"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A44" s="10"/>
       <c r="B44" s="8"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A45" s="10"/>
       <c r="B45" s="8"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A46" s="10"/>
       <c r="B46" s="8"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A47" s="10"/>
       <c r="B47" s="8"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A48" s="12"/>
       <c r="B48" s="9"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
@@ -4810,23 +4810,23 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="108.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:8" ht="22.9" x14ac:dyDescent="0.7">
       <c r="B1" s="43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="2:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="3" spans="2:8" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B3" s="44" t="s">
         <v>72</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B4" s="28" t="s">
         <v>82</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>86</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>91</v>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B5" s="31" t="s">
         <v>83</v>
       </c>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B6" s="31" t="s">
         <v>84</v>
       </c>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B7" s="31" t="s">
         <v>85</v>
       </c>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B8" s="31"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -4942,7 +4942,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B9" s="31" t="s">
         <v>172</v>
       </c>
@@ -4953,9 +4953,9 @@
       <c r="G9" s="24"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -4964,7 +4964,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="2:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4976,22 +4976,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:11" ht="22.9" x14ac:dyDescent="0.7">
       <c r="B1" s="43" t="s">
         <v>103</v>
       </c>
@@ -5000,8 +5000,8 @@
       </c>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="3" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B3" s="63"/>
       <c r="C3" s="27" t="s">
         <v>105</v>
@@ -5028,10 +5028,10 @@
         <v>173</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B4" s="59" t="s">
         <v>82</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>177</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>160</v>
@@ -5063,12 +5063,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B5" s="60" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>161</v>
@@ -5089,13 +5089,13 @@
         <v>168</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B6" s="60" t="s">
         <v>84</v>
       </c>
@@ -5121,18 +5121,18 @@
         <v>168</v>
       </c>
       <c r="J6" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B7" s="69" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="79">
         <v>1</v>
@@ -5147,7 +5147,7 @@
         <v>160</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I7" s="75" t="s">
         <v>168</v>
@@ -5159,32 +5159,32 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="10" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="63"/>
       <c r="C10" s="61" t="s">
         <v>176</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>194</v>
-      </c>
       <c r="H10" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B11" s="68" t="s">
         <v>172</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>168</v>
       </c>
       <c r="G11" s="80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H11" s="26">
         <v>10</v>
@@ -5209,7 +5209,7 @@
       <c r="I11" s="80"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B12" s="60" t="s">
         <v>170</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="24">
         <v>5</v>
@@ -5234,7 +5234,7 @@
       <c r="I12" s="74"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="69" t="s">
         <v>175</v>
       </c>
@@ -5259,31 +5259,31 @@
       <c r="I13" s="25"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="15" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B15" s="49"/>
       <c r="C15" s="131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15" s="132"/>
       <c r="E15" s="133"/>
     </row>
-    <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B16" s="68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C16" s="122" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16" s="123"/>
       <c r="E16" s="124"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B17" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="125" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="126"/>
       <c r="E17" s="127"/>
@@ -5292,12 +5292,12 @@
       <c r="J17" s="70"/>
       <c r="K17" s="70"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B18" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="126"/>
       <c r="E18" s="127"/>
@@ -5306,12 +5306,12 @@
       <c r="J18" s="88"/>
       <c r="K18" s="88"/>
     </row>
-    <row r="19" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B19" s="69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" s="129"/>
       <c r="E19" s="130"/>
@@ -5320,13 +5320,13 @@
       <c r="J19" s="88"/>
       <c r="K19" s="70"/>
     </row>
-    <row r="20" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="H20" s="88"/>
       <c r="I20" s="88"/>
       <c r="J20" s="88"/>
       <c r="K20" s="70"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.7">
       <c r="H21" s="70"/>
       <c r="I21" s="88"/>
       <c r="J21" s="88"/>
@@ -5351,21 +5351,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="39.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.4375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B1" s="43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B2" s="49"/>
       <c r="C2" s="50">
         <v>42843</v>
@@ -5399,10 +5399,10 @@
       </c>
       <c r="N2" s="62"/>
       <c r="O2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B3" s="85" t="s">
         <v>77</v>
       </c>
@@ -5418,10 +5418,10 @@
       <c r="L3" s="53"/>
       <c r="N3" s="83"/>
       <c r="O3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B4" s="46" t="s">
         <v>78</v>
       </c>
@@ -5437,10 +5437,10 @@
       <c r="L4" s="56"/>
       <c r="N4" s="82"/>
       <c r="O4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="46" t="s">
         <v>79</v>
       </c>
@@ -5455,7 +5455,7 @@
       <c r="K5" s="55"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B6" s="46" t="s">
         <v>80</v>
       </c>
@@ -5470,7 +5470,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="K7" s="55"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B8" s="46" t="s">
         <v>107</v>
       </c>
@@ -5500,7 +5500,7 @@
       <c r="K8" s="55"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B9" s="46" t="s">
         <v>152</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="46" t="s">
         <v>153</v>
       </c>
@@ -5530,7 +5530,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B11" s="46" t="s">
         <v>154</v>
       </c>
@@ -5545,7 +5545,7 @@
       <c r="K11" s="54"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B12" s="46" t="s">
         <v>155</v>
       </c>
@@ -5560,7 +5560,7 @@
       <c r="K12" s="55"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="46" t="s">
         <v>156</v>
       </c>
@@ -5575,7 +5575,7 @@
       <c r="K13" s="55"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B14" s="46" t="s">
         <v>157</v>
       </c>
@@ -5590,7 +5590,7 @@
       <c r="K14" s="55"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B15" s="46" t="s">
         <v>158</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="K15" s="55"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B16" s="46" t="s">
         <v>159</v>
       </c>
@@ -5619,9 +5619,9 @@
       <c r="K16" s="55"/>
       <c r="L16" s="56"/>
     </row>
-    <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B17" s="46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="93"/>
       <c r="D17" s="55"/>
@@ -5634,9 +5634,9 @@
       <c r="K17" s="54"/>
       <c r="L17" s="107"/>
     </row>
-    <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B18" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="93"/>
       <c r="D18" s="55"/>
@@ -5649,9 +5649,9 @@
       <c r="K18" s="54"/>
       <c r="L18" s="107"/>
     </row>
-    <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B19" s="84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="57"/>
@@ -5664,7 +5664,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B20" s="49"/>
       <c r="C20" s="50">
         <v>42849</v>
@@ -5697,9 +5697,9 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B21" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21" s="91"/>
       <c r="D21" s="52"/>
@@ -5712,9 +5712,9 @@
       <c r="K21" s="55"/>
       <c r="L21" s="56"/>
     </row>
-    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B22" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C22" s="92"/>
       <c r="D22" s="72"/>
@@ -5727,9 +5727,9 @@
       <c r="K22" s="55"/>
       <c r="L22" s="56"/>
     </row>
-    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B23" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23" s="92"/>
       <c r="D23" s="72"/>
@@ -5742,9 +5742,9 @@
       <c r="K23" s="55"/>
       <c r="L23" s="56"/>
     </row>
-    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B24" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24" s="93"/>
       <c r="D24" s="54"/>
@@ -5757,9 +5757,9 @@
       <c r="K24" s="55"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B25" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C25" s="93"/>
       <c r="D25" s="55"/>
@@ -5772,9 +5772,9 @@
       <c r="K25" s="54"/>
       <c r="L25" s="62"/>
     </row>
-    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B26" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C26" s="93"/>
       <c r="D26" s="55"/>
@@ -5787,9 +5787,9 @@
       <c r="K26" s="72"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B27" s="46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="55"/>
@@ -5802,7 +5802,7 @@
       <c r="K27" s="54"/>
       <c r="L27" s="62"/>
     </row>
-    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="46"/>
       <c r="C28" s="86"/>
       <c r="D28" s="55"/>
@@ -5815,7 +5815,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B29" s="46"/>
       <c r="C29" s="86"/>
       <c r="D29" s="55"/>
@@ -5828,7 +5828,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B30" s="46"/>
       <c r="C30" s="86"/>
       <c r="D30" s="55"/>
@@ -5841,7 +5841,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B31" s="46"/>
       <c r="C31" s="86"/>
       <c r="D31" s="55"/>
@@ -5854,7 +5854,7 @@
       <c r="K31" s="55"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B32" s="46"/>
       <c r="C32" s="86"/>
       <c r="D32" s="55"/>
@@ -5867,7 +5867,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="56"/>
     </row>
-    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B33" s="46"/>
       <c r="C33" s="86"/>
       <c r="D33" s="55"/>
@@ -5880,7 +5880,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B34" s="47"/>
       <c r="C34" s="87"/>
       <c r="D34" s="57"/>
@@ -5893,7 +5893,7 @@
       <c r="K34" s="57"/>
       <c r="L34" s="58"/>
     </row>
-    <row r="35" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B35" s="49"/>
       <c r="C35" s="111">
         <v>42859</v>
@@ -5926,9 +5926,9 @@
         <v>42868</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B36" s="110" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C36" s="91"/>
       <c r="D36" s="52"/>
@@ -5941,9 +5941,9 @@
       <c r="K36" s="52"/>
       <c r="L36" s="53"/>
     </row>
-    <row r="37" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B37" s="108" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C37" s="112"/>
       <c r="D37" s="55"/>
@@ -5956,9 +5956,9 @@
       <c r="K37" s="55"/>
       <c r="L37" s="56"/>
     </row>
-    <row r="38" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B38" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C38" s="112"/>
       <c r="D38" s="55"/>
@@ -5971,9 +5971,9 @@
       <c r="K38" s="55"/>
       <c r="L38" s="56"/>
     </row>
-    <row r="39" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B39" s="108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C39" s="93"/>
       <c r="D39" s="104"/>
@@ -5986,9 +5986,9 @@
       <c r="K39" s="55"/>
       <c r="L39" s="56"/>
     </row>
-    <row r="40" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B40" s="108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C40" s="93"/>
       <c r="D40" s="55"/>
@@ -6001,9 +6001,9 @@
       <c r="K40" s="55"/>
       <c r="L40" s="56"/>
     </row>
-    <row r="41" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B41" s="108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C41" s="93"/>
       <c r="D41" s="54"/>
@@ -6016,9 +6016,9 @@
       <c r="K41" s="55"/>
       <c r="L41" s="56"/>
     </row>
-    <row r="42" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B42" s="108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="55"/>
@@ -6031,9 +6031,9 @@
       <c r="K42" s="55"/>
       <c r="L42" s="56"/>
     </row>
-    <row r="43" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B43" s="108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C43" s="93"/>
       <c r="D43" s="55"/>
@@ -6046,9 +6046,9 @@
       <c r="K43" s="55"/>
       <c r="L43" s="56"/>
     </row>
-    <row r="44" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B44" s="108" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C44" s="92"/>
       <c r="D44" s="54"/>
@@ -6061,9 +6061,9 @@
       <c r="K44" s="55"/>
       <c r="L44" s="56"/>
     </row>
-    <row r="45" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B45" s="108" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C45" s="93"/>
       <c r="D45" s="55"/>
@@ -6076,9 +6076,9 @@
       <c r="K45" s="72"/>
       <c r="L45" s="56"/>
     </row>
-    <row r="46" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B46" s="108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C46" s="93"/>
       <c r="D46" s="55"/>
@@ -6091,9 +6091,9 @@
       <c r="K46" s="72"/>
       <c r="L46" s="56"/>
     </row>
-    <row r="47" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B47" s="108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C47" s="93"/>
       <c r="D47" s="55"/>
@@ -6106,9 +6106,9 @@
       <c r="K47" s="72"/>
       <c r="L47" s="56"/>
     </row>
-    <row r="48" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B48" s="113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C48" s="114"/>
       <c r="D48" s="115"/>
@@ -6121,7 +6121,7 @@
       <c r="K48" s="116"/>
       <c r="L48" s="117"/>
     </row>
-    <row r="49" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B49" s="49"/>
       <c r="C49" s="111">
         <v>42867</v>
@@ -6154,9 +6154,9 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B50" s="110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C50" s="102"/>
       <c r="D50" s="51"/>
@@ -6169,9 +6169,9 @@
       <c r="K50" s="52"/>
       <c r="L50" s="53"/>
     </row>
-    <row r="51" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B51" s="46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C51" s="92"/>
       <c r="D51" s="54"/>
@@ -6184,9 +6184,9 @@
       <c r="K51" s="55"/>
       <c r="L51" s="56"/>
     </row>
-    <row r="52" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B52" s="108" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C52" s="92"/>
       <c r="D52" s="54"/>
@@ -6199,9 +6199,9 @@
       <c r="K52" s="55"/>
       <c r="L52" s="56"/>
     </row>
-    <row r="53" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B53" s="108" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C53" s="92"/>
       <c r="D53" s="54"/>
@@ -6214,9 +6214,9 @@
       <c r="K53" s="55"/>
       <c r="L53" s="56"/>
     </row>
-    <row r="54" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B54" s="108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C54" s="92"/>
       <c r="D54" s="54"/>
@@ -6229,9 +6229,9 @@
       <c r="K54" s="55"/>
       <c r="L54" s="56"/>
     </row>
-    <row r="55" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B55" s="108" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C55" s="92"/>
       <c r="D55" s="54"/>
@@ -6244,9 +6244,9 @@
       <c r="K55" s="55"/>
       <c r="L55" s="56"/>
     </row>
-    <row r="56" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B56" s="108" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C56" s="92"/>
       <c r="D56" s="54"/>
@@ -6259,9 +6259,9 @@
       <c r="K56" s="55"/>
       <c r="L56" s="56"/>
     </row>
-    <row r="57" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B57" s="108" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C57" s="93"/>
       <c r="D57" s="55"/>
@@ -6274,9 +6274,9 @@
       <c r="K57" s="55"/>
       <c r="L57" s="56"/>
     </row>
-    <row r="58" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B58" s="108" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C58" s="93"/>
       <c r="D58" s="55"/>
@@ -6289,9 +6289,9 @@
       <c r="K58" s="55"/>
       <c r="L58" s="56"/>
     </row>
-    <row r="59" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B59" s="108" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C59" s="93"/>
       <c r="D59" s="55"/>
@@ -6304,9 +6304,9 @@
       <c r="K59" s="55"/>
       <c r="L59" s="56"/>
     </row>
-    <row r="60" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B60" s="108" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C60" s="93"/>
       <c r="D60" s="55"/>
@@ -6319,9 +6319,9 @@
       <c r="K60" s="55"/>
       <c r="L60" s="56"/>
     </row>
-    <row r="61" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B61" s="108" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C61" s="93"/>
       <c r="D61" s="55"/>
@@ -6334,7 +6334,7 @@
       <c r="K61" s="55"/>
       <c r="L61" s="56"/>
     </row>
-    <row r="62" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B62" s="108"/>
       <c r="C62" s="93"/>
       <c r="D62" s="55"/>
@@ -6347,7 +6347,7 @@
       <c r="K62" s="55"/>
       <c r="L62" s="56"/>
     </row>
-    <row r="63" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B63" s="109"/>
       <c r="C63" s="97"/>
       <c r="D63" s="57"/>
@@ -6360,7 +6360,7 @@
       <c r="K63" s="57"/>
       <c r="L63" s="58"/>
     </row>
-    <row r="64" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6376,17 +6376,17 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B1" s="43" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B2" s="49"/>
       <c r="C2" s="94">
         <v>42849</v>
@@ -6420,12 +6420,12 @@
       </c>
       <c r="N2" s="62"/>
       <c r="O2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B3" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="62"/>
@@ -6439,12 +6439,12 @@
       <c r="L3" s="53"/>
       <c r="N3" s="83"/>
       <c r="O3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B4" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="93"/>
       <c r="D4" s="55"/>
@@ -6458,10 +6458,10 @@
       <c r="L4" s="56"/>
       <c r="N4" s="82"/>
       <c r="O4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="46" t="s">
         <v>155</v>
       </c>
@@ -6476,9 +6476,9 @@
       <c r="K5" s="55"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B6" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="92"/>
       <c r="D6" s="54"/>
@@ -6491,7 +6491,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B7" s="46"/>
       <c r="C7" s="93"/>
       <c r="D7" s="55"/>
@@ -6504,9 +6504,9 @@
       <c r="K7" s="55"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B8" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="93"/>
       <c r="D8" s="55"/>
@@ -6519,7 +6519,7 @@
       <c r="K8" s="99"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B9" s="46"/>
       <c r="C9" s="93"/>
       <c r="D9" s="55"/>
@@ -6532,7 +6532,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="46"/>
       <c r="C10" s="93"/>
       <c r="D10" s="55"/>
@@ -6545,7 +6545,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B11" s="46"/>
       <c r="C11" s="93"/>
       <c r="D11" s="55"/>
@@ -6558,9 +6558,9 @@
       <c r="K11" s="55"/>
       <c r="L11" s="56"/>
     </row>
-    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B12" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="93"/>
       <c r="D12" s="55"/>
@@ -6573,9 +6573,9 @@
       <c r="K12" s="99"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="93"/>
       <c r="D13" s="55"/>
@@ -6588,9 +6588,9 @@
       <c r="K13" s="99"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B14" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C14" s="93"/>
       <c r="D14" s="55"/>
@@ -6603,9 +6603,9 @@
       <c r="K14" s="99"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B15" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C15" s="93"/>
       <c r="D15" s="55"/>
@@ -6618,9 +6618,9 @@
       <c r="K15" s="99"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B16" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" s="93"/>
       <c r="D16" s="55"/>
@@ -6633,9 +6633,9 @@
       <c r="K16" s="99"/>
       <c r="L16" s="56"/>
     </row>
-    <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B17" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="93"/>
       <c r="D17" s="55"/>
@@ -6648,9 +6648,9 @@
       <c r="K17" s="99"/>
       <c r="L17" s="56"/>
     </row>
-    <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B18" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="93"/>
       <c r="D18" s="55"/>
@@ -6663,7 +6663,7 @@
       <c r="K18" s="99"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B19" s="84"/>
       <c r="C19" s="97"/>
       <c r="D19" s="57"/>
@@ -6676,7 +6676,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B20" s="49"/>
       <c r="C20" s="94">
         <v>42849</v>
@@ -6709,9 +6709,9 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B21" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="96"/>
       <c r="D21" s="52"/>
@@ -6724,9 +6724,9 @@
       <c r="K21" s="81"/>
       <c r="L21" s="101"/>
     </row>
-    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B22" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C22" s="93"/>
       <c r="D22" s="55"/>
@@ -6739,9 +6739,9 @@
       <c r="K22" s="99"/>
       <c r="L22" s="100"/>
     </row>
-    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B23" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C23" s="93"/>
       <c r="D23" s="55"/>
@@ -6754,7 +6754,7 @@
       <c r="K23" s="99"/>
       <c r="L23" s="100"/>
     </row>
-    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B24" s="46"/>
       <c r="C24" s="93"/>
       <c r="D24" s="55"/>
@@ -6767,7 +6767,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B25" s="46"/>
       <c r="C25" s="93"/>
       <c r="D25" s="55"/>
@@ -6780,7 +6780,7 @@
       <c r="K25" s="55"/>
       <c r="L25" s="56"/>
     </row>
-    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B26" s="46"/>
       <c r="C26" s="93"/>
       <c r="D26" s="55"/>
@@ -6793,7 +6793,7 @@
       <c r="K26" s="55"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B27" s="46"/>
       <c r="C27" s="93"/>
       <c r="D27" s="55"/>
@@ -6806,7 +6806,7 @@
       <c r="K27" s="55"/>
       <c r="L27" s="56"/>
     </row>
-    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="46"/>
       <c r="C28" s="93"/>
       <c r="D28" s="55"/>
@@ -6819,7 +6819,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B29" s="46"/>
       <c r="C29" s="93"/>
       <c r="D29" s="55"/>
@@ -6832,7 +6832,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B30" s="46"/>
       <c r="C30" s="93"/>
       <c r="D30" s="55"/>
@@ -6845,7 +6845,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B31" s="46"/>
       <c r="C31" s="93"/>
       <c r="D31" s="55"/>
@@ -6858,7 +6858,7 @@
       <c r="K31" s="55"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B32" s="46"/>
       <c r="C32" s="93"/>
       <c r="D32" s="55"/>
@@ -6871,7 +6871,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="56"/>
     </row>
-    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B33" s="46"/>
       <c r="C33" s="93"/>
       <c r="D33" s="55"/>
@@ -6884,7 +6884,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B34" s="47"/>
       <c r="C34" s="97"/>
       <c r="D34" s="57"/>
@@ -6897,7 +6897,7 @@
       <c r="K34" s="57"/>
       <c r="L34" s="58"/>
     </row>
-    <row r="35" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takayosi\Documents\A_Team2017Zenki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeta1\Desktop\てお\ソースツリーo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="3803" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="3800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="264">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -1996,6 +1996,26 @@
   </si>
   <si>
     <t>2~4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> あたり判定物理[アベ]</t>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV読み込み2[イズミ]</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2950,7 +2970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3352,6 +3372,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3676,21 +3699,21 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="19.5625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.4375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.58203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.8125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.4375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.8125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.4375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3729,7 @@
         <v>42898</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="70"/>
       <c r="G2" s="34" t="s">
         <v>32</v>
@@ -3714,7 +3737,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:10" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="71"/>
       <c r="B3" s="63"/>
       <c r="C3" s="61" t="s">
@@ -3739,7 +3762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="68" t="s">
         <v>108</v>
       </c>
@@ -3757,7 +3780,7 @@
       </c>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="60" t="s">
         <v>112</v>
       </c>
@@ -3777,7 +3800,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="60" t="s">
         <v>113</v>
       </c>
@@ -3795,7 +3818,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="60" t="s">
         <v>114</v>
       </c>
@@ -3809,7 +3832,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="60" t="s">
         <v>115</v>
       </c>
@@ -3829,7 +3852,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="60" t="s">
         <v>116</v>
       </c>
@@ -3847,7 +3870,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="60" t="s">
         <v>117</v>
       </c>
@@ -3865,7 +3888,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="60"/>
       <c r="C11" s="65"/>
       <c r="D11" s="36"/>
@@ -3879,7 +3902,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="60" t="s">
         <v>121</v>
       </c>
@@ -3897,7 +3920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="60" t="s">
         <v>127</v>
       </c>
@@ -3911,7 +3934,7 @@
       <c r="I13" s="36"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="60" t="s">
         <v>122</v>
       </c>
@@ -3931,7 +3954,7 @@
       </c>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="60" t="s">
         <v>124</v>
       </c>
@@ -3947,7 +3970,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="60"/>
       <c r="C16" s="65"/>
       <c r="D16" s="36"/>
@@ -3961,7 +3984,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>126</v>
       </c>
@@ -3977,7 +4000,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="60" t="s">
         <v>127</v>
       </c>
@@ -3995,7 +4018,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="60" t="s">
         <v>130</v>
       </c>
@@ -4013,7 +4036,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="60" t="s">
         <v>132</v>
       </c>
@@ -4033,7 +4056,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="60" t="s">
         <v>134</v>
       </c>
@@ -4047,7 +4070,7 @@
       <c r="I21" s="36"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="60" t="s">
         <v>124</v>
       </c>
@@ -4065,7 +4088,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="60"/>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
@@ -4077,7 +4100,7 @@
       </c>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="60" t="s">
         <v>137</v>
       </c>
@@ -4093,7 +4116,7 @@
       </c>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="60" t="s">
         <v>127</v>
       </c>
@@ -4111,7 +4134,7 @@
       </c>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="60" t="s">
         <v>130</v>
       </c>
@@ -4129,7 +4152,7 @@
       </c>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="60" t="s">
         <v>140</v>
       </c>
@@ -4147,7 +4170,7 @@
       </c>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="60" t="s">
         <v>141</v>
       </c>
@@ -4163,7 +4186,7 @@
       <c r="I28" s="24"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="60" t="s">
         <v>143</v>
       </c>
@@ -4179,7 +4202,7 @@
       <c r="I29" s="25"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="60" t="s">
         <v>146</v>
       </c>
@@ -4191,7 +4214,7 @@
       </c>
       <c r="E30" s="30"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="60" t="s">
         <v>143</v>
       </c>
@@ -4203,31 +4226,31 @@
       </c>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="60"/>
       <c r="C32" s="66"/>
       <c r="D32" s="24"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="60"/>
       <c r="C33" s="66"/>
       <c r="D33" s="24"/>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="60"/>
       <c r="C34" s="66"/>
       <c r="D34" s="24"/>
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="69"/>
       <c r="C35" s="67"/>
       <c r="D35" s="25"/>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="2:5" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="36" spans="2:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -4246,14 +4269,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="5" max="5" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="118" t="s">
         <v>1</v>
       </c>
@@ -4268,8 +4291,8 @@
       </c>
       <c r="G1" s="120"/>
     </row>
-    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="3" spans="1:13" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -4288,7 +4311,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4307,7 +4330,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -4324,7 +4347,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -4341,7 +4364,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -4356,7 +4379,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -4371,7 +4394,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -4386,7 +4409,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -4401,7 +4424,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="12"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -4416,7 +4439,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -4435,7 +4458,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -4452,7 +4475,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
@@ -4469,7 +4492,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
@@ -4486,7 +4509,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
         <v>7</v>
@@ -4503,7 +4526,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
         <v>14</v>
@@ -4520,7 +4543,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4"/>
@@ -4535,7 +4558,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
@@ -4550,7 +4573,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="10"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -4565,7 +4588,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -4584,7 +4607,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10"/>
       <c r="B22" s="8" t="s">
         <v>17</v>
@@ -4601,7 +4624,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
@@ -4618,7 +4641,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4"/>
@@ -4633,7 +4656,7 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -4648,7 +4671,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>19</v>
       </c>
@@ -4667,36 +4690,36 @@
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10"/>
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10"/>
       <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10"/>
       <c r="B30" s="8"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
         <v>26</v>
       </c>
@@ -4705,93 +4728,93 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10"/>
       <c r="B33" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10"/>
       <c r="B34" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10"/>
       <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10"/>
       <c r="B37" s="8"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10"/>
       <c r="B38" s="8"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10"/>
       <c r="B39" s="8"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10"/>
       <c r="B40" s="8"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10"/>
       <c r="B41" s="8"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10"/>
       <c r="B42" s="8"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10"/>
       <c r="B43" s="8"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10"/>
       <c r="B44" s="8"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10"/>
       <c r="B45" s="8"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10"/>
       <c r="B46" s="8"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10"/>
       <c r="B47" s="8"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="12"/>
       <c r="B48" s="9"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="49" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
@@ -4810,23 +4833,23 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="108.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:8" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="3" spans="2:8" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="2:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="44" t="s">
         <v>72</v>
       </c>
@@ -4849,7 +4872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="28" t="s">
         <v>82</v>
       </c>
@@ -4870,7 +4893,7 @@
       </c>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="31" t="s">
         <v>83</v>
       </c>
@@ -4891,7 +4914,7 @@
       </c>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="31" t="s">
         <v>84</v>
       </c>
@@ -4912,7 +4935,7 @@
       </c>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="31" t="s">
         <v>85</v>
       </c>
@@ -4933,7 +4956,7 @@
       </c>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="31"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -4942,7 +4965,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="31" t="s">
         <v>172</v>
       </c>
@@ -4953,7 +4976,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="32" t="s">
         <v>198</v>
       </c>
@@ -4964,7 +4987,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="11" spans="2:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4976,22 +4999,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.0625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:11" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="43" t="s">
         <v>103</v>
       </c>
@@ -5000,8 +5023,8 @@
       </c>
       <c r="E1" s="121"/>
     </row>
-    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="3" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="63"/>
       <c r="C3" s="27" t="s">
         <v>105</v>
@@ -5031,7 +5054,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="59" t="s">
         <v>82</v>
       </c>
@@ -5063,7 +5086,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="60" t="s">
         <v>83</v>
       </c>
@@ -5095,7 +5118,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="60" t="s">
         <v>84</v>
       </c>
@@ -5127,7 +5150,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="69" t="s">
         <v>85</v>
       </c>
@@ -5159,9 +5182,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
-    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="10" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="63"/>
       <c r="C10" s="61" t="s">
         <v>176</v>
@@ -5184,7 +5207,7 @@
       <c r="I10" s="27"/>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="68" t="s">
         <v>172</v>
       </c>
@@ -5209,7 +5232,7 @@
       <c r="I11" s="80"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="60" t="s">
         <v>170</v>
       </c>
@@ -5234,7 +5257,7 @@
       <c r="I12" s="74"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="69" t="s">
         <v>175</v>
       </c>
@@ -5259,8 +5282,8 @@
       <c r="I13" s="25"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="15" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
       <c r="C15" s="131" t="s">
         <v>207</v>
@@ -5268,7 +5291,7 @@
       <c r="D15" s="132"/>
       <c r="E15" s="133"/>
     </row>
-    <row r="16" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
         <v>208</v>
       </c>
@@ -5278,7 +5301,7 @@
       <c r="D16" s="123"/>
       <c r="E16" s="124"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>209</v>
       </c>
@@ -5292,7 +5315,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="70"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="60" t="s">
         <v>210</v>
       </c>
@@ -5306,7 +5329,7 @@
       <c r="J18" s="88"/>
       <c r="K18" s="88"/>
     </row>
-    <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="69" t="s">
         <v>211</v>
       </c>
@@ -5320,13 +5343,13 @@
       <c r="J19" s="88"/>
       <c r="K19" s="70"/>
     </row>
-    <row r="20" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H20" s="88"/>
       <c r="I20" s="88"/>
       <c r="J20" s="88"/>
       <c r="K20" s="70"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="70"/>
       <c r="I21" s="88"/>
       <c r="J21" s="88"/>
@@ -5349,23 +5372,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O64"/>
+  <dimension ref="B1:O78"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="39.4375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="49"/>
       <c r="C2" s="50">
         <v>42843</v>
@@ -5402,7 +5425,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="85" t="s">
         <v>77</v>
       </c>
@@ -5421,7 +5444,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="46" t="s">
         <v>78</v>
       </c>
@@ -5440,7 +5463,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="46" t="s">
         <v>79</v>
       </c>
@@ -5455,7 +5478,7 @@
       <c r="K5" s="55"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="46" t="s">
         <v>80</v>
       </c>
@@ -5470,7 +5493,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
@@ -5485,7 +5508,7 @@
       <c r="K7" s="55"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="46" t="s">
         <v>107</v>
       </c>
@@ -5500,7 +5523,7 @@
       <c r="K8" s="55"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="46" t="s">
         <v>152</v>
       </c>
@@ -5515,7 +5538,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="46" t="s">
         <v>153</v>
       </c>
@@ -5530,7 +5553,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="46" t="s">
         <v>154</v>
       </c>
@@ -5545,7 +5568,7 @@
       <c r="K11" s="54"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="46" t="s">
         <v>155</v>
       </c>
@@ -5560,7 +5583,7 @@
       <c r="K12" s="55"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="46" t="s">
         <v>156</v>
       </c>
@@ -5575,7 +5598,7 @@
       <c r="K13" s="55"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="46" t="s">
         <v>157</v>
       </c>
@@ -5590,7 +5613,7 @@
       <c r="K14" s="55"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="46" t="s">
         <v>158</v>
       </c>
@@ -5605,7 +5628,7 @@
       <c r="K15" s="55"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="46" t="s">
         <v>159</v>
       </c>
@@ -5619,7 +5642,7 @@
       <c r="K16" s="55"/>
       <c r="L16" s="56"/>
     </row>
-    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
         <v>202</v>
       </c>
@@ -5634,7 +5657,7 @@
       <c r="K17" s="54"/>
       <c r="L17" s="107"/>
     </row>
-    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
         <v>203</v>
       </c>
@@ -5649,7 +5672,7 @@
       <c r="K18" s="54"/>
       <c r="L18" s="107"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="84" t="s">
         <v>204</v>
       </c>
@@ -5664,7 +5687,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="49"/>
       <c r="C20" s="50">
         <v>42849</v>
@@ -5697,7 +5720,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
         <v>205</v>
       </c>
@@ -5712,7 +5735,7 @@
       <c r="K21" s="55"/>
       <c r="L21" s="56"/>
     </row>
-    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
         <v>206</v>
       </c>
@@ -5727,7 +5750,7 @@
       <c r="K22" s="55"/>
       <c r="L22" s="56"/>
     </row>
-    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
         <v>215</v>
       </c>
@@ -5742,7 +5765,7 @@
       <c r="K23" s="55"/>
       <c r="L23" s="56"/>
     </row>
-    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="46" t="s">
         <v>216</v>
       </c>
@@ -5757,7 +5780,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="46" t="s">
         <v>233</v>
       </c>
@@ -5772,7 +5795,7 @@
       <c r="K25" s="54"/>
       <c r="L25" s="62"/>
     </row>
-    <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="46" t="s">
         <v>234</v>
       </c>
@@ -5787,7 +5810,7 @@
       <c r="K26" s="72"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" s="46" t="s">
         <v>244</v>
       </c>
@@ -5802,7 +5825,7 @@
       <c r="K27" s="54"/>
       <c r="L27" s="62"/>
     </row>
-    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="46"/>
       <c r="C28" s="86"/>
       <c r="D28" s="55"/>
@@ -5815,7 +5838,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="46"/>
       <c r="C29" s="86"/>
       <c r="D29" s="55"/>
@@ -5828,7 +5851,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="46"/>
       <c r="C30" s="86"/>
       <c r="D30" s="55"/>
@@ -5841,7 +5864,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="46"/>
       <c r="C31" s="86"/>
       <c r="D31" s="55"/>
@@ -5854,7 +5877,7 @@
       <c r="K31" s="55"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="46"/>
       <c r="C32" s="86"/>
       <c r="D32" s="55"/>
@@ -5867,7 +5890,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="56"/>
     </row>
-    <row r="33" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B33" s="46"/>
       <c r="C33" s="86"/>
       <c r="D33" s="55"/>
@@ -5880,7 +5903,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="34" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="47"/>
       <c r="C34" s="87"/>
       <c r="D34" s="57"/>
@@ -5893,7 +5916,7 @@
       <c r="K34" s="57"/>
       <c r="L34" s="58"/>
     </row>
-    <row r="35" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="49"/>
       <c r="C35" s="111">
         <v>42859</v>
@@ -5926,7 +5949,7 @@
         <v>42868</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B36" s="110" t="s">
         <v>235</v>
       </c>
@@ -5941,7 +5964,7 @@
       <c r="K36" s="52"/>
       <c r="L36" s="53"/>
     </row>
-    <row r="37" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="108" t="s">
         <v>236</v>
       </c>
@@ -5956,7 +5979,7 @@
       <c r="K37" s="55"/>
       <c r="L37" s="56"/>
     </row>
-    <row r="38" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="46" t="s">
         <v>233</v>
       </c>
@@ -5971,7 +5994,7 @@
       <c r="K38" s="55"/>
       <c r="L38" s="56"/>
     </row>
-    <row r="39" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="108" t="s">
         <v>237</v>
       </c>
@@ -5986,7 +6009,7 @@
       <c r="K39" s="55"/>
       <c r="L39" s="56"/>
     </row>
-    <row r="40" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="40" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B40" s="108" t="s">
         <v>239</v>
       </c>
@@ -6001,7 +6024,7 @@
       <c r="K40" s="55"/>
       <c r="L40" s="56"/>
     </row>
-    <row r="41" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="108" t="s">
         <v>240</v>
       </c>
@@ -6016,7 +6039,7 @@
       <c r="K41" s="55"/>
       <c r="L41" s="56"/>
     </row>
-    <row r="42" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="108" t="s">
         <v>241</v>
       </c>
@@ -6031,7 +6054,7 @@
       <c r="K42" s="55"/>
       <c r="L42" s="56"/>
     </row>
-    <row r="43" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="108" t="s">
         <v>243</v>
       </c>
@@ -6046,7 +6069,7 @@
       <c r="K43" s="55"/>
       <c r="L43" s="56"/>
     </row>
-    <row r="44" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B44" s="108" t="s">
         <v>245</v>
       </c>
@@ -6061,7 +6084,7 @@
       <c r="K44" s="55"/>
       <c r="L44" s="56"/>
     </row>
-    <row r="45" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="108" t="s">
         <v>246</v>
       </c>
@@ -6076,7 +6099,7 @@
       <c r="K45" s="72"/>
       <c r="L45" s="56"/>
     </row>
-    <row r="46" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B46" s="108" t="s">
         <v>247</v>
       </c>
@@ -6091,7 +6114,7 @@
       <c r="K46" s="72"/>
       <c r="L46" s="56"/>
     </row>
-    <row r="47" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B47" s="108" t="s">
         <v>248</v>
       </c>
@@ -6106,7 +6129,7 @@
       <c r="K47" s="72"/>
       <c r="L47" s="56"/>
     </row>
-    <row r="48" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B48" s="113" t="s">
         <v>249</v>
       </c>
@@ -6121,7 +6144,7 @@
       <c r="K48" s="116"/>
       <c r="L48" s="117"/>
     </row>
-    <row r="49" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B49" s="49"/>
       <c r="C49" s="111">
         <v>42867</v>
@@ -6154,7 +6177,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B50" s="110" t="s">
         <v>250</v>
       </c>
@@ -6169,7 +6192,7 @@
       <c r="K50" s="52"/>
       <c r="L50" s="53"/>
     </row>
-    <row r="51" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B51" s="46" t="s">
         <v>244</v>
       </c>
@@ -6184,7 +6207,7 @@
       <c r="K51" s="55"/>
       <c r="L51" s="56"/>
     </row>
-    <row r="52" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="52" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B52" s="108" t="s">
         <v>254</v>
       </c>
@@ -6199,7 +6222,7 @@
       <c r="K52" s="55"/>
       <c r="L52" s="56"/>
     </row>
-    <row r="53" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B53" s="108" t="s">
         <v>255</v>
       </c>
@@ -6214,7 +6237,7 @@
       <c r="K53" s="55"/>
       <c r="L53" s="56"/>
     </row>
-    <row r="54" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B54" s="108" t="s">
         <v>252</v>
       </c>
@@ -6229,7 +6252,7 @@
       <c r="K54" s="55"/>
       <c r="L54" s="56"/>
     </row>
-    <row r="55" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B55" s="108" t="s">
         <v>253</v>
       </c>
@@ -6244,7 +6267,7 @@
       <c r="K55" s="55"/>
       <c r="L55" s="56"/>
     </row>
-    <row r="56" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B56" s="108" t="s">
         <v>251</v>
       </c>
@@ -6259,7 +6282,7 @@
       <c r="K56" s="55"/>
       <c r="L56" s="56"/>
     </row>
-    <row r="57" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B57" s="108" t="s">
         <v>256</v>
       </c>
@@ -6274,7 +6297,7 @@
       <c r="K57" s="55"/>
       <c r="L57" s="56"/>
     </row>
-    <row r="58" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B58" s="108" t="s">
         <v>257</v>
       </c>
@@ -6289,7 +6312,7 @@
       <c r="K58" s="55"/>
       <c r="L58" s="56"/>
     </row>
-    <row r="59" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B59" s="108" t="s">
         <v>258</v>
       </c>
@@ -6304,7 +6327,7 @@
       <c r="K59" s="55"/>
       <c r="L59" s="56"/>
     </row>
-    <row r="60" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="60" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B60" s="108" t="s">
         <v>259</v>
       </c>
@@ -6319,7 +6342,7 @@
       <c r="K60" s="55"/>
       <c r="L60" s="56"/>
     </row>
-    <row r="61" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="61" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B61" s="108" t="s">
         <v>260</v>
       </c>
@@ -6334,33 +6357,239 @@
       <c r="K61" s="55"/>
       <c r="L61" s="56"/>
     </row>
-    <row r="62" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B62" s="108"/>
+    <row r="62" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B62" s="108" t="s">
+        <v>262</v>
+      </c>
       <c r="C62" s="93"/>
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
       <c r="F62" s="55"/>
       <c r="G62" s="55"/>
       <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
+      <c r="I62" s="72"/>
       <c r="J62" s="55"/>
       <c r="K62" s="55"/>
       <c r="L62" s="56"/>
     </row>
-    <row r="63" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B63" s="109"/>
+    <row r="63" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B63" s="109" t="s">
+        <v>263</v>
+      </c>
       <c r="C63" s="97"/>
       <c r="D63" s="57"/>
       <c r="E63" s="57"/>
       <c r="F63" s="57"/>
       <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
       <c r="J63" s="57"/>
       <c r="K63" s="57"/>
       <c r="L63" s="58"/>
     </row>
-    <row r="64" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="64" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B64" s="49"/>
+      <c r="C64" s="111">
+        <v>42873</v>
+      </c>
+      <c r="D64" s="111">
+        <v>42874</v>
+      </c>
+      <c r="E64" s="111">
+        <v>42875</v>
+      </c>
+      <c r="F64" s="111">
+        <v>42876</v>
+      </c>
+      <c r="G64" s="111">
+        <v>42877</v>
+      </c>
+      <c r="H64" s="111">
+        <v>42878</v>
+      </c>
+      <c r="I64" s="111">
+        <v>42879</v>
+      </c>
+      <c r="J64" s="111">
+        <v>42880</v>
+      </c>
+      <c r="K64" s="111">
+        <v>42881</v>
+      </c>
+      <c r="L64" s="111">
+        <v>42882</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B65" s="110"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="53"/>
+    </row>
+    <row r="66" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B66" s="108"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="56"/>
+    </row>
+    <row r="67" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B67" s="108"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="56"/>
+    </row>
+    <row r="68" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B68" s="108"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="56"/>
+    </row>
+    <row r="69" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B69" s="108"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="56"/>
+    </row>
+    <row r="70" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B70" s="108"/>
+      <c r="C70" s="93"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="55"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="56"/>
+    </row>
+    <row r="71" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B71" s="108"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="56"/>
+    </row>
+    <row r="72" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B72" s="108"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="56"/>
+    </row>
+    <row r="73" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B73" s="108"/>
+      <c r="C73" s="93"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="56"/>
+    </row>
+    <row r="74" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B74" s="108"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="56"/>
+    </row>
+    <row r="75" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B75" s="108"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="56"/>
+    </row>
+    <row r="76" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B76" s="108"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="56"/>
+    </row>
+    <row r="77" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B77" s="109"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="58"/>
+    </row>
+    <row r="78" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6376,17 +6605,17 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="36.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="43" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="49"/>
       <c r="C2" s="94">
         <v>42849</v>
@@ -6423,7 +6652,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="85" t="s">
         <v>217</v>
       </c>
@@ -6442,7 +6671,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="46" t="s">
         <v>219</v>
       </c>
@@ -6461,7 +6690,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="46" t="s">
         <v>155</v>
       </c>
@@ -6476,7 +6705,7 @@
       <c r="K5" s="55"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="46" t="s">
         <v>203</v>
       </c>
@@ -6491,7 +6720,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="46"/>
       <c r="C7" s="93"/>
       <c r="D7" s="55"/>
@@ -6504,7 +6733,7 @@
       <c r="K7" s="55"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="46" t="s">
         <v>230</v>
       </c>
@@ -6519,7 +6748,7 @@
       <c r="K8" s="99"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="46"/>
       <c r="C9" s="93"/>
       <c r="D9" s="55"/>
@@ -6532,7 +6761,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="46"/>
       <c r="C10" s="93"/>
       <c r="D10" s="55"/>
@@ -6545,7 +6774,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="46"/>
       <c r="C11" s="93"/>
       <c r="D11" s="55"/>
@@ -6558,7 +6787,7 @@
       <c r="K11" s="55"/>
       <c r="L11" s="56"/>
     </row>
-    <row r="12" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="46" t="s">
         <v>220</v>
       </c>
@@ -6573,7 +6802,7 @@
       <c r="K12" s="99"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="46" t="s">
         <v>221</v>
       </c>
@@ -6588,7 +6817,7 @@
       <c r="K13" s="99"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="46" t="s">
         <v>222</v>
       </c>
@@ -6603,7 +6832,7 @@
       <c r="K14" s="99"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="46" t="s">
         <v>223</v>
       </c>
@@ -6618,7 +6847,7 @@
       <c r="K15" s="99"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="46" t="s">
         <v>224</v>
       </c>
@@ -6633,7 +6862,7 @@
       <c r="K16" s="99"/>
       <c r="L16" s="56"/>
     </row>
-    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
         <v>225</v>
       </c>
@@ -6648,7 +6877,7 @@
       <c r="K17" s="99"/>
       <c r="L17" s="56"/>
     </row>
-    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
         <v>226</v>
       </c>
@@ -6663,7 +6892,7 @@
       <c r="K18" s="99"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="84"/>
       <c r="C19" s="97"/>
       <c r="D19" s="57"/>
@@ -6676,7 +6905,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="49"/>
       <c r="C20" s="94">
         <v>42849</v>
@@ -6709,7 +6938,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
         <v>227</v>
       </c>
@@ -6724,7 +6953,7 @@
       <c r="K21" s="81"/>
       <c r="L21" s="101"/>
     </row>
-    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
         <v>228</v>
       </c>
@@ -6739,7 +6968,7 @@
       <c r="K22" s="99"/>
       <c r="L22" s="100"/>
     </row>
-    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
         <v>229</v>
       </c>
@@ -6754,7 +6983,7 @@
       <c r="K23" s="99"/>
       <c r="L23" s="100"/>
     </row>
-    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="46"/>
       <c r="C24" s="93"/>
       <c r="D24" s="55"/>
@@ -6767,7 +6996,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="46"/>
       <c r="C25" s="93"/>
       <c r="D25" s="55"/>
@@ -6780,7 +7009,7 @@
       <c r="K25" s="55"/>
       <c r="L25" s="56"/>
     </row>
-    <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="46"/>
       <c r="C26" s="93"/>
       <c r="D26" s="55"/>
@@ -6793,7 +7022,7 @@
       <c r="K26" s="55"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" s="46"/>
       <c r="C27" s="93"/>
       <c r="D27" s="55"/>
@@ -6806,7 +7035,7 @@
       <c r="K27" s="55"/>
       <c r="L27" s="56"/>
     </row>
-    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="46"/>
       <c r="C28" s="93"/>
       <c r="D28" s="55"/>
@@ -6819,7 +7048,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="46"/>
       <c r="C29" s="93"/>
       <c r="D29" s="55"/>
@@ -6832,7 +7061,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="46"/>
       <c r="C30" s="93"/>
       <c r="D30" s="55"/>
@@ -6845,7 +7074,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="46"/>
       <c r="C31" s="93"/>
       <c r="D31" s="55"/>
@@ -6858,7 +7087,7 @@
       <c r="K31" s="55"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="46"/>
       <c r="C32" s="93"/>
       <c r="D32" s="55"/>
@@ -6871,7 +7100,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="56"/>
     </row>
-    <row r="33" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B33" s="46"/>
       <c r="C33" s="93"/>
       <c r="D33" s="55"/>
@@ -6884,7 +7113,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="34" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="47"/>
       <c r="C34" s="97"/>
       <c r="D34" s="57"/>
@@ -6897,7 +7126,7 @@
       <c r="K34" s="57"/>
       <c r="L34" s="58"/>
     </row>
-    <row r="35" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="35" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="270">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -2015,6 +2015,51 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ作成[アベ]</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル変換[イズミ]</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー考察[ユック]</t>
+    <rPh sb="7" eb="9">
+      <t>コウサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPダメージ演出[ムック]</t>
+    <rPh sb="6" eb="8">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション[D]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーステージ端跳ね返り[イズミ]</t>
+    <rPh sb="9" eb="10">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3325,6 +3370,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3372,9 +3420,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3695,7 +3740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -3714,11 +3759,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -4277,19 +4322,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="118"/>
+      <c r="B1" s="119"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="120"/>
+      <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5018,10 +5063,10 @@
       <c r="B1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="121"/>
+      <c r="E1" s="122"/>
     </row>
     <row r="2" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5285,31 +5330,31 @@
     <row r="14" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="132" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
     </row>
     <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="125"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="126" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
@@ -5319,11 +5364,11 @@
       <c r="B18" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
       <c r="J18" s="88"/>
@@ -5333,11 +5378,11 @@
       <c r="B19" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="129" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
       <c r="H19" s="70"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
@@ -5375,7 +5420,7 @@
   <dimension ref="B1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6187,8 +6232,8 @@
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
       <c r="H50" s="51"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="98"/>
       <c r="K50" s="52"/>
       <c r="L50" s="53"/>
     </row>
@@ -6202,8 +6247,8 @@
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
       <c r="H51" s="54"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="72"/>
       <c r="K51" s="55"/>
       <c r="L51" s="56"/>
     </row>
@@ -6217,8 +6262,8 @@
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
       <c r="H52" s="54"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="72"/>
       <c r="K52" s="55"/>
       <c r="L52" s="56"/>
     </row>
@@ -6381,9 +6426,9 @@
       <c r="E63" s="57"/>
       <c r="F63" s="57"/>
       <c r="G63" s="57"/>
-      <c r="H63" s="134"/>
-      <c r="I63" s="134"/>
-      <c r="J63" s="57"/>
+      <c r="H63" s="118"/>
+      <c r="I63" s="118"/>
+      <c r="J63" s="105"/>
       <c r="K63" s="57"/>
       <c r="L63" s="58"/>
     </row>
@@ -6421,9 +6466,11 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B65" s="110"/>
+      <c r="B65" s="110" t="s">
+        <v>264</v>
+      </c>
       <c r="C65" s="96"/>
-      <c r="D65" s="52"/>
+      <c r="D65" s="51"/>
       <c r="E65" s="52"/>
       <c r="F65" s="52"/>
       <c r="G65" s="52"/>
@@ -6434,10 +6481,11 @@
       <c r="L65" s="53"/>
     </row>
     <row r="66" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B66" s="108"/>
+      <c r="B66" s="108" t="s">
+        <v>265</v>
+      </c>
       <c r="C66" s="93"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
+      <c r="D66" s="72"/>
       <c r="F66" s="55"/>
       <c r="G66" s="55"/>
       <c r="H66" s="55"/>
@@ -6447,9 +6495,11 @@
       <c r="L66" s="56"/>
     </row>
     <row r="67" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B67" s="108"/>
+      <c r="B67" s="108" t="s">
+        <v>266</v>
+      </c>
       <c r="C67" s="93"/>
-      <c r="D67" s="55"/>
+      <c r="D67" s="54"/>
       <c r="E67" s="55"/>
       <c r="F67" s="55"/>
       <c r="G67" s="55"/>
@@ -6460,9 +6510,11 @@
       <c r="L67" s="56"/>
     </row>
     <row r="68" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="108"/>
+      <c r="B68" s="108" t="s">
+        <v>267</v>
+      </c>
       <c r="C68" s="93"/>
-      <c r="D68" s="55"/>
+      <c r="D68" s="54"/>
       <c r="E68" s="55"/>
       <c r="F68" s="55"/>
       <c r="G68" s="55"/>
@@ -6473,9 +6525,11 @@
       <c r="L68" s="56"/>
     </row>
     <row r="69" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B69" s="108"/>
+      <c r="B69" s="108" t="s">
+        <v>268</v>
+      </c>
       <c r="C69" s="93"/>
-      <c r="D69" s="55"/>
+      <c r="D69" s="54"/>
       <c r="E69" s="55"/>
       <c r="F69" s="55"/>
       <c r="G69" s="55"/>
@@ -6486,9 +6540,11 @@
       <c r="L69" s="56"/>
     </row>
     <row r="70" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B70" s="108"/>
+      <c r="B70" s="108" t="s">
+        <v>269</v>
+      </c>
       <c r="C70" s="93"/>
-      <c r="D70" s="55"/>
+      <c r="D70" s="54"/>
       <c r="E70" s="55"/>
       <c r="F70" s="55"/>
       <c r="G70" s="55"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="274">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -2060,6 +2060,43 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーモデル置き換え[アベ]</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレゼン作成[アベ]</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレゼン素材作成[D]</t>
+    <rPh sb="4" eb="6">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自爆エネミー微調整[ユック]</t>
+    <rPh sb="0" eb="2">
+      <t>ジバク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ビチョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5420,7 +5457,7 @@
   <dimension ref="B1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6499,7 +6536,7 @@
         <v>266</v>
       </c>
       <c r="C67" s="93"/>
-      <c r="D67" s="54"/>
+      <c r="D67" s="72"/>
       <c r="E67" s="55"/>
       <c r="F67" s="55"/>
       <c r="G67" s="55"/>
@@ -6544,7 +6581,7 @@
         <v>269</v>
       </c>
       <c r="C70" s="93"/>
-      <c r="D70" s="54"/>
+      <c r="D70" s="72"/>
       <c r="E70" s="55"/>
       <c r="F70" s="55"/>
       <c r="G70" s="55"/>
@@ -6555,9 +6592,11 @@
       <c r="L70" s="56"/>
     </row>
     <row r="71" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B71" s="108"/>
+      <c r="B71" s="108" t="s">
+        <v>270</v>
+      </c>
       <c r="C71" s="93"/>
-      <c r="D71" s="55"/>
+      <c r="D71" s="72"/>
       <c r="E71" s="55"/>
       <c r="F71" s="55"/>
       <c r="G71" s="55"/>
@@ -6568,9 +6607,11 @@
       <c r="L71" s="56"/>
     </row>
     <row r="72" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B72" s="108"/>
+      <c r="B72" s="108" t="s">
+        <v>271</v>
+      </c>
       <c r="C72" s="93"/>
-      <c r="D72" s="55"/>
+      <c r="D72" s="72"/>
       <c r="E72" s="55"/>
       <c r="F72" s="55"/>
       <c r="G72" s="55"/>
@@ -6581,9 +6622,11 @@
       <c r="L72" s="56"/>
     </row>
     <row r="73" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B73" s="108"/>
+      <c r="B73" s="108" t="s">
+        <v>272</v>
+      </c>
       <c r="C73" s="93"/>
-      <c r="D73" s="55"/>
+      <c r="D73" s="54"/>
       <c r="E73" s="55"/>
       <c r="F73" s="55"/>
       <c r="G73" s="55"/>
@@ -6594,9 +6637,11 @@
       <c r="L73" s="56"/>
     </row>
     <row r="74" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B74" s="108"/>
+      <c r="B74" s="108" t="s">
+        <v>273</v>
+      </c>
       <c r="C74" s="93"/>
-      <c r="D74" s="55"/>
+      <c r="D74" s="54"/>
       <c r="E74" s="55"/>
       <c r="F74" s="55"/>
       <c r="G74" s="55"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeta1\Desktop\てお\ソースツリーo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takayosi\Documents\A_Team2017Zenki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="3800" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="3803" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="287">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -2097,6 +2097,76 @@
     </rPh>
     <rPh sb="6" eb="9">
       <t>ビチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾を撃つエネミーの修正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー演出（SE）[イズミ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM,SEの修正[ユック]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆発エフェクトの作成[D]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵索敵サークルの作成[D]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音の選別[ユック]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵索敵サークルの実装[アベ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー同士のダメージ判定[イズミ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー移動変更[イズミ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン移動時の演出素材[D]</t>
+    <rPh sb="9" eb="11">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン移動時の演出[阿部]</t>
+    <rPh sb="10" eb="12">
+      <t>アベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV読み込み処理修正</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3052,7 +3122,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3457,6 +3527,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3781,21 +3860,21 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="19.58203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.4375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.8125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.8125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.4375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
@@ -3811,7 +3890,7 @@
         <v>42898</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A2" s="70"/>
       <c r="G2" s="34" t="s">
         <v>32</v>
@@ -3819,7 +3898,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A3" s="71"/>
       <c r="B3" s="63"/>
       <c r="C3" s="61" t="s">
@@ -3844,7 +3923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B4" s="68" t="s">
         <v>108</v>
       </c>
@@ -3862,7 +3941,7 @@
       </c>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B5" s="60" t="s">
         <v>112</v>
       </c>
@@ -3882,7 +3961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B6" s="60" t="s">
         <v>113</v>
       </c>
@@ -3900,7 +3979,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B7" s="60" t="s">
         <v>114</v>
       </c>
@@ -3914,7 +3993,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B8" s="60" t="s">
         <v>115</v>
       </c>
@@ -3934,7 +4013,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B9" s="60" t="s">
         <v>116</v>
       </c>
@@ -3952,7 +4031,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B10" s="60" t="s">
         <v>117</v>
       </c>
@@ -3970,7 +4049,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B11" s="60"/>
       <c r="C11" s="65"/>
       <c r="D11" s="36"/>
@@ -3984,7 +4063,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B12" s="60" t="s">
         <v>121</v>
       </c>
@@ -4002,7 +4081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B13" s="60" t="s">
         <v>127</v>
       </c>
@@ -4016,7 +4095,7 @@
       <c r="I13" s="36"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B14" s="60" t="s">
         <v>122</v>
       </c>
@@ -4036,7 +4115,7 @@
       </c>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B15" s="60" t="s">
         <v>124</v>
       </c>
@@ -4052,7 +4131,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
       <c r="B16" s="60"/>
       <c r="C16" s="65"/>
       <c r="D16" s="36"/>
@@ -4066,7 +4145,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B17" s="60" t="s">
         <v>126</v>
       </c>
@@ -4082,7 +4161,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B18" s="60" t="s">
         <v>127</v>
       </c>
@@ -4100,7 +4179,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B19" s="60" t="s">
         <v>130</v>
       </c>
@@ -4118,7 +4197,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B20" s="60" t="s">
         <v>132</v>
       </c>
@@ -4138,7 +4217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B21" s="60" t="s">
         <v>134</v>
       </c>
@@ -4152,7 +4231,7 @@
       <c r="I21" s="36"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B22" s="60" t="s">
         <v>124</v>
       </c>
@@ -4170,7 +4249,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B23" s="60"/>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
@@ -4182,7 +4261,7 @@
       </c>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B24" s="60" t="s">
         <v>137</v>
       </c>
@@ -4198,7 +4277,7 @@
       </c>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B25" s="60" t="s">
         <v>127</v>
       </c>
@@ -4216,7 +4295,7 @@
       </c>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B26" s="60" t="s">
         <v>130</v>
       </c>
@@ -4234,7 +4313,7 @@
       </c>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B27" s="60" t="s">
         <v>140</v>
       </c>
@@ -4252,7 +4331,7 @@
       </c>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B28" s="60" t="s">
         <v>141</v>
       </c>
@@ -4268,7 +4347,7 @@
       <c r="I28" s="24"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B29" s="60" t="s">
         <v>143</v>
       </c>
@@ -4284,7 +4363,7 @@
       <c r="I29" s="25"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B30" s="60" t="s">
         <v>146</v>
       </c>
@@ -4296,7 +4375,7 @@
       </c>
       <c r="E30" s="30"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B31" s="60" t="s">
         <v>143</v>
       </c>
@@ -4308,31 +4387,31 @@
       </c>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B32" s="60"/>
       <c r="C32" s="66"/>
       <c r="D32" s="24"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B33" s="60"/>
       <c r="C33" s="66"/>
       <c r="D33" s="24"/>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B34" s="60"/>
       <c r="C34" s="66"/>
       <c r="D34" s="24"/>
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B35" s="69"/>
       <c r="C35" s="67"/>
       <c r="D35" s="25"/>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="2:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" spans="2:5" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -4351,14 +4430,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="22.9" x14ac:dyDescent="0.7">
       <c r="A1" s="119" t="s">
         <v>1</v>
       </c>
@@ -4373,8 +4452,8 @@
       </c>
       <c r="G1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="3" spans="1:13" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -4393,7 +4472,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4412,7 +4491,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -4429,7 +4508,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -4446,7 +4525,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -4461,7 +4540,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -4476,7 +4555,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -4491,7 +4570,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -4506,7 +4585,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="12"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -4521,7 +4600,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -4540,7 +4619,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -4557,7 +4636,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
@@ -4574,7 +4653,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
@@ -4591,7 +4670,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
         <v>7</v>
@@ -4608,7 +4687,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
         <v>14</v>
@@ -4625,7 +4704,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4"/>
@@ -4640,7 +4719,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A19" s="10"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
@@ -4655,7 +4734,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="10"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -4670,7 +4749,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -4689,7 +4768,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A22" s="10"/>
       <c r="B22" s="8" t="s">
         <v>17</v>
@@ -4706,7 +4785,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A23" s="10"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
@@ -4723,7 +4802,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4"/>
@@ -4738,7 +4817,7 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A25" s="10"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -4753,7 +4832,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A26" s="10" t="s">
         <v>19</v>
       </c>
@@ -4772,36 +4851,36 @@
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A27" s="10"/>
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A28" s="10"/>
       <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A29" s="10"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A30" s="10"/>
       <c r="B30" s="8"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A32" s="10" t="s">
         <v>26</v>
       </c>
@@ -4810,93 +4889,93 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A33" s="10"/>
       <c r="B33" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A34" s="10"/>
       <c r="B34" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A35" s="10"/>
       <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A36" s="10"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A37" s="10"/>
       <c r="B37" s="8"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A38" s="10"/>
       <c r="B38" s="8"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A39" s="10"/>
       <c r="B39" s="8"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A40" s="10"/>
       <c r="B40" s="8"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A41" s="10"/>
       <c r="B41" s="8"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A42" s="10"/>
       <c r="B42" s="8"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A43" s="10"/>
       <c r="B43" s="8"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A44" s="10"/>
       <c r="B44" s="8"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A45" s="10"/>
       <c r="B45" s="8"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A46" s="10"/>
       <c r="B46" s="8"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A47" s="10"/>
       <c r="B47" s="8"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A48" s="12"/>
       <c r="B48" s="9"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
@@ -4915,23 +4994,23 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="108.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:8" ht="22.9" x14ac:dyDescent="0.7">
       <c r="B1" s="43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="2:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="3" spans="2:8" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B3" s="44" t="s">
         <v>72</v>
       </c>
@@ -4954,7 +5033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B4" s="28" t="s">
         <v>82</v>
       </c>
@@ -4975,7 +5054,7 @@
       </c>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B5" s="31" t="s">
         <v>83</v>
       </c>
@@ -4996,7 +5075,7 @@
       </c>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B6" s="31" t="s">
         <v>84</v>
       </c>
@@ -5017,7 +5096,7 @@
       </c>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B7" s="31" t="s">
         <v>85</v>
       </c>
@@ -5038,7 +5117,7 @@
       </c>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B8" s="31"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -5047,7 +5126,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B9" s="31" t="s">
         <v>172</v>
       </c>
@@ -5058,7 +5137,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="32" t="s">
         <v>198</v>
       </c>
@@ -5069,7 +5148,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="2:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5082,21 +5161,21 @@
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:11" ht="22.9" x14ac:dyDescent="0.7">
       <c r="B1" s="43" t="s">
         <v>103</v>
       </c>
@@ -5105,8 +5184,8 @@
       </c>
       <c r="E1" s="122"/>
     </row>
-    <row r="2" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="3" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B3" s="63"/>
       <c r="C3" s="27" t="s">
         <v>105</v>
@@ -5136,7 +5215,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B4" s="59" t="s">
         <v>82</v>
       </c>
@@ -5168,7 +5247,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B5" s="60" t="s">
         <v>83</v>
       </c>
@@ -5200,7 +5279,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B6" s="60" t="s">
         <v>84</v>
       </c>
@@ -5232,7 +5311,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B7" s="69" t="s">
         <v>85</v>
       </c>
@@ -5264,9 +5343,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="10" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="63"/>
       <c r="C10" s="61" t="s">
         <v>176</v>
@@ -5289,7 +5368,7 @@
       <c r="I10" s="27"/>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B11" s="68" t="s">
         <v>172</v>
       </c>
@@ -5314,7 +5393,7 @@
       <c r="I11" s="80"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B12" s="60" t="s">
         <v>170</v>
       </c>
@@ -5339,7 +5418,7 @@
       <c r="I12" s="74"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="69" t="s">
         <v>175</v>
       </c>
@@ -5364,8 +5443,8 @@
       <c r="I13" s="25"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="15" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B15" s="49"/>
       <c r="C15" s="132" t="s">
         <v>207</v>
@@ -5373,7 +5452,7 @@
       <c r="D15" s="133"/>
       <c r="E15" s="134"/>
     </row>
-    <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B16" s="68" t="s">
         <v>208</v>
       </c>
@@ -5383,7 +5462,7 @@
       <c r="D16" s="124"/>
       <c r="E16" s="125"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B17" s="60" t="s">
         <v>209</v>
       </c>
@@ -5397,7 +5476,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="70"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.7">
       <c r="B18" s="60" t="s">
         <v>210</v>
       </c>
@@ -5411,7 +5490,7 @@
       <c r="J18" s="88"/>
       <c r="K18" s="88"/>
     </row>
-    <row r="19" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B19" s="69" t="s">
         <v>211</v>
       </c>
@@ -5425,13 +5504,13 @@
       <c r="J19" s="88"/>
       <c r="K19" s="70"/>
     </row>
-    <row r="20" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
       <c r="H20" s="88"/>
       <c r="I20" s="88"/>
       <c r="J20" s="88"/>
       <c r="K20" s="70"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.7">
       <c r="H21" s="70"/>
       <c r="I21" s="88"/>
       <c r="J21" s="88"/>
@@ -5454,23 +5533,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O78"/>
+  <dimension ref="B1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="39.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.4375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B1" s="43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B2" s="49"/>
       <c r="C2" s="50">
         <v>42843</v>
@@ -5507,7 +5586,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B3" s="85" t="s">
         <v>77</v>
       </c>
@@ -5526,7 +5605,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B4" s="46" t="s">
         <v>78</v>
       </c>
@@ -5545,7 +5624,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="46" t="s">
         <v>79</v>
       </c>
@@ -5560,7 +5639,7 @@
       <c r="K5" s="55"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B6" s="46" t="s">
         <v>80</v>
       </c>
@@ -5575,7 +5654,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
@@ -5590,7 +5669,7 @@
       <c r="K7" s="55"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B8" s="46" t="s">
         <v>107</v>
       </c>
@@ -5605,7 +5684,7 @@
       <c r="K8" s="55"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B9" s="46" t="s">
         <v>152</v>
       </c>
@@ -5620,7 +5699,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="46" t="s">
         <v>153</v>
       </c>
@@ -5635,7 +5714,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B11" s="46" t="s">
         <v>154</v>
       </c>
@@ -5650,7 +5729,7 @@
       <c r="K11" s="54"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B12" s="46" t="s">
         <v>155</v>
       </c>
@@ -5665,7 +5744,7 @@
       <c r="K12" s="55"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="46" t="s">
         <v>156</v>
       </c>
@@ -5680,7 +5759,7 @@
       <c r="K13" s="55"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B14" s="46" t="s">
         <v>157</v>
       </c>
@@ -5695,7 +5774,7 @@
       <c r="K14" s="55"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B15" s="46" t="s">
         <v>158</v>
       </c>
@@ -5710,7 +5789,7 @@
       <c r="K15" s="55"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B16" s="46" t="s">
         <v>159</v>
       </c>
@@ -5724,7 +5803,7 @@
       <c r="K16" s="55"/>
       <c r="L16" s="56"/>
     </row>
-    <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B17" s="46" t="s">
         <v>202</v>
       </c>
@@ -5739,7 +5818,7 @@
       <c r="K17" s="54"/>
       <c r="L17" s="107"/>
     </row>
-    <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B18" s="46" t="s">
         <v>203</v>
       </c>
@@ -5754,7 +5833,7 @@
       <c r="K18" s="54"/>
       <c r="L18" s="107"/>
     </row>
-    <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B19" s="84" t="s">
         <v>204</v>
       </c>
@@ -5769,7 +5848,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B20" s="49"/>
       <c r="C20" s="50">
         <v>42849</v>
@@ -5802,7 +5881,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B21" s="48" t="s">
         <v>205</v>
       </c>
@@ -5817,7 +5896,7 @@
       <c r="K21" s="55"/>
       <c r="L21" s="56"/>
     </row>
-    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B22" s="46" t="s">
         <v>206</v>
       </c>
@@ -5832,7 +5911,7 @@
       <c r="K22" s="55"/>
       <c r="L22" s="56"/>
     </row>
-    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B23" s="46" t="s">
         <v>215</v>
       </c>
@@ -5847,7 +5926,7 @@
       <c r="K23" s="55"/>
       <c r="L23" s="56"/>
     </row>
-    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B24" s="46" t="s">
         <v>216</v>
       </c>
@@ -5862,7 +5941,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B25" s="46" t="s">
         <v>233</v>
       </c>
@@ -5877,7 +5956,7 @@
       <c r="K25" s="54"/>
       <c r="L25" s="62"/>
     </row>
-    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B26" s="46" t="s">
         <v>234</v>
       </c>
@@ -5892,7 +5971,7 @@
       <c r="K26" s="72"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B27" s="46" t="s">
         <v>244</v>
       </c>
@@ -5907,7 +5986,7 @@
       <c r="K27" s="54"/>
       <c r="L27" s="62"/>
     </row>
-    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="46"/>
       <c r="C28" s="86"/>
       <c r="D28" s="55"/>
@@ -5920,7 +5999,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B29" s="46"/>
       <c r="C29" s="86"/>
       <c r="D29" s="55"/>
@@ -5933,7 +6012,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B30" s="46"/>
       <c r="C30" s="86"/>
       <c r="D30" s="55"/>
@@ -5946,7 +6025,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B31" s="46"/>
       <c r="C31" s="86"/>
       <c r="D31" s="55"/>
@@ -5959,7 +6038,7 @@
       <c r="K31" s="55"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B32" s="46"/>
       <c r="C32" s="86"/>
       <c r="D32" s="55"/>
@@ -5972,7 +6051,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="56"/>
     </row>
-    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B33" s="46"/>
       <c r="C33" s="86"/>
       <c r="D33" s="55"/>
@@ -5985,7 +6064,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B34" s="47"/>
       <c r="C34" s="87"/>
       <c r="D34" s="57"/>
@@ -5998,7 +6077,7 @@
       <c r="K34" s="57"/>
       <c r="L34" s="58"/>
     </row>
-    <row r="35" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B35" s="49"/>
       <c r="C35" s="111">
         <v>42859</v>
@@ -6031,7 +6110,7 @@
         <v>42868</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B36" s="110" t="s">
         <v>235</v>
       </c>
@@ -6046,7 +6125,7 @@
       <c r="K36" s="52"/>
       <c r="L36" s="53"/>
     </row>
-    <row r="37" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B37" s="108" t="s">
         <v>236</v>
       </c>
@@ -6061,7 +6140,7 @@
       <c r="K37" s="55"/>
       <c r="L37" s="56"/>
     </row>
-    <row r="38" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B38" s="46" t="s">
         <v>233</v>
       </c>
@@ -6076,7 +6155,7 @@
       <c r="K38" s="55"/>
       <c r="L38" s="56"/>
     </row>
-    <row r="39" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B39" s="108" t="s">
         <v>237</v>
       </c>
@@ -6091,7 +6170,7 @@
       <c r="K39" s="55"/>
       <c r="L39" s="56"/>
     </row>
-    <row r="40" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B40" s="108" t="s">
         <v>239</v>
       </c>
@@ -6106,7 +6185,7 @@
       <c r="K40" s="55"/>
       <c r="L40" s="56"/>
     </row>
-    <row r="41" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B41" s="108" t="s">
         <v>240</v>
       </c>
@@ -6121,7 +6200,7 @@
       <c r="K41" s="55"/>
       <c r="L41" s="56"/>
     </row>
-    <row r="42" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B42" s="108" t="s">
         <v>241</v>
       </c>
@@ -6136,7 +6215,7 @@
       <c r="K42" s="55"/>
       <c r="L42" s="56"/>
     </row>
-    <row r="43" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B43" s="108" t="s">
         <v>243</v>
       </c>
@@ -6151,7 +6230,7 @@
       <c r="K43" s="55"/>
       <c r="L43" s="56"/>
     </row>
-    <row r="44" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B44" s="108" t="s">
         <v>245</v>
       </c>
@@ -6166,7 +6245,7 @@
       <c r="K44" s="55"/>
       <c r="L44" s="56"/>
     </row>
-    <row r="45" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B45" s="108" t="s">
         <v>246</v>
       </c>
@@ -6181,7 +6260,7 @@
       <c r="K45" s="72"/>
       <c r="L45" s="56"/>
     </row>
-    <row r="46" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B46" s="108" t="s">
         <v>247</v>
       </c>
@@ -6196,7 +6275,7 @@
       <c r="K46" s="72"/>
       <c r="L46" s="56"/>
     </row>
-    <row r="47" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B47" s="108" t="s">
         <v>248</v>
       </c>
@@ -6211,7 +6290,7 @@
       <c r="K47" s="72"/>
       <c r="L47" s="56"/>
     </row>
-    <row r="48" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B48" s="113" t="s">
         <v>249</v>
       </c>
@@ -6226,7 +6305,7 @@
       <c r="K48" s="116"/>
       <c r="L48" s="117"/>
     </row>
-    <row r="49" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B49" s="49"/>
       <c r="C49" s="111">
         <v>42867</v>
@@ -6259,7 +6338,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B50" s="110" t="s">
         <v>250</v>
       </c>
@@ -6274,7 +6353,7 @@
       <c r="K50" s="52"/>
       <c r="L50" s="53"/>
     </row>
-    <row r="51" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B51" s="46" t="s">
         <v>244</v>
       </c>
@@ -6289,7 +6368,7 @@
       <c r="K51" s="55"/>
       <c r="L51" s="56"/>
     </row>
-    <row r="52" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B52" s="108" t="s">
         <v>254</v>
       </c>
@@ -6304,7 +6383,7 @@
       <c r="K52" s="55"/>
       <c r="L52" s="56"/>
     </row>
-    <row r="53" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B53" s="108" t="s">
         <v>255</v>
       </c>
@@ -6319,7 +6398,7 @@
       <c r="K53" s="55"/>
       <c r="L53" s="56"/>
     </row>
-    <row r="54" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B54" s="108" t="s">
         <v>252</v>
       </c>
@@ -6334,7 +6413,7 @@
       <c r="K54" s="55"/>
       <c r="L54" s="56"/>
     </row>
-    <row r="55" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B55" s="108" t="s">
         <v>253</v>
       </c>
@@ -6349,7 +6428,7 @@
       <c r="K55" s="55"/>
       <c r="L55" s="56"/>
     </row>
-    <row r="56" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B56" s="108" t="s">
         <v>251</v>
       </c>
@@ -6364,7 +6443,7 @@
       <c r="K56" s="55"/>
       <c r="L56" s="56"/>
     </row>
-    <row r="57" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B57" s="108" t="s">
         <v>256</v>
       </c>
@@ -6379,7 +6458,7 @@
       <c r="K57" s="55"/>
       <c r="L57" s="56"/>
     </row>
-    <row r="58" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B58" s="108" t="s">
         <v>257</v>
       </c>
@@ -6394,7 +6473,7 @@
       <c r="K58" s="55"/>
       <c r="L58" s="56"/>
     </row>
-    <row r="59" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B59" s="108" t="s">
         <v>258</v>
       </c>
@@ -6409,7 +6488,7 @@
       <c r="K59" s="55"/>
       <c r="L59" s="56"/>
     </row>
-    <row r="60" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B60" s="108" t="s">
         <v>259</v>
       </c>
@@ -6424,7 +6503,7 @@
       <c r="K60" s="55"/>
       <c r="L60" s="56"/>
     </row>
-    <row r="61" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B61" s="108" t="s">
         <v>260</v>
       </c>
@@ -6439,7 +6518,7 @@
       <c r="K61" s="55"/>
       <c r="L61" s="56"/>
     </row>
-    <row r="62" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B62" s="108" t="s">
         <v>262</v>
       </c>
@@ -6454,7 +6533,7 @@
       <c r="K62" s="55"/>
       <c r="L62" s="56"/>
     </row>
-    <row r="63" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B63" s="109" t="s">
         <v>263</v>
       </c>
@@ -6469,7 +6548,7 @@
       <c r="K63" s="57"/>
       <c r="L63" s="58"/>
     </row>
-    <row r="64" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B64" s="49"/>
       <c r="C64" s="111">
         <v>42873</v>
@@ -6502,22 +6581,22 @@
         <v>42882</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="65" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B65" s="110" t="s">
         <v>264</v>
       </c>
       <c r="C65" s="96"/>
       <c r="D65" s="51"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="82"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52"/>
       <c r="K65" s="52"/>
       <c r="L65" s="53"/>
     </row>
-    <row r="66" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B66" s="108" t="s">
         <v>265</v>
       </c>
@@ -6531,7 +6610,7 @@
       <c r="K66" s="55"/>
       <c r="L66" s="56"/>
     </row>
-    <row r="67" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B67" s="108" t="s">
         <v>266</v>
       </c>
@@ -6546,37 +6625,37 @@
       <c r="K67" s="55"/>
       <c r="L67" s="56"/>
     </row>
-    <row r="68" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B68" s="108" t="s">
         <v>267</v>
       </c>
       <c r="C68" s="93"/>
       <c r="D68" s="54"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
       <c r="H68" s="55"/>
       <c r="I68" s="55"/>
       <c r="J68" s="55"/>
       <c r="K68" s="55"/>
       <c r="L68" s="56"/>
     </row>
-    <row r="69" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B69" s="108" t="s">
         <v>268</v>
       </c>
       <c r="C69" s="93"/>
       <c r="D69" s="54"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
       <c r="H69" s="55"/>
       <c r="I69" s="55"/>
       <c r="J69" s="55"/>
       <c r="K69" s="55"/>
       <c r="L69" s="56"/>
     </row>
-    <row r="70" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B70" s="108" t="s">
         <v>269</v>
       </c>
@@ -6591,7 +6670,7 @@
       <c r="K70" s="55"/>
       <c r="L70" s="56"/>
     </row>
-    <row r="71" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B71" s="108" t="s">
         <v>270</v>
       </c>
@@ -6606,7 +6685,7 @@
       <c r="K71" s="55"/>
       <c r="L71" s="56"/>
     </row>
-    <row r="72" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B72" s="108" t="s">
         <v>271</v>
       </c>
@@ -6621,13 +6700,13 @@
       <c r="K72" s="55"/>
       <c r="L72" s="56"/>
     </row>
-    <row r="73" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B73" s="108" t="s">
         <v>272</v>
       </c>
       <c r="C73" s="93"/>
       <c r="D73" s="54"/>
-      <c r="E73" s="55"/>
+      <c r="E73" s="72"/>
       <c r="F73" s="55"/>
       <c r="G73" s="55"/>
       <c r="H73" s="55"/>
@@ -6636,23 +6715,25 @@
       <c r="K73" s="55"/>
       <c r="L73" s="56"/>
     </row>
-    <row r="74" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B74" s="108" t="s">
         <v>273</v>
       </c>
       <c r="C74" s="93"/>
       <c r="D74" s="54"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
       <c r="H74" s="55"/>
       <c r="I74" s="55"/>
       <c r="J74" s="55"/>
       <c r="K74" s="55"/>
       <c r="L74" s="56"/>
     </row>
-    <row r="75" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B75" s="108"/>
+    <row r="75" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B75" s="108" t="s">
+        <v>274</v>
+      </c>
       <c r="C75" s="93"/>
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
@@ -6664,8 +6745,10 @@
       <c r="K75" s="55"/>
       <c r="L75" s="56"/>
     </row>
-    <row r="76" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B76" s="108"/>
+    <row r="76" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B76" s="108" t="s">
+        <v>275</v>
+      </c>
       <c r="C76" s="93"/>
       <c r="D76" s="55"/>
       <c r="E76" s="55"/>
@@ -6677,8 +6760,10 @@
       <c r="K76" s="55"/>
       <c r="L76" s="56"/>
     </row>
-    <row r="77" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B77" s="109"/>
+    <row r="77" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B77" s="109" t="s">
+        <v>276</v>
+      </c>
       <c r="C77" s="97"/>
       <c r="D77" s="57"/>
       <c r="E77" s="57"/>
@@ -6690,7 +6775,157 @@
       <c r="K77" s="57"/>
       <c r="L77" s="58"/>
     </row>
-    <row r="78" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B78" s="135" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" s="97"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+    </row>
+    <row r="79" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B79" s="135" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+    </row>
+    <row r="80" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B80" s="135" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" s="97"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="97"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+    </row>
+    <row r="81" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B81" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="97"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="49"/>
+    </row>
+    <row r="82" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B82" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="49"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="49"/>
+    </row>
+    <row r="83" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B83" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="136"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+    </row>
+    <row r="84" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B84" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="137"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+    </row>
+    <row r="85" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B85" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="137"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+    </row>
+    <row r="86" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B86" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="137"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="49"/>
+    </row>
+    <row r="87" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B87" s="135" t="s">
+        <v>286</v>
+      </c>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="137"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="49"/>
+    </row>
+    <row r="88" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6702,21 +6937,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B1" s="43" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B2" s="49"/>
       <c r="C2" s="94">
         <v>42849</v>
@@ -6753,7 +6988,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B3" s="85" t="s">
         <v>217</v>
       </c>
@@ -6772,7 +7007,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B4" s="46" t="s">
         <v>219</v>
       </c>
@@ -6791,7 +7026,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="46" t="s">
         <v>155</v>
       </c>
@@ -6806,7 +7041,7 @@
       <c r="K5" s="55"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B6" s="46" t="s">
         <v>203</v>
       </c>
@@ -6821,7 +7056,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B7" s="46"/>
       <c r="C7" s="93"/>
       <c r="D7" s="55"/>
@@ -6834,7 +7069,7 @@
       <c r="K7" s="55"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B8" s="46" t="s">
         <v>230</v>
       </c>
@@ -6849,7 +7084,7 @@
       <c r="K8" s="99"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B9" s="46"/>
       <c r="C9" s="93"/>
       <c r="D9" s="55"/>
@@ -6862,7 +7097,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B10" s="46"/>
       <c r="C10" s="93"/>
       <c r="D10" s="55"/>
@@ -6875,7 +7110,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B11" s="46"/>
       <c r="C11" s="93"/>
       <c r="D11" s="55"/>
@@ -6888,7 +7123,7 @@
       <c r="K11" s="55"/>
       <c r="L11" s="56"/>
     </row>
-    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B12" s="46" t="s">
         <v>220</v>
       </c>
@@ -6903,7 +7138,7 @@
       <c r="K12" s="99"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B13" s="46" t="s">
         <v>221</v>
       </c>
@@ -6918,7 +7153,7 @@
       <c r="K13" s="99"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B14" s="46" t="s">
         <v>222</v>
       </c>
@@ -6933,7 +7168,7 @@
       <c r="K14" s="99"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B15" s="46" t="s">
         <v>223</v>
       </c>
@@ -6948,7 +7183,7 @@
       <c r="K15" s="99"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B16" s="46" t="s">
         <v>224</v>
       </c>
@@ -6963,7 +7198,7 @@
       <c r="K16" s="99"/>
       <c r="L16" s="56"/>
     </row>
-    <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B17" s="46" t="s">
         <v>225</v>
       </c>
@@ -6978,7 +7213,7 @@
       <c r="K17" s="99"/>
       <c r="L17" s="56"/>
     </row>
-    <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B18" s="46" t="s">
         <v>226</v>
       </c>
@@ -6993,7 +7228,7 @@
       <c r="K18" s="99"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B19" s="84"/>
       <c r="C19" s="97"/>
       <c r="D19" s="57"/>
@@ -7006,7 +7241,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B20" s="49"/>
       <c r="C20" s="94">
         <v>42849</v>
@@ -7039,7 +7274,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B21" s="48" t="s">
         <v>227</v>
       </c>
@@ -7054,7 +7289,7 @@
       <c r="K21" s="81"/>
       <c r="L21" s="101"/>
     </row>
-    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B22" s="46" t="s">
         <v>228</v>
       </c>
@@ -7069,7 +7304,7 @@
       <c r="K22" s="99"/>
       <c r="L22" s="100"/>
     </row>
-    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B23" s="46" t="s">
         <v>229</v>
       </c>
@@ -7084,7 +7319,7 @@
       <c r="K23" s="99"/>
       <c r="L23" s="100"/>
     </row>
-    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B24" s="46"/>
       <c r="C24" s="93"/>
       <c r="D24" s="55"/>
@@ -7097,7 +7332,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B25" s="46"/>
       <c r="C25" s="93"/>
       <c r="D25" s="55"/>
@@ -7110,7 +7345,7 @@
       <c r="K25" s="55"/>
       <c r="L25" s="56"/>
     </row>
-    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B26" s="46"/>
       <c r="C26" s="93"/>
       <c r="D26" s="55"/>
@@ -7123,7 +7358,7 @@
       <c r="K26" s="55"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B27" s="46"/>
       <c r="C27" s="93"/>
       <c r="D27" s="55"/>
@@ -7136,7 +7371,7 @@
       <c r="K27" s="55"/>
       <c r="L27" s="56"/>
     </row>
-    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="46"/>
       <c r="C28" s="93"/>
       <c r="D28" s="55"/>
@@ -7149,7 +7384,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B29" s="46"/>
       <c r="C29" s="93"/>
       <c r="D29" s="55"/>
@@ -7162,7 +7397,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B30" s="46"/>
       <c r="C30" s="93"/>
       <c r="D30" s="55"/>
@@ -7175,7 +7410,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B31" s="46"/>
       <c r="C31" s="93"/>
       <c r="D31" s="55"/>
@@ -7188,7 +7423,7 @@
       <c r="K31" s="55"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B32" s="46"/>
       <c r="C32" s="93"/>
       <c r="D32" s="55"/>
@@ -7201,7 +7436,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="56"/>
     </row>
-    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B33" s="46"/>
       <c r="C33" s="93"/>
       <c r="D33" s="55"/>
@@ -7214,7 +7449,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B34" s="47"/>
       <c r="C34" s="97"/>
       <c r="D34" s="57"/>
@@ -7227,7 +7462,7 @@
       <c r="K34" s="57"/>
       <c r="L34" s="58"/>
     </row>
-    <row r="35" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takayosi\Documents\A_Team2017Zenki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abeta1\Desktop\てお\ソースツリーo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="3803" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="3800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
@@ -2281,7 +2281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -3107,6 +3107,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3528,13 +3543,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3860,21 +3875,21 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="19.5625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.4375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.58203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.8125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.4375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.8125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.4375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +3905,7 @@
         <v>42898</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="70"/>
       <c r="G2" s="34" t="s">
         <v>32</v>
@@ -3898,7 +3913,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:10" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="71"/>
       <c r="B3" s="63"/>
       <c r="C3" s="61" t="s">
@@ -3923,7 +3938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="68" t="s">
         <v>108</v>
       </c>
@@ -3941,7 +3956,7 @@
       </c>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="60" t="s">
         <v>112</v>
       </c>
@@ -3961,7 +3976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="60" t="s">
         <v>113</v>
       </c>
@@ -3979,7 +3994,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="60" t="s">
         <v>114</v>
       </c>
@@ -3993,7 +4008,7 @@
       <c r="I7" s="36"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="60" t="s">
         <v>115</v>
       </c>
@@ -4013,7 +4028,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="60" t="s">
         <v>116</v>
       </c>
@@ -4031,7 +4046,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="60" t="s">
         <v>117</v>
       </c>
@@ -4049,7 +4064,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="60"/>
       <c r="C11" s="65"/>
       <c r="D11" s="36"/>
@@ -4063,7 +4078,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="60" t="s">
         <v>121</v>
       </c>
@@ -4081,7 +4096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="60" t="s">
         <v>127</v>
       </c>
@@ -4095,7 +4110,7 @@
       <c r="I13" s="36"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="60" t="s">
         <v>122</v>
       </c>
@@ -4115,7 +4130,7 @@
       </c>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="60" t="s">
         <v>124</v>
       </c>
@@ -4131,7 +4146,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="60"/>
       <c r="C16" s="65"/>
       <c r="D16" s="36"/>
@@ -4145,7 +4160,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>126</v>
       </c>
@@ -4161,7 +4176,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="60" t="s">
         <v>127</v>
       </c>
@@ -4179,7 +4194,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="60" t="s">
         <v>130</v>
       </c>
@@ -4197,7 +4212,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="60" t="s">
         <v>132</v>
       </c>
@@ -4217,7 +4232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="60" t="s">
         <v>134</v>
       </c>
@@ -4231,7 +4246,7 @@
       <c r="I21" s="36"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="60" t="s">
         <v>124</v>
       </c>
@@ -4249,7 +4264,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="60"/>
       <c r="C23" s="66"/>
       <c r="D23" s="36"/>
@@ -4261,7 +4276,7 @@
       </c>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="60" t="s">
         <v>137</v>
       </c>
@@ -4277,7 +4292,7 @@
       </c>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="60" t="s">
         <v>127</v>
       </c>
@@ -4295,7 +4310,7 @@
       </c>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="60" t="s">
         <v>130</v>
       </c>
@@ -4313,7 +4328,7 @@
       </c>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="60" t="s">
         <v>140</v>
       </c>
@@ -4331,7 +4346,7 @@
       </c>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="60" t="s">
         <v>141</v>
       </c>
@@ -4347,7 +4362,7 @@
       <c r="I28" s="24"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="60" t="s">
         <v>143</v>
       </c>
@@ -4363,7 +4378,7 @@
       <c r="I29" s="25"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="60" t="s">
         <v>146</v>
       </c>
@@ -4375,7 +4390,7 @@
       </c>
       <c r="E30" s="30"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="60" t="s">
         <v>143</v>
       </c>
@@ -4387,31 +4402,31 @@
       </c>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="60"/>
       <c r="C32" s="66"/>
       <c r="D32" s="24"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="60"/>
       <c r="C33" s="66"/>
       <c r="D33" s="24"/>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="60"/>
       <c r="C34" s="66"/>
       <c r="D34" s="24"/>
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="69"/>
       <c r="C35" s="67"/>
       <c r="D35" s="25"/>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="2:5" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="36" spans="2:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -4430,14 +4445,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="5" max="5" width="10.4375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="119" t="s">
         <v>1</v>
       </c>
@@ -4452,8 +4467,8 @@
       </c>
       <c r="G1" s="121"/>
     </row>
-    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="3" spans="1:13" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -4472,7 +4487,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4491,7 +4506,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -4508,7 +4523,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -4525,7 +4540,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -4540,7 +4555,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -4555,7 +4570,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -4570,7 +4585,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -4585,7 +4600,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="12"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -4600,7 +4615,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -4619,7 +4634,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -4636,7 +4651,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
@@ -4653,7 +4668,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
@@ -4670,7 +4685,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
         <v>7</v>
@@ -4687,7 +4702,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
         <v>14</v>
@@ -4704,7 +4719,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4"/>
@@ -4719,7 +4734,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
@@ -4734,7 +4749,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="10"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -4749,7 +4764,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -4768,7 +4783,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10"/>
       <c r="B22" s="8" t="s">
         <v>17</v>
@@ -4785,7 +4800,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
@@ -4802,7 +4817,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4"/>
@@ -4817,7 +4832,7 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -4832,7 +4847,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>19</v>
       </c>
@@ -4851,36 +4866,36 @@
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10"/>
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10"/>
       <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10"/>
       <c r="B30" s="8"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10"/>
       <c r="B31" s="8"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
         <v>26</v>
       </c>
@@ -4889,93 +4904,93 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10"/>
       <c r="B33" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10"/>
       <c r="B34" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10"/>
       <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10"/>
       <c r="B37" s="8"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10"/>
       <c r="B38" s="8"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10"/>
       <c r="B39" s="8"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10"/>
       <c r="B40" s="8"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10"/>
       <c r="B41" s="8"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10"/>
       <c r="B42" s="8"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10"/>
       <c r="B43" s="8"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10"/>
       <c r="B44" s="8"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10"/>
       <c r="B45" s="8"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10"/>
       <c r="B46" s="8"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10"/>
       <c r="B47" s="8"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="12"/>
       <c r="B48" s="9"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="49" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
@@ -4994,23 +5009,23 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="108.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:8" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="3" spans="2:8" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="2:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="44" t="s">
         <v>72</v>
       </c>
@@ -5033,7 +5048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="28" t="s">
         <v>82</v>
       </c>
@@ -5054,7 +5069,7 @@
       </c>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="31" t="s">
         <v>83</v>
       </c>
@@ -5075,7 +5090,7 @@
       </c>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="31" t="s">
         <v>84</v>
       </c>
@@ -5096,7 +5111,7 @@
       </c>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="31" t="s">
         <v>85</v>
       </c>
@@ -5117,7 +5132,7 @@
       </c>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="31"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -5126,7 +5141,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="31" t="s">
         <v>172</v>
       </c>
@@ -5137,7 +5152,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="32" t="s">
         <v>198</v>
       </c>
@@ -5148,7 +5163,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="11" spans="2:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5164,18 +5179,18 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.0625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:11" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="43" t="s">
         <v>103</v>
       </c>
@@ -5184,8 +5199,8 @@
       </c>
       <c r="E1" s="122"/>
     </row>
-    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="3" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="63"/>
       <c r="C3" s="27" t="s">
         <v>105</v>
@@ -5215,7 +5230,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="59" t="s">
         <v>82</v>
       </c>
@@ -5247,7 +5262,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="60" t="s">
         <v>83</v>
       </c>
@@ -5279,7 +5294,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="60" t="s">
         <v>84</v>
       </c>
@@ -5311,7 +5326,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="69" t="s">
         <v>85</v>
       </c>
@@ -5343,9 +5358,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
-    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="10" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="63"/>
       <c r="C10" s="61" t="s">
         <v>176</v>
@@ -5368,7 +5383,7 @@
       <c r="I10" s="27"/>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="68" t="s">
         <v>172</v>
       </c>
@@ -5393,7 +5408,7 @@
       <c r="I11" s="80"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="60" t="s">
         <v>170</v>
       </c>
@@ -5418,7 +5433,7 @@
       <c r="I12" s="74"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="69" t="s">
         <v>175</v>
       </c>
@@ -5443,8 +5458,8 @@
       <c r="I13" s="25"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="15" spans="2:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
       <c r="C15" s="132" t="s">
         <v>207</v>
@@ -5452,7 +5467,7 @@
       <c r="D15" s="133"/>
       <c r="E15" s="134"/>
     </row>
-    <row r="16" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
         <v>208</v>
       </c>
@@ -5462,7 +5477,7 @@
       <c r="D16" s="124"/>
       <c r="E16" s="125"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>209</v>
       </c>
@@ -5476,7 +5491,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="70"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="60" t="s">
         <v>210</v>
       </c>
@@ -5490,7 +5505,7 @@
       <c r="J18" s="88"/>
       <c r="K18" s="88"/>
     </row>
-    <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="69" t="s">
         <v>211</v>
       </c>
@@ -5504,13 +5519,13 @@
       <c r="J19" s="88"/>
       <c r="K19" s="70"/>
     </row>
-    <row r="20" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H20" s="88"/>
       <c r="I20" s="88"/>
       <c r="J20" s="88"/>
       <c r="K20" s="70"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="70"/>
       <c r="I21" s="88"/>
       <c r="J21" s="88"/>
@@ -5533,23 +5548,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O88"/>
+  <dimension ref="B1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="39.4375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="49"/>
       <c r="C2" s="50">
         <v>42843</v>
@@ -5586,7 +5601,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="85" t="s">
         <v>77</v>
       </c>
@@ -5605,7 +5620,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="46" t="s">
         <v>78</v>
       </c>
@@ -5624,7 +5639,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="46" t="s">
         <v>79</v>
       </c>
@@ -5639,7 +5654,7 @@
       <c r="K5" s="55"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="46" t="s">
         <v>80</v>
       </c>
@@ -5654,7 +5669,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
@@ -5669,7 +5684,7 @@
       <c r="K7" s="55"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="46" t="s">
         <v>107</v>
       </c>
@@ -5684,7 +5699,7 @@
       <c r="K8" s="55"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="46" t="s">
         <v>152</v>
       </c>
@@ -5699,7 +5714,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="46" t="s">
         <v>153</v>
       </c>
@@ -5714,7 +5729,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="46" t="s">
         <v>154</v>
       </c>
@@ -5729,7 +5744,7 @@
       <c r="K11" s="54"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="46" t="s">
         <v>155</v>
       </c>
@@ -5744,7 +5759,7 @@
       <c r="K12" s="55"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="46" t="s">
         <v>156</v>
       </c>
@@ -5759,7 +5774,7 @@
       <c r="K13" s="55"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="46" t="s">
         <v>157</v>
       </c>
@@ -5774,7 +5789,7 @@
       <c r="K14" s="55"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="46" t="s">
         <v>158</v>
       </c>
@@ -5789,7 +5804,7 @@
       <c r="K15" s="55"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="46" t="s">
         <v>159</v>
       </c>
@@ -5803,7 +5818,7 @@
       <c r="K16" s="55"/>
       <c r="L16" s="56"/>
     </row>
-    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
         <v>202</v>
       </c>
@@ -5818,7 +5833,7 @@
       <c r="K17" s="54"/>
       <c r="L17" s="107"/>
     </row>
-    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
         <v>203</v>
       </c>
@@ -5833,7 +5848,7 @@
       <c r="K18" s="54"/>
       <c r="L18" s="107"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="84" t="s">
         <v>204</v>
       </c>
@@ -5848,7 +5863,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="49"/>
       <c r="C20" s="50">
         <v>42849</v>
@@ -5881,7 +5896,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
         <v>205</v>
       </c>
@@ -5896,7 +5911,7 @@
       <c r="K21" s="55"/>
       <c r="L21" s="56"/>
     </row>
-    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
         <v>206</v>
       </c>
@@ -5911,7 +5926,7 @@
       <c r="K22" s="55"/>
       <c r="L22" s="56"/>
     </row>
-    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
         <v>215</v>
       </c>
@@ -5926,7 +5941,7 @@
       <c r="K23" s="55"/>
       <c r="L23" s="56"/>
     </row>
-    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="46" t="s">
         <v>216</v>
       </c>
@@ -5941,7 +5956,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="46" t="s">
         <v>233</v>
       </c>
@@ -5956,7 +5971,7 @@
       <c r="K25" s="54"/>
       <c r="L25" s="62"/>
     </row>
-    <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="46" t="s">
         <v>234</v>
       </c>
@@ -5971,7 +5986,7 @@
       <c r="K26" s="72"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" s="46" t="s">
         <v>244</v>
       </c>
@@ -5986,7 +6001,7 @@
       <c r="K27" s="54"/>
       <c r="L27" s="62"/>
     </row>
-    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="46"/>
       <c r="C28" s="86"/>
       <c r="D28" s="55"/>
@@ -5999,7 +6014,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="46"/>
       <c r="C29" s="86"/>
       <c r="D29" s="55"/>
@@ -6012,7 +6027,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="46"/>
       <c r="C30" s="86"/>
       <c r="D30" s="55"/>
@@ -6025,7 +6040,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="46"/>
       <c r="C31" s="86"/>
       <c r="D31" s="55"/>
@@ -6038,7 +6053,7 @@
       <c r="K31" s="55"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="46"/>
       <c r="C32" s="86"/>
       <c r="D32" s="55"/>
@@ -6051,7 +6066,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="56"/>
     </row>
-    <row r="33" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B33" s="46"/>
       <c r="C33" s="86"/>
       <c r="D33" s="55"/>
@@ -6064,7 +6079,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="34" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="47"/>
       <c r="C34" s="87"/>
       <c r="D34" s="57"/>
@@ -6077,7 +6092,7 @@
       <c r="K34" s="57"/>
       <c r="L34" s="58"/>
     </row>
-    <row r="35" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="49"/>
       <c r="C35" s="111">
         <v>42859</v>
@@ -6110,7 +6125,7 @@
         <v>42868</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B36" s="110" t="s">
         <v>235</v>
       </c>
@@ -6125,7 +6140,7 @@
       <c r="K36" s="52"/>
       <c r="L36" s="53"/>
     </row>
-    <row r="37" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="108" t="s">
         <v>236</v>
       </c>
@@ -6140,7 +6155,7 @@
       <c r="K37" s="55"/>
       <c r="L37" s="56"/>
     </row>
-    <row r="38" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="46" t="s">
         <v>233</v>
       </c>
@@ -6155,7 +6170,7 @@
       <c r="K38" s="55"/>
       <c r="L38" s="56"/>
     </row>
-    <row r="39" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="108" t="s">
         <v>237</v>
       </c>
@@ -6170,7 +6185,7 @@
       <c r="K39" s="55"/>
       <c r="L39" s="56"/>
     </row>
-    <row r="40" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="40" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B40" s="108" t="s">
         <v>239</v>
       </c>
@@ -6185,7 +6200,7 @@
       <c r="K40" s="55"/>
       <c r="L40" s="56"/>
     </row>
-    <row r="41" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="108" t="s">
         <v>240</v>
       </c>
@@ -6200,7 +6215,7 @@
       <c r="K41" s="55"/>
       <c r="L41" s="56"/>
     </row>
-    <row r="42" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="108" t="s">
         <v>241</v>
       </c>
@@ -6215,7 +6230,7 @@
       <c r="K42" s="55"/>
       <c r="L42" s="56"/>
     </row>
-    <row r="43" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="108" t="s">
         <v>243</v>
       </c>
@@ -6230,7 +6245,7 @@
       <c r="K43" s="55"/>
       <c r="L43" s="56"/>
     </row>
-    <row r="44" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B44" s="108" t="s">
         <v>245</v>
       </c>
@@ -6245,7 +6260,7 @@
       <c r="K44" s="55"/>
       <c r="L44" s="56"/>
     </row>
-    <row r="45" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="108" t="s">
         <v>246</v>
       </c>
@@ -6260,7 +6275,7 @@
       <c r="K45" s="72"/>
       <c r="L45" s="56"/>
     </row>
-    <row r="46" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B46" s="108" t="s">
         <v>247</v>
       </c>
@@ -6275,7 +6290,7 @@
       <c r="K46" s="72"/>
       <c r="L46" s="56"/>
     </row>
-    <row r="47" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B47" s="108" t="s">
         <v>248</v>
       </c>
@@ -6290,7 +6305,7 @@
       <c r="K47" s="72"/>
       <c r="L47" s="56"/>
     </row>
-    <row r="48" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B48" s="113" t="s">
         <v>249</v>
       </c>
@@ -6305,7 +6320,7 @@
       <c r="K48" s="116"/>
       <c r="L48" s="117"/>
     </row>
-    <row r="49" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B49" s="49"/>
       <c r="C49" s="111">
         <v>42867</v>
@@ -6338,7 +6353,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B50" s="110" t="s">
         <v>250</v>
       </c>
@@ -6353,7 +6368,7 @@
       <c r="K50" s="52"/>
       <c r="L50" s="53"/>
     </row>
-    <row r="51" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B51" s="46" t="s">
         <v>244</v>
       </c>
@@ -6368,7 +6383,7 @@
       <c r="K51" s="55"/>
       <c r="L51" s="56"/>
     </row>
-    <row r="52" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="52" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B52" s="108" t="s">
         <v>254</v>
       </c>
@@ -6383,7 +6398,7 @@
       <c r="K52" s="55"/>
       <c r="L52" s="56"/>
     </row>
-    <row r="53" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B53" s="108" t="s">
         <v>255</v>
       </c>
@@ -6398,7 +6413,7 @@
       <c r="K53" s="55"/>
       <c r="L53" s="56"/>
     </row>
-    <row r="54" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B54" s="108" t="s">
         <v>252</v>
       </c>
@@ -6413,7 +6428,7 @@
       <c r="K54" s="55"/>
       <c r="L54" s="56"/>
     </row>
-    <row r="55" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B55" s="108" t="s">
         <v>253</v>
       </c>
@@ -6428,7 +6443,7 @@
       <c r="K55" s="55"/>
       <c r="L55" s="56"/>
     </row>
-    <row r="56" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B56" s="108" t="s">
         <v>251</v>
       </c>
@@ -6443,7 +6458,7 @@
       <c r="K56" s="55"/>
       <c r="L56" s="56"/>
     </row>
-    <row r="57" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B57" s="108" t="s">
         <v>256</v>
       </c>
@@ -6458,7 +6473,7 @@
       <c r="K57" s="55"/>
       <c r="L57" s="56"/>
     </row>
-    <row r="58" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B58" s="108" t="s">
         <v>257</v>
       </c>
@@ -6473,7 +6488,7 @@
       <c r="K58" s="55"/>
       <c r="L58" s="56"/>
     </row>
-    <row r="59" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B59" s="108" t="s">
         <v>258</v>
       </c>
@@ -6488,7 +6503,7 @@
       <c r="K59" s="55"/>
       <c r="L59" s="56"/>
     </row>
-    <row r="60" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="60" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B60" s="108" t="s">
         <v>259</v>
       </c>
@@ -6503,7 +6518,7 @@
       <c r="K60" s="55"/>
       <c r="L60" s="56"/>
     </row>
-    <row r="61" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="61" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B61" s="108" t="s">
         <v>260</v>
       </c>
@@ -6518,7 +6533,7 @@
       <c r="K61" s="55"/>
       <c r="L61" s="56"/>
     </row>
-    <row r="62" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="62" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B62" s="108" t="s">
         <v>262</v>
       </c>
@@ -6533,7 +6548,7 @@
       <c r="K62" s="55"/>
       <c r="L62" s="56"/>
     </row>
-    <row r="63" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="63" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B63" s="109" t="s">
         <v>263</v>
       </c>
@@ -6548,7 +6563,7 @@
       <c r="K63" s="57"/>
       <c r="L63" s="58"/>
     </row>
-    <row r="64" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="64" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B64" s="49"/>
       <c r="C64" s="111">
         <v>42873</v>
@@ -6581,7 +6596,7 @@
         <v>42882</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="65" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B65" s="110" t="s">
         <v>264</v>
       </c>
@@ -6596,7 +6611,7 @@
       <c r="K65" s="52"/>
       <c r="L65" s="53"/>
     </row>
-    <row r="66" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="66" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B66" s="108" t="s">
         <v>265</v>
       </c>
@@ -6610,7 +6625,7 @@
       <c r="K66" s="55"/>
       <c r="L66" s="56"/>
     </row>
-    <row r="67" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="67" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B67" s="108" t="s">
         <v>266</v>
       </c>
@@ -6625,7 +6640,7 @@
       <c r="K67" s="55"/>
       <c r="L67" s="56"/>
     </row>
-    <row r="68" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="68" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B68" s="108" t="s">
         <v>267</v>
       </c>
@@ -6640,7 +6655,7 @@
       <c r="K68" s="55"/>
       <c r="L68" s="56"/>
     </row>
-    <row r="69" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="69" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B69" s="108" t="s">
         <v>268</v>
       </c>
@@ -6655,7 +6670,7 @@
       <c r="K69" s="55"/>
       <c r="L69" s="56"/>
     </row>
-    <row r="70" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="70" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B70" s="108" t="s">
         <v>269</v>
       </c>
@@ -6670,7 +6685,7 @@
       <c r="K70" s="55"/>
       <c r="L70" s="56"/>
     </row>
-    <row r="71" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="71" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B71" s="108" t="s">
         <v>270</v>
       </c>
@@ -6685,7 +6700,7 @@
       <c r="K71" s="55"/>
       <c r="L71" s="56"/>
     </row>
-    <row r="72" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="72" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B72" s="108" t="s">
         <v>271</v>
       </c>
@@ -6700,7 +6715,7 @@
       <c r="K72" s="55"/>
       <c r="L72" s="56"/>
     </row>
-    <row r="73" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="73" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B73" s="108" t="s">
         <v>272</v>
       </c>
@@ -6715,7 +6730,7 @@
       <c r="K73" s="55"/>
       <c r="L73" s="56"/>
     </row>
-    <row r="74" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="74" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B74" s="108" t="s">
         <v>273</v>
       </c>
@@ -6730,7 +6745,7 @@
       <c r="K74" s="55"/>
       <c r="L74" s="56"/>
     </row>
-    <row r="75" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="75" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B75" s="108" t="s">
         <v>274</v>
       </c>
@@ -6745,7 +6760,7 @@
       <c r="K75" s="55"/>
       <c r="L75" s="56"/>
     </row>
-    <row r="76" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B76" s="108" t="s">
         <v>275</v>
       </c>
@@ -6760,172 +6775,439 @@
       <c r="K76" s="55"/>
       <c r="L76" s="56"/>
     </row>
-    <row r="77" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B77" s="109" t="s">
+    <row r="77" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B77" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="C77" s="97"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="57"/>
-      <c r="K77" s="57"/>
-      <c r="L77" s="58"/>
-    </row>
-    <row r="78" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C77" s="93"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="56"/>
+    </row>
+    <row r="78" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B78" s="135" t="s">
         <v>280</v>
       </c>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
       <c r="G78" s="54"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-    </row>
-    <row r="79" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="56"/>
+    </row>
+    <row r="79" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B79" s="135" t="s">
         <v>281</v>
       </c>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
       <c r="G79" s="72"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="49"/>
-      <c r="K79" s="49"/>
-      <c r="L79" s="49"/>
-    </row>
-    <row r="80" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="56"/>
+    </row>
+    <row r="80" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B80" s="135" t="s">
         <v>277</v>
       </c>
-      <c r="C80" s="97"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="97"/>
-      <c r="F80" s="97"/>
+      <c r="C80" s="93"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
       <c r="G80" s="72"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
-    </row>
-    <row r="81" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B81" s="49" t="s">
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="56"/>
+    </row>
+    <row r="81" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B81" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="C81" s="49"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="97"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
       <c r="G81" s="72"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="49"/>
-    </row>
-    <row r="82" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B82" s="49" t="s">
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="56"/>
+    </row>
+    <row r="82" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B82" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
       <c r="G82" s="72"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
-    </row>
-    <row r="83" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B83" s="11" t="s">
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="56"/>
+    </row>
+    <row r="83" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B83" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="136"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-    </row>
-    <row r="84" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B84" s="49" t="s">
+      <c r="C83" s="93"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="56"/>
+    </row>
+    <row r="84" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B84" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="137"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="49"/>
-    </row>
-    <row r="85" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C84" s="93"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="56"/>
+    </row>
+    <row r="85" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B85" s="135" t="s">
         <v>283</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="137"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="49"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="49"/>
-    </row>
-    <row r="86" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B86" s="49" t="s">
+      <c r="C85" s="93"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="56"/>
+    </row>
+    <row r="86" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B86" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="49"/>
-    </row>
-    <row r="87" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B87" s="135" t="s">
+      <c r="C86" s="93"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="56"/>
+    </row>
+    <row r="87" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B87" s="136" t="s">
         <v>286</v>
       </c>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="137"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="49"/>
-      <c r="L87" s="49"/>
-    </row>
-    <row r="88" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="57"/>
+      <c r="L87" s="58"/>
+    </row>
+    <row r="88" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B88" s="49"/>
+      <c r="C88" s="137">
+        <v>42881</v>
+      </c>
+      <c r="D88" s="137">
+        <v>42882</v>
+      </c>
+      <c r="E88" s="137">
+        <v>42883</v>
+      </c>
+      <c r="F88" s="137">
+        <v>42884</v>
+      </c>
+      <c r="G88" s="137">
+        <v>42885</v>
+      </c>
+      <c r="H88" s="137">
+        <v>42886</v>
+      </c>
+      <c r="I88" s="137">
+        <v>42887</v>
+      </c>
+      <c r="J88" s="137">
+        <v>42888</v>
+      </c>
+      <c r="K88" s="137">
+        <v>42889</v>
+      </c>
+      <c r="L88" s="137">
+        <v>42890</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B89" s="110"/>
+      <c r="C89" s="96"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="52"/>
+      <c r="K89" s="52"/>
+      <c r="L89" s="53"/>
+    </row>
+    <row r="90" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B90" s="108"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="56"/>
+    </row>
+    <row r="91" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B91" s="108"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="55"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="56"/>
+    </row>
+    <row r="92" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B92" s="108"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="56"/>
+    </row>
+    <row r="93" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B93" s="108"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="55"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="56"/>
+    </row>
+    <row r="94" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B94" s="108"/>
+      <c r="C94" s="93"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="56"/>
+    </row>
+    <row r="95" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B95" s="108"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="55"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="56"/>
+    </row>
+    <row r="96" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B96" s="108"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="55"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="56"/>
+    </row>
+    <row r="97" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B97" s="108"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="55"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="56"/>
+    </row>
+    <row r="98" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B98" s="108"/>
+      <c r="C98" s="93"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="55"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="56"/>
+    </row>
+    <row r="99" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B99" s="108"/>
+      <c r="C99" s="93"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="56"/>
+    </row>
+    <row r="100" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B100" s="108"/>
+      <c r="C100" s="93"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="56"/>
+    </row>
+    <row r="101" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B101" s="108"/>
+      <c r="C101" s="93"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="55"/>
+      <c r="K101" s="55"/>
+      <c r="L101" s="56"/>
+    </row>
+    <row r="102" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B102" s="108"/>
+      <c r="C102" s="93"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="55"/>
+      <c r="K102" s="55"/>
+      <c r="L102" s="56"/>
+    </row>
+    <row r="103" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B103" s="108"/>
+      <c r="C103" s="93"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="55"/>
+      <c r="K103" s="55"/>
+      <c r="L103" s="56"/>
+    </row>
+    <row r="104" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B104" s="108"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="55"/>
+      <c r="I104" s="55"/>
+      <c r="J104" s="55"/>
+      <c r="K104" s="55"/>
+      <c r="L104" s="56"/>
+    </row>
+    <row r="105" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B105" s="108"/>
+      <c r="C105" s="93"/>
+      <c r="D105" s="55"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="55"/>
+      <c r="L105" s="56"/>
+    </row>
+    <row r="106" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B106" s="109"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="57"/>
+      <c r="K106" s="57"/>
+      <c r="L106" s="58"/>
+    </row>
+    <row r="107" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6941,17 +7223,17 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="36.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="2:15" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="43" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="49"/>
       <c r="C2" s="94">
         <v>42849</v>
@@ -6988,7 +7270,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="2:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="85" t="s">
         <v>217</v>
       </c>
@@ -7007,7 +7289,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="46" t="s">
         <v>219</v>
       </c>
@@ -7026,7 +7308,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="46" t="s">
         <v>155</v>
       </c>
@@ -7041,7 +7323,7 @@
       <c r="K5" s="55"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="46" t="s">
         <v>203</v>
       </c>
@@ -7056,7 +7338,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="46"/>
       <c r="C7" s="93"/>
       <c r="D7" s="55"/>
@@ -7069,7 +7351,7 @@
       <c r="K7" s="55"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="46" t="s">
         <v>230</v>
       </c>
@@ -7084,7 +7366,7 @@
       <c r="K8" s="99"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="46"/>
       <c r="C9" s="93"/>
       <c r="D9" s="55"/>
@@ -7097,7 +7379,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="46"/>
       <c r="C10" s="93"/>
       <c r="D10" s="55"/>
@@ -7110,7 +7392,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="46"/>
       <c r="C11" s="93"/>
       <c r="D11" s="55"/>
@@ -7123,7 +7405,7 @@
       <c r="K11" s="55"/>
       <c r="L11" s="56"/>
     </row>
-    <row r="12" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="46" t="s">
         <v>220</v>
       </c>
@@ -7138,7 +7420,7 @@
       <c r="K12" s="99"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="46" t="s">
         <v>221</v>
       </c>
@@ -7153,7 +7435,7 @@
       <c r="K13" s="99"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="46" t="s">
         <v>222</v>
       </c>
@@ -7168,7 +7450,7 @@
       <c r="K14" s="99"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="46" t="s">
         <v>223</v>
       </c>
@@ -7183,7 +7465,7 @@
       <c r="K15" s="99"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="2:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="46" t="s">
         <v>224</v>
       </c>
@@ -7198,7 +7480,7 @@
       <c r="K16" s="99"/>
       <c r="L16" s="56"/>
     </row>
-    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="46" t="s">
         <v>225</v>
       </c>
@@ -7213,7 +7495,7 @@
       <c r="K17" s="99"/>
       <c r="L17" s="56"/>
     </row>
-    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="46" t="s">
         <v>226</v>
       </c>
@@ -7228,7 +7510,7 @@
       <c r="K18" s="99"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="84"/>
       <c r="C19" s="97"/>
       <c r="D19" s="57"/>
@@ -7241,7 +7523,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
     </row>
-    <row r="20" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="49"/>
       <c r="C20" s="94">
         <v>42849</v>
@@ -7274,7 +7556,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="48" t="s">
         <v>227</v>
       </c>
@@ -7289,7 +7571,7 @@
       <c r="K21" s="81"/>
       <c r="L21" s="101"/>
     </row>
-    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="46" t="s">
         <v>228</v>
       </c>
@@ -7304,7 +7586,7 @@
       <c r="K22" s="99"/>
       <c r="L22" s="100"/>
     </row>
-    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="46" t="s">
         <v>229</v>
       </c>
@@ -7319,7 +7601,7 @@
       <c r="K23" s="99"/>
       <c r="L23" s="100"/>
     </row>
-    <row r="24" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="46"/>
       <c r="C24" s="93"/>
       <c r="D24" s="55"/>
@@ -7332,7 +7614,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="46"/>
       <c r="C25" s="93"/>
       <c r="D25" s="55"/>
@@ -7345,7 +7627,7 @@
       <c r="K25" s="55"/>
       <c r="L25" s="56"/>
     </row>
-    <row r="26" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="46"/>
       <c r="C26" s="93"/>
       <c r="D26" s="55"/>
@@ -7358,7 +7640,7 @@
       <c r="K26" s="55"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" s="46"/>
       <c r="C27" s="93"/>
       <c r="D27" s="55"/>
@@ -7371,7 +7653,7 @@
       <c r="K27" s="55"/>
       <c r="L27" s="56"/>
     </row>
-    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="46"/>
       <c r="C28" s="93"/>
       <c r="D28" s="55"/>
@@ -7384,7 +7666,7 @@
       <c r="K28" s="55"/>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="46"/>
       <c r="C29" s="93"/>
       <c r="D29" s="55"/>
@@ -7397,7 +7679,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="46"/>
       <c r="C30" s="93"/>
       <c r="D30" s="55"/>
@@ -7410,7 +7692,7 @@
       <c r="K30" s="55"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="46"/>
       <c r="C31" s="93"/>
       <c r="D31" s="55"/>
@@ -7423,7 +7705,7 @@
       <c r="K31" s="55"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="46"/>
       <c r="C32" s="93"/>
       <c r="D32" s="55"/>
@@ -7436,7 +7718,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="56"/>
     </row>
-    <row r="33" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B33" s="46"/>
       <c r="C33" s="93"/>
       <c r="D33" s="55"/>
@@ -7449,7 +7731,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="34" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="47"/>
       <c r="C34" s="97"/>
       <c r="D34" s="57"/>
@@ -7462,7 +7744,7 @@
       <c r="K34" s="57"/>
       <c r="L34" s="58"/>
     </row>
-    <row r="35" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="35" spans="2:12" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/サイバーロボット要件定義.xlsx
+++ b/サイバーロボット要件定義.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="290">
   <si>
     <t>サイバーロボット要件定義</t>
     <rPh sb="8" eb="10">
@@ -2167,6 +2167,33 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM,SEメディア登録[ユック]</t>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ作成[ムック]</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー無敵時間追加[アベ]</t>
+    <rPh sb="4" eb="6">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3495,6 +3522,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3542,15 +3578,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3890,11 +3917,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
       <c r="D1" s="41">
         <v>42842</v>
       </c>
@@ -4453,19 +4480,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="122"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="121"/>
+      <c r="G1" s="124"/>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5194,10 +5221,10 @@
       <c r="B1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="125" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="122"/>
+      <c r="E1" s="125"/>
     </row>
     <row r="2" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5461,31 +5488,31 @@
     <row r="14" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="15" spans="2:11" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="49"/>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
     </row>
     <row r="16" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="126" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
@@ -5495,11 +5522,11 @@
       <c r="B18" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
       <c r="J18" s="88"/>
@@ -5509,11 +5536,11 @@
       <c r="B19" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="134"/>
       <c r="H19" s="70"/>
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
@@ -5550,8 +5577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6791,7 +6818,7 @@
       <c r="L77" s="56"/>
     </row>
     <row r="78" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B78" s="135" t="s">
+      <c r="B78" s="119" t="s">
         <v>280</v>
       </c>
       <c r="C78" s="93"/>
@@ -6806,7 +6833,7 @@
       <c r="L78" s="56"/>
     </row>
     <row r="79" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B79" s="135" t="s">
+      <c r="B79" s="119" t="s">
         <v>281</v>
       </c>
       <c r="C79" s="93"/>
@@ -6821,7 +6848,7 @@
       <c r="L79" s="56"/>
     </row>
     <row r="80" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B80" s="135" t="s">
+      <c r="B80" s="119" t="s">
         <v>277</v>
       </c>
       <c r="C80" s="93"/>
@@ -6896,7 +6923,7 @@
       <c r="L84" s="56"/>
     </row>
     <row r="85" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B85" s="135" t="s">
+      <c r="B85" s="119" t="s">
         <v>283</v>
       </c>
       <c r="C85" s="93"/>
@@ -6926,7 +6953,7 @@
       <c r="L86" s="56"/>
     </row>
     <row r="87" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B87" s="136" t="s">
+      <c r="B87" s="120" t="s">
         <v>286</v>
       </c>
       <c r="C87" s="97"/>
@@ -6942,40 +6969,42 @@
     </row>
     <row r="88" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B88" s="49"/>
-      <c r="C88" s="137">
+      <c r="C88" s="121">
         <v>42881</v>
       </c>
-      <c r="D88" s="137">
+      <c r="D88" s="121">
         <v>42882</v>
       </c>
-      <c r="E88" s="137">
+      <c r="E88" s="121">
         <v>42883</v>
       </c>
-      <c r="F88" s="137">
+      <c r="F88" s="121">
         <v>42884</v>
       </c>
-      <c r="G88" s="137">
+      <c r="G88" s="121">
         <v>42885</v>
       </c>
-      <c r="H88" s="137">
+      <c r="H88" s="121">
         <v>42886</v>
       </c>
-      <c r="I88" s="137">
+      <c r="I88" s="121">
         <v>42887</v>
       </c>
-      <c r="J88" s="137">
+      <c r="J88" s="121">
         <v>42888</v>
       </c>
-      <c r="K88" s="137">
+      <c r="K88" s="121">
         <v>42889</v>
       </c>
-      <c r="L88" s="137">
+      <c r="L88" s="121">
         <v>42890</v>
       </c>
     </row>
     <row r="89" spans="2:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B89" s="110"/>
-      <c r="C89" s="96"/>
+      <c r="B89" s="110" t="s">
+        <v>287</v>
+      </c>
+      <c r="C89" s="91"/>
       <c r="D89" s="52"/>
       <c r="E89" s="52"/>
       <c r="F89" s="52"/>
@@ -6987,8 +7016,10 @@
       <c r="L89" s="53"/>
     </row>
     <row r="90" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B90" s="108"/>
-      <c r="C90" s="93"/>
+      <c r="B90" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="C90" s="62"/>
       <c r="D90" s="55"/>
       <c r="E90" s="55"/>
       <c r="F90" s="55"/>
@@ -7000,8 +7031,10 @@
       <c r="L90" s="56"/>
     </row>
     <row r="91" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B91" s="108"/>
-      <c r="C91" s="93"/>
+      <c r="B91" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" s="112"/>
       <c r="D91" s="55"/>
       <c r="E91" s="55"/>
       <c r="F91" s="55"/>
